--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029615402222</t>
+    <t xml:space="preserve">6.71029663085938</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217063903809</t>
+    <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829116821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397796630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52728891372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822496414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48153686523438</t>
+    <t xml:space="preserve">6.58829164505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52728843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48153734207153</t>
   </si>
   <si>
     <t xml:space="preserve">6.39003372192383</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334466934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32903051376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090404510498</t>
+    <t xml:space="preserve">6.36334371566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32903003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090356826782</t>
   </si>
   <si>
     <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15746021270752</t>
+    <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414926528931</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">6.16508531570435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11552095413208</t>
+    <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351453781128</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">6.03926706314087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03545570373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950408935547</t>
+    <t xml:space="preserve">6.03545522689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87151002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950456619263</t>
   </si>
   <si>
     <t xml:space="preserve">5.92870044708252</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">6.10026931762695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839769363403</t>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652320861816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
@@ -152,16 +152,16 @@
     <t xml:space="preserve">6.22990131378174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40528345108032</t>
+    <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
     <t xml:space="preserve">6.51966381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39765882492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27946472167969</t>
+    <t xml:space="preserve">6.3976583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27946519851685</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33665609359741</t>
+    <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
     <t xml:space="preserve">6.35953140258789</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09264421463013</t>
+    <t xml:space="preserve">6.09264469146729</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364694595337</t>
+    <t xml:space="preserve">6.15364742279053</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933374404907</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08501958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883237838745</t>
+    <t xml:space="preserve">6.0850191116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95920085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207759857178</t>
+    <t xml:space="preserve">5.95920133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207712173462</t>
   </si>
   <si>
     <t xml:space="preserve">6.02401685714722</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996608734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377935409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21464967727661</t>
+    <t xml:space="preserve">6.30996656417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377983093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
     <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25658941268921</t>
+    <t xml:space="preserve">6.25658893585205</t>
   </si>
   <si>
     <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24896430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3747820854187</t>
+    <t xml:space="preserve">6.24896383285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37478256225586</t>
   </si>
   <si>
     <t xml:space="preserve">6.55779027938843</t>
@@ -296,28 +296,28 @@
     <t xml:space="preserve">6.54635238647461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47391128540039</t>
+    <t xml:space="preserve">6.47391223907471</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4967885017395</t>
+    <t xml:space="preserve">6.49678802490234</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066654205322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54253959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51203775405884</t>
+    <t xml:space="preserve">6.54254007339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
     <t xml:space="preserve">6.45103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43959760665894</t>
+    <t xml:space="preserve">6.43959808349609</t>
   </si>
   <si>
     <t xml:space="preserve">6.39384603500366</t>
@@ -329,28 +329,28 @@
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866060256958</t>
+    <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47009897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50060081481934</t>
+    <t xml:space="preserve">6.4700984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50060033798218</t>
   </si>
   <si>
     <t xml:space="preserve">6.48534917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50441312789917</t>
+    <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
     <t xml:space="preserve">6.55016565322876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46628665924072</t>
+    <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447933197021</t>
@@ -362,25 +362,25 @@
     <t xml:space="preserve">6.57304048538208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354280471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872728347778</t>
+    <t xml:space="preserve">6.60354232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872680664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5311017036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591722488403</t>
+    <t xml:space="preserve">6.53110122680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591770172119</t>
   </si>
   <si>
     <t xml:space="preserve">6.63023090362549</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64166927337646</t>
+    <t xml:space="preserve">6.64166879653931</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">6.69885969161987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598247528076</t>
+    <t xml:space="preserve">6.67598295211792</t>
   </si>
   <si>
     <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76367425918579</t>
+    <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96955871582031</t>
+    <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300207138062</t>
+    <t xml:space="preserve">7.05343723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">7.00768566131592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00387287139893</t>
+    <t xml:space="preserve">7.00387239456177</t>
   </si>
   <si>
     <t xml:space="preserve">6.9352445602417</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169563293457</t>
+    <t xml:space="preserve">7.15637874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169610977173</t>
   </si>
   <si>
     <t xml:space="preserve">7.3203239440918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39657735824585</t>
+    <t xml:space="preserve">7.39657688140869</t>
   </si>
   <si>
     <t xml:space="preserve">7.51095771789551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45757961273193</t>
+    <t xml:space="preserve">7.45758056640625</t>
   </si>
   <si>
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43470430374146</t>
+    <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
@@ -485,25 +485,25 @@
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335849761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285903930664</t>
+    <t xml:space="preserve">8.07523250579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335945129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285808563232</t>
   </si>
   <si>
     <t xml:space="preserve">8.18961238861084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34212017059326</t>
+    <t xml:space="preserve">8.34212112426758</t>
   </si>
   <si>
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38787174224854</t>
+    <t xml:space="preserve">8.38787078857422</t>
   </si>
   <si>
     <t xml:space="preserve">8.22011280059814</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974575042725</t>
+    <t xml:space="preserve">8.34974479675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.37262058258057</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.68525791168213</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288444519043</t>
+    <t xml:space="preserve">8.69288349151611</t>
   </si>
   <si>
     <t xml:space="preserve">8.80726528167725</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">8.91401958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164611816406</t>
+    <t xml:space="preserve">8.88351821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164516448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.15040588378906</t>
@@ -548,22 +548,22 @@
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2876615524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568244934082</t>
+    <t xml:space="preserve">9.28766250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
   </si>
   <si>
     <t xml:space="preserve">9.27241230010986</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">9.37916564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
+    <t xml:space="preserve">9.83668613433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043319702148</t>
   </si>
   <si>
     <t xml:space="preserve">9.56979846954346</t>
@@ -584,28 +584,28 @@
     <t xml:space="preserve">9.67655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79093456268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531253814697</t>
+    <t xml:space="preserve">9.79093360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
   </si>
   <si>
     <t xml:space="preserve">10.2179527282715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848384857178</t>
+    <t xml:space="preserve">10.5610942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848394393921</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5229654312134</t>
+    <t xml:space="preserve">10.5229663848877</t>
   </si>
   <si>
     <t xml:space="preserve">10.3933353424072</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">10.1188230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950769424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730724334717</t>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
     <t xml:space="preserve">10.095947265625</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">9.34103965759277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60792541503906</t>
+    <t xml:space="preserve">9.60792446136475</t>
   </si>
   <si>
     <t xml:space="preserve">9.95865249633789</t>
@@ -665,40 +665,37 @@
     <t xml:space="preserve">10.0597171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4688835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443126678467</t>
+    <t xml:space="preserve">10.0286207199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200733184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50775337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
   </si>
   <si>
     <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56217288970947</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0130710601807</t>
+    <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
     <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5728092193604</t>
+    <t xml:space="preserve">10.572808265686</t>
   </si>
   <si>
     <t xml:space="preserve">10.4484233856201</t>
@@ -710,7 +707,7 @@
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007144927979</t>
+    <t xml:space="preserve">10.3007154464722</t>
   </si>
   <si>
     <t xml:space="preserve">10.4561977386475</t>
@@ -722,13 +719,13 @@
     <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5028429031372</t>
+    <t xml:space="preserve">10.5028419494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7282915115356</t>
+    <t xml:space="preserve">10.72829246521</t>
   </si>
   <si>
     <t xml:space="preserve">10.565034866333</t>
@@ -737,25 +734,25 @@
     <t xml:space="preserve">10.5261640548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5106163024902</t>
+    <t xml:space="preserve">10.5106172561646</t>
   </si>
   <si>
     <t xml:space="preserve">10.4639720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406490325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.409553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3318119049072</t>
+    <t xml:space="preserve">10.4406499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4095525741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3318109512329</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229719161987</t>
+    <t xml:space="preserve">10.222972869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -770,16 +767,16 @@
     <t xml:space="preserve">10.1996507644653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3240365982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084878921509</t>
+    <t xml:space="preserve">10.3240356445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084888458252</t>
   </si>
   <si>
     <t xml:space="preserve">10.3784561157227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3395862579346</t>
+    <t xml:space="preserve">10.3395853042603</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540702819824</t>
@@ -788,13 +785,13 @@
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696189880371</t>
+    <t xml:space="preserve">10.2696180343628</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3473587036133</t>
+    <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6350011825562</t>
@@ -803,7 +800,7 @@
     <t xml:space="preserve">10.6505508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894197463989</t>
+    <t xml:space="preserve">10.6894207000732</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
@@ -812,10 +809,10 @@
     <t xml:space="preserve">10.5572605133057</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6116800308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194534301758</t>
+    <t xml:space="preserve">10.6116790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449039459229</t>
@@ -824,7 +821,7 @@
     <t xml:space="preserve">10.8604516983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8837747573853</t>
+    <t xml:space="preserve">10.8837738037109</t>
   </si>
   <si>
     <t xml:space="preserve">10.8993215560913</t>
@@ -836,25 +833,25 @@
     <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.767162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362907409668</t>
+    <t xml:space="preserve">10.7671632766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795198440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3629083633423</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219110488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94310474395752</t>
+    <t xml:space="preserve">10.1219100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94310569763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -875,31 +872,31 @@
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530065536499</t>
+    <t xml:space="preserve">10.1141366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530075073242</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99752521514893</t>
+    <t xml:space="preserve">9.99752330780029</t>
   </si>
   <si>
     <t xml:space="preserve">9.98974990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0674915313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">10.0674905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462959289551</t>
+    <t xml:space="preserve">10.2462949752808</t>
   </si>
   <si>
     <t xml:space="preserve">10.2307472229004</t>
@@ -920,28 +917,28 @@
     <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43778705596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17346668243408</t>
+    <t xml:space="preserve">9.43778610229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734676361084</t>
   </si>
   <si>
     <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29785251617432</t>
+    <t xml:space="preserve">9.2201099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2978515625</t>
   </si>
   <si>
     <t xml:space="preserve">9.31340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2356595993042</t>
+    <t xml:space="preserve">9.23566055297852</t>
   </si>
   <si>
     <t xml:space="preserve">9.32894992828369</t>
@@ -950,28 +947,28 @@
     <t xml:space="preserve">9.20456314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0646276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40668964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3755931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572696685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00243473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95579051971436</t>
+    <t xml:space="preserve">9.06462860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4066915512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37559413909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572601318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0024356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482593536377</t>
+    <t xml:space="preserve">8.64482498168945</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
@@ -980,13 +977,13 @@
     <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86250114440918</t>
+    <t xml:space="preserve">8.86250019073486</t>
   </si>
   <si>
     <t xml:space="preserve">8.47379493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55153656005859</t>
+    <t xml:space="preserve">8.55153560638428</t>
   </si>
   <si>
     <t xml:space="preserve">8.6292781829834</t>
@@ -1019,13 +1016,13 @@
     <t xml:space="preserve">8.70701885223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59818077087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75366401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78476142883301</t>
+    <t xml:space="preserve">8.59818172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75366497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78476047515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.94024276733398</t>
@@ -1034,19 +1031,19 @@
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97134017944336</t>
+    <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
     <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01798439025879</t>
+    <t xml:space="preserve">9.01798343658447</t>
   </si>
   <si>
     <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31603813171387</t>
+    <t xml:space="preserve">9.31603717803955</t>
   </si>
   <si>
     <t xml:space="preserve">9.36381149291992</t>
@@ -1055,16 +1052,16 @@
     <t xml:space="preserve">9.50713539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34788608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
+    <t xml:space="preserve">9.34788703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751216888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47528648376465</t>
+    <t xml:space="preserve">9.47528553009033</t>
   </si>
   <si>
     <t xml:space="preserve">9.5230598449707</t>
@@ -1073,7 +1070,7 @@
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44343566894531</t>
+    <t xml:space="preserve">9.443434715271</t>
   </si>
   <si>
     <t xml:space="preserve">9.39566135406494</t>
@@ -1085,7 +1082,7 @@
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823360443115</t>
+    <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1094,34 +1091,34 @@
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61861038208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73008346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600887298584</t>
+    <t xml:space="preserve">9.61860942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71415901184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73008251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01346588134766</t>
+    <t xml:space="preserve">9.01346492767334</t>
   </si>
   <si>
     <t xml:space="preserve">8.82236766815186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75866794586182</t>
+    <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.59941864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71089363098145</t>
+    <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1139,7 +1136,7 @@
     <t xml:space="preserve">8.63126850128174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44017124176025</t>
+    <t xml:space="preserve">8.44017028808594</t>
   </si>
   <si>
     <t xml:space="preserve">8.56757068634033</t>
@@ -1160,7 +1157,7 @@
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4083194732666</t>
+    <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
     <t xml:space="preserve">8.7268180847168</t>
@@ -1175,7 +1172,7 @@
     <t xml:space="preserve">8.3446216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167358398438</t>
+    <t xml:space="preserve">8.12167453765869</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1184,13 +1181,13 @@
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982372283936</t>
+    <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
     <t xml:space="preserve">7.95446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88280057907104</t>
+    <t xml:space="preserve">7.88279962539673</t>
   </si>
   <si>
     <t xml:space="preserve">8.04204845428467</t>
@@ -1211,7 +1208,7 @@
     <t xml:space="preserve">8.9179162979126</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83829212188721</t>
+    <t xml:space="preserve">8.83829307556152</t>
   </si>
   <si>
     <t xml:space="preserve">8.98161602020264</t>
@@ -1220,13 +1217,13 @@
     <t xml:space="preserve">8.80644226074219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53571891784668</t>
+    <t xml:space="preserve">8.535719871521</t>
   </si>
   <si>
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606739044189</t>
+    <t xml:space="preserve">8.88606643676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1241,7 +1238,7 @@
     <t xml:space="preserve">8.9975414276123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66311836242676</t>
+    <t xml:space="preserve">8.66311931610107</t>
   </si>
   <si>
     <t xml:space="preserve">8.79051780700684</t>
@@ -1259,7 +1256,7 @@
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719486236572</t>
+    <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
     <t xml:space="preserve">8.74274253845215</t>
@@ -1292,7 +1289,7 @@
     <t xml:space="preserve">8.24110984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32073307037354</t>
+    <t xml:space="preserve">8.32073402404785</t>
   </si>
   <si>
     <t xml:space="preserve">8.08186149597168</t>
@@ -1322,7 +1319,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36778545379639</t>
+    <t xml:space="preserve">8.3677864074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1331,7 +1328,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119167327881</t>
+    <t xml:space="preserve">7.94119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1340,7 +1337,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993270874023</t>
+    <t xml:space="preserve">7.80993223190308</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1352,37 +1349,40 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82634115219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711772918701</t>
+    <t xml:space="preserve">7.90837717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.826340675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711725234985</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148872375488</t>
+    <t xml:space="preserve">7.66226720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148824691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
+    <t xml:space="preserve">8.12167263031006</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604362487793</t>
+    <t xml:space="preserve">8.05604457855225</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478466033936</t>
+    <t xml:space="preserve">7.92478513717651</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352474212646</t>
+    <t xml:space="preserve">8.02322959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352521896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5966362953186</t>
+    <t xml:space="preserve">7.59663677215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8427472114563</t>
+    <t xml:space="preserve">7.84274768829346</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819183349609</t>
+    <t xml:space="preserve">7.49819135665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334035873413</t>
+    <t xml:space="preserve">7.38333988189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441446304321</t>
+    <t xml:space="preserve">7.10441398620605</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363597869873</t>
+    <t xml:space="preserve">7.15363645553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196920394897</t>
+    <t xml:space="preserve">7.89196968078613</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31771039962769</t>
+    <t xml:space="preserve">7.31770992279053</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111709594727</t>
+    <t xml:space="preserve">6.89111661911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85830211639404</t>
+    <t xml:space="preserve">6.8583025932312</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248777389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996793746948</t>
+    <t xml:space="preserve">6.38248729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996841430664</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756029129028</t>
+    <t xml:space="preserve">5.21756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833734512329</t>
+    <t xml:space="preserve">4.95504093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833686828613</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318881988525</t>
+    <t xml:space="preserve">5.28318929672241</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037431716919</t>
+    <t xml:space="preserve">5.25037479400635</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426292419434</t>
+    <t xml:space="preserve">5.00426340103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067089080811</t>
+    <t xml:space="preserve">4.85659694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281814575195</t>
+    <t xml:space="preserve">4.46281862258911</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718818664551</t>
+    <t xml:space="preserve">4.39718866348267</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496587753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8311333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78191018104553</t>
+    <t xml:space="preserve">3.90496563911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83113360404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137360572815</t>
+    <t xml:space="preserve">3.92137384414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13467025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826229095459</t>
+    <t xml:space="preserve">4.1346697807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826276779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748476028442</t>
+    <t xml:space="preserve">4.16748428344727</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2003002166748</t>
+    <t xml:space="preserve">4.18389272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20029973983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311471939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155822753906</t>
+    <t xml:space="preserve">4.23311424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155870437622</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083631515503</t>
+    <t xml:space="preserve">4.06083583831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802181243896</t>
+    <t xml:space="preserve">4.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9705958366394</t>
+    <t xml:space="preserve">3.97059559822083</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268818855286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394739151001</t>
+    <t xml:space="preserve">3.73268795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394762992859</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909591674805</t>
+    <t xml:space="preserve">3.74909567832947</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44555807113647</t>
+    <t xml:space="preserve">3.4455578327179</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2896876335144</t>
+    <t xml:space="preserve">3.28968739509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220723152161</t>
+    <t xml:space="preserve">3.55220699310303</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885519981384</t>
+    <t xml:space="preserve">3.65885496139526</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952173233032</t>
+    <t xml:space="preserve">4.24952220916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767057418823</t>
+    <t xml:space="preserve">4.57767009735107</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515169143677</t>
+    <t xml:space="preserve">4.31515216827393</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796667098999</t>
+    <t xml:space="preserve">4.34796619415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396730422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630084991455</t>
+    <t xml:space="preserve">5.23396682739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989288330078</t>
+    <t xml:space="preserve">5.06989336013794</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574388504028</t>
+    <t xml:space="preserve">4.64330005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8557436466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676189422607</t>
+    <t xml:space="preserve">3.89676213264465</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418858528137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598412513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.727294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844584465027</t>
+    <t xml:space="preserve">3.9623920917511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418810844421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72729468345642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844608306885</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598841667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549607276917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99353003501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303840637207</t>
+    <t xml:space="preserve">3.94598793983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549654960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99352979660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303888320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1836986541748</t>
+    <t xml:space="preserve">4.18369817733765</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29779863357544</t>
+    <t xml:space="preserve">4.2977991104126</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255933761597</t>
+    <t xml:space="preserve">4.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008863449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22173166275024</t>
+    <t xml:space="preserve">4.06008911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2217321395874</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23124027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468143463135</t>
+    <t xml:space="preserve">4.23123979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468191146851</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6892614364624</t>
+    <t xml:space="preserve">3.68926119804382</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942910194397</t>
+    <t xml:space="preserve">3.87942934036255</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029615402222</t>
+    <t xml:space="preserve">6.71029663085938</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">6.52728843688965</t>
   </si>
   <si>
-    <t xml:space="preserve">6.508225440979</t>
+    <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003324508667</t>
+    <t xml:space="preserve">6.39003372192383</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44341039657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715698242188</t>
+    <t xml:space="preserve">6.44341087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715650558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.35190582275391</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">6.36334419250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32903003692627</t>
+    <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
     <t xml:space="preserve">6.29090356826782</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15745973587036</t>
+    <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414926528931</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16508531570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552047729492</t>
+    <t xml:space="preserve">6.16508483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552000045776</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351501464844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926658630371</t>
+    <t xml:space="preserve">6.03926753997803</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545522689819</t>
@@ -119,19 +119,19 @@
     <t xml:space="preserve">5.87151002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92870044708252</t>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92869997024536</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10026931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839769363403</t>
+    <t xml:space="preserve">6.10026979446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652320861816</t>
@@ -152,58 +152,58 @@
     <t xml:space="preserve">6.22990131378174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40528297424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51966381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3976583480835</t>
+    <t xml:space="preserve">6.40528345108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51966333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.27946519851685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19177389144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140493392944</t>
+    <t xml:space="preserve">6.19177436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565288543701</t>
+    <t xml:space="preserve">6.27565240859985</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37096977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859487533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264469146729</t>
+    <t xml:space="preserve">6.35953187942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37096881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214284896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264421463013</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364694595337</t>
+    <t xml:space="preserve">6.15364742279053</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077163696289</t>
+    <t xml:space="preserve">6.13077116012573</t>
   </si>
   <si>
     <t xml:space="preserve">6.12314605712891</t>
@@ -212,25 +212,25 @@
     <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1040825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0850191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207712173462</t>
+    <t xml:space="preserve">6.10408306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10789585113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
     <t xml:space="preserve">6.02401685714722</t>
@@ -239,22 +239,22 @@
     <t xml:space="preserve">6.07739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02782917022705</t>
+    <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
     <t xml:space="preserve">6.26421451568604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19558715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184057235718</t>
+    <t xml:space="preserve">6.19558620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772455215454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24515199661255</t>
+    <t xml:space="preserve">6.24515151977539</t>
   </si>
   <si>
     <t xml:space="preserve">6.18033647537231</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31377935409546</t>
+    <t xml:space="preserve">6.3137788772583</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25658893585205</t>
+    <t xml:space="preserve">6.25658941268921</t>
   </si>
   <si>
     <t xml:space="preserve">6.16127252578735</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37478256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55778980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391176223755</t>
+    <t xml:space="preserve">6.3747820854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55779027938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635334014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404321670532</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">6.49678802490234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58066701889038</t>
+    <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
     <t xml:space="preserve">6.54254007339478</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3938455581665</t>
+    <t xml:space="preserve">6.45103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384603500366</t>
   </si>
   <si>
     <t xml:space="preserve">6.43578481674194</t>
@@ -329,43 +329,43 @@
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866012573242</t>
+    <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4700984954834</t>
+    <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
     <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48534917831421</t>
+    <t xml:space="preserve">6.48534965515137</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
+    <t xml:space="preserve">6.55016613006592</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447933197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66835737228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57304048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354280471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872680664062</t>
+    <t xml:space="preserve">6.58447885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66835689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57304096221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
@@ -380,40 +380,40 @@
     <t xml:space="preserve">6.63023042678833</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64166879653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68360900878906</t>
+    <t xml:space="preserve">6.64166927337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6836085319519</t>
   </si>
   <si>
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598247528076</t>
+    <t xml:space="preserve">6.67598342895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76367425918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92761898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96955823898315</t>
+    <t xml:space="preserve">6.76367378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92761945724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.969557762146</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343723297119</t>
+    <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
     <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11443996429443</t>
+    <t xml:space="preserve">7.11444044113159</t>
   </si>
   <si>
     <t xml:space="preserve">7.09156370162964</t>
@@ -422,67 +422,67 @@
     <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93905735015869</t>
+    <t xml:space="preserve">6.93905782699585</t>
   </si>
   <si>
     <t xml:space="preserve">7.00768566131592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00387239456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93524408340454</t>
+    <t xml:space="preserve">7.00387287139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9352445602417</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143224716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16781759262085</t>
+    <t xml:space="preserve">6.93143177032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293491363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16781806945801</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169610977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3203239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657735824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095819473267</t>
+    <t xml:space="preserve">7.15637922286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219747543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32032489776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657640457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.45757961273193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564083099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4347038269043</t>
+    <t xml:space="preserve">7.41564130783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43470430374146</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70159101486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409784317017</t>
+    <t xml:space="preserve">7.70159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409832000732</t>
   </si>
   <si>
     <t xml:space="preserve">8.07523250579834</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38787174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32686805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34974479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37262058258057</t>
+    <t xml:space="preserve">8.3878698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32686901092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34974670410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262153625488</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">8.68525886535645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74626159667969</t>
+    <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.69288444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726528167725</t>
+    <t xml:space="preserve">8.80726432800293</t>
   </si>
   <si>
     <t xml:space="preserve">8.91401958465576</t>
@@ -539,172 +539,172 @@
     <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92164611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040588378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29528713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766250610352</t>
+    <t xml:space="preserve">8.92164516448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040493011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29528617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28766059875488</t>
   </si>
   <si>
     <t xml:space="preserve">9.42491722106934</t>
   </si>
   <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56980037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093265533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0806970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073070526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959463119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264486312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34104061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865154266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286207199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200733184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50775337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439949035645</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043319702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919296264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027025222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.095947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597162246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85758876800537</t>
+    <t xml:space="preserve">9.85758972167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830402374268</t>
+    <t xml:space="preserve">10.0830383300781</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4251003265381</t>
+    <t xml:space="preserve">10.4484224319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4251012802124</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">10.72829246521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">10.4639711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406490325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.409553527832</t>
+    <t xml:space="preserve">10.4406499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4095525741577</t>
   </si>
   <si>
     <t xml:space="preserve">10.3318109512329</t>
@@ -761,88 +761,88 @@
     <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4717445373535</t>
+    <t xml:space="preserve">10.4717454910278</t>
   </si>
   <si>
     <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1996507644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240365982056</t>
+    <t xml:space="preserve">10.1996517181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084888458252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3784561157227</t>
+    <t xml:space="preserve">10.3784551620483</t>
   </si>
   <si>
     <t xml:space="preserve">10.3395853042603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2540712356567</t>
+    <t xml:space="preserve">10.2540702819824</t>
   </si>
   <si>
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851657867432</t>
+    <t xml:space="preserve">10.2696189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851667404175</t>
   </si>
   <si>
     <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6350021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5572605133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116790771484</t>
+    <t xml:space="preserve">10.55726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116800308228</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8449039459229</t>
+    <t xml:space="preserve">10.8449029922485</t>
   </si>
   <si>
     <t xml:space="preserve">10.8604516983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8837738037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8993215560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982587814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7049694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795198440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362907409668</t>
+    <t xml:space="preserve">10.8837747573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8993225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7049684524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7671632766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795188903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3629083633423</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94310569763184</t>
+    <t xml:space="preserve">9.94310474395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -866,55 +866,55 @@
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191876411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3551330566406</t>
+    <t xml:space="preserve">10.1918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141366958618</t>
+    <t xml:space="preserve">10.1141357421875</t>
   </si>
   <si>
     <t xml:space="preserve">10.1530075073242</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1607809066772</t>
+    <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
     <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98974990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674915313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">9.98975086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462959289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2307481765747</t>
+    <t xml:space="preserve">10.2462949752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307472229004</t>
   </si>
   <si>
     <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90423393249512</t>
+    <t xml:space="preserve">9.90423488616943</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436676025391</t>
+    <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
     <t xml:space="preserve">9.59326839447021</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">9.43778610229492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1734676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2201099395752</t>
+    <t xml:space="preserve">9.17346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011089324951</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2978515625</t>
+    <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
     <t xml:space="preserve">9.31340217590332</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">9.32894992828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20456314086914</t>
+    <t xml:space="preserve">9.20456409454346</t>
   </si>
   <si>
     <t xml:space="preserve">9.06462860107422</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">9.37559413909912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09572696685791</t>
+    <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
     <t xml:space="preserve">9.0024356842041</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256851196289</t>
+    <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379589080811</t>
+    <t xml:space="preserve">8.47379493713379</t>
   </si>
   <si>
     <t xml:space="preserve">8.55153656005859</t>
@@ -992,25 +992,25 @@
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708431243896</t>
+    <t xml:space="preserve">8.56708526611328</t>
   </si>
   <si>
     <t xml:space="preserve">8.6914701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67592334747314</t>
+    <t xml:space="preserve">8.67592239379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.58263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044010162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66037368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53598785400391</t>
+    <t xml:space="preserve">8.52044105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66037464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53598880767822</t>
   </si>
   <si>
     <t xml:space="preserve">8.42715072631836</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">8.70701885223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59818172454834</t>
+    <t xml:space="preserve">8.59818077087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.75366401672363</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">8.78476047515869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94024276733398</t>
+    <t xml:space="preserve">8.9402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">8.9246940612793</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98688697814941</t>
+    <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31603717803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36381149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788703918457</t>
+    <t xml:space="preserve">9.31603813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36381244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788799285889</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751216888428</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">9.41158676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47528553009033</t>
+    <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
     <t xml:space="preserve">9.5230598449707</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.443434715271</t>
+    <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
     <t xml:space="preserve">9.39566135406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823455810547</t>
+    <t xml:space="preserve">9.69823360443115</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71415901184082</t>
+    <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">9.73008251190186</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268402099609</t>
+    <t xml:space="preserve">9.60268497467041</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82236766815186</t>
+    <t xml:space="preserve">8.82236671447754</t>
   </si>
   <si>
     <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59941864013672</t>
+    <t xml:space="preserve">8.59941959381104</t>
   </si>
   <si>
     <t xml:space="preserve">8.71089458465576</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">8.63126850128174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44017028808594</t>
+    <t xml:space="preserve">8.44017124176025</t>
   </si>
   <si>
     <t xml:space="preserve">8.56757068634033</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7268180847168</t>
+    <t xml:space="preserve">8.72681903839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95446252822876</t>
+    <t xml:space="preserve">7.95446300506592</t>
   </si>
   <si>
     <t xml:space="preserve">7.88279962539673</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716464996338</t>
+    <t xml:space="preserve">9.07716369628906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9179162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98161602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644226074219</t>
+    <t xml:space="preserve">8.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98161506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644130706787</t>
   </si>
   <si>
     <t xml:space="preserve">8.535719871521</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94976615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9975414276123</t>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99754047393799</t>
   </si>
   <si>
     <t xml:space="preserve">8.66311931610107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
+    <t xml:space="preserve">8.79051685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349418640137</t>
+    <t xml:space="preserve">8.58349514007568</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
+    <t xml:space="preserve">8.74274349212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24110984802246</t>
+    <t xml:space="preserve">8.28092288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24111080169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.32073402404785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08186149597168</t>
+    <t xml:space="preserve">8.081862449646</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -58607,7 +58607,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6496412037</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>7500</v>
@@ -58628,6 +58628,32 @@
         <v>825</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493171296</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>4733</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217016220093</t>
+    <t xml:space="preserve">6.67216968536377</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829164505005</t>
+    <t xml:space="preserve">6.58829212188721</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728843688965</t>
+    <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
     <t xml:space="preserve">6.50822496414185</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">6.48153686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053413391113</t>
+    <t xml:space="preserve">6.39003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053365707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.44341087341309</t>
@@ -86,61 +86,61 @@
     <t xml:space="preserve">6.36334419250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32903051376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090356826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15746021270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18414926528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16508483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552000045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99351501464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03926753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545522689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151002883911</t>
+    <t xml:space="preserve">6.32903003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15745973587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18414878845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99351453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03926706314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545570373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87151050567627</t>
   </si>
   <si>
     <t xml:space="preserve">5.74950456619263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92869997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732780456543</t>
+    <t xml:space="preserve">5.92870044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732828140259</t>
   </si>
   <si>
     <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17652320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28327894210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25277662277222</t>
+    <t xml:space="preserve">6.13839673995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17652368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.283278465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25277614593506</t>
   </si>
   <si>
     <t xml:space="preserve">6.1993989944458</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990131378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40528345108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51966333389282</t>
+    <t xml:space="preserve">6.22990083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40528297424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51966381072998</t>
   </si>
   <si>
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27946519851685</t>
+    <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38240718841553</t>
+    <t xml:space="preserve">6.38240814208984</t>
   </si>
   <si>
     <t xml:space="preserve">6.27565240859985</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953187942505</t>
+    <t xml:space="preserve">6.35953140258789</t>
   </si>
   <si>
     <t xml:space="preserve">6.37096881866455</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">6.15364742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11933326721191</t>
+    <t xml:space="preserve">6.11933374404907</t>
   </si>
   <si>
     <t xml:space="preserve">6.13077116012573</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10789585113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645748138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207759857178</t>
+    <t xml:space="preserve">6.1078953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645700454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207807540894</t>
   </si>
   <si>
     <t xml:space="preserve">6.02401685714722</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558620452881</t>
+    <t xml:space="preserve">6.26421546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558668136597</t>
   </si>
   <si>
     <t xml:space="preserve">6.27184009552002</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">6.47772455215454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24515151977539</t>
+    <t xml:space="preserve">6.24515247344971</t>
   </si>
   <si>
     <t xml:space="preserve">6.18033647537231</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996656417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137788772583</t>
+    <t xml:space="preserve">6.30996704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377983093262</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
@@ -287,19 +287,19 @@
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55779027938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635334014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
+    <t xml:space="preserve">6.55778980255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404369354248</t>
   </si>
   <si>
     <t xml:space="preserve">6.49678802490234</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54254007339478</t>
+    <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103549957275</t>
+    <t xml:space="preserve">6.45103597640991</t>
   </si>
   <si>
     <t xml:space="preserve">6.43959760665894</t>
@@ -323,22 +323,22 @@
     <t xml:space="preserve">6.39384603500366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43578481674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42815971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45866060256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44722318649292</t>
+    <t xml:space="preserve">6.4357852935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42816019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45866012573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060081481934</t>
+    <t xml:space="preserve">6.50060033798218</t>
   </si>
   <si>
     <t xml:space="preserve">6.48534965515137</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55016613006592</t>
+    <t xml:space="preserve">6.5501651763916</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">6.66835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57304096221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872728347778</t>
+    <t xml:space="preserve">6.5730414390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354280471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872680664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63023042678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64166927337646</t>
+    <t xml:space="preserve">6.63023090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64166975021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74842405319214</t>
+    <t xml:space="preserve">6.67598295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7484245300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.969557762146</t>
+    <t xml:space="preserve">6.92761850357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96955871582031</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193408966064</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300254821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11444044113159</t>
+    <t xml:space="preserve">7.10300207138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11443996429443</t>
   </si>
   <si>
     <t xml:space="preserve">7.09156370162964</t>
@@ -422,19 +422,19 @@
     <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93905782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00768566131592</t>
+    <t xml:space="preserve">6.93905735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00768613815308</t>
   </si>
   <si>
     <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9352445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099613189697</t>
+    <t xml:space="preserve">6.93524408340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099565505981</t>
   </si>
   <si>
     <t xml:space="preserve">6.93143177032471</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">7.02293491363525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16781806945801</t>
+    <t xml:space="preserve">7.16781759262085</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
@@ -458,28 +458,28 @@
     <t xml:space="preserve">7.25169563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32032489776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657640457153</t>
+    <t xml:space="preserve">7.32032442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657688140869</t>
   </si>
   <si>
     <t xml:space="preserve">7.51095724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45757961273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41564130783081</t>
+    <t xml:space="preserve">7.45758056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41564035415649</t>
   </si>
   <si>
     <t xml:space="preserve">7.43470430374146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62533807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159196853638</t>
+    <t xml:space="preserve">7.62533903121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159149169922</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409832000732</t>
@@ -488,109 +488,109 @@
     <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11335945129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212017059326</t>
+    <t xml:space="preserve">8.11335849761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34212112426758</t>
   </si>
   <si>
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3878698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011470794678</t>
+    <t xml:space="preserve">8.38787078857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37262153625488</t>
+    <t xml:space="preserve">8.34974479675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.68525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288444519043</t>
+    <t xml:space="preserve">8.69288539886475</t>
   </si>
   <si>
     <t xml:space="preserve">8.80726432800293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91401958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88351821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040493011475</t>
+    <t xml:space="preserve">8.91402053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88351726531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040588378906</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528617858887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28766059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
+    <t xml:space="preserve">9.28766250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217384338379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
+    <t xml:space="preserve">9.72230625152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.64605331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77568435668945</t>
+    <t xml:space="preserve">9.77568244934082</t>
   </si>
   <si>
     <t xml:space="preserve">9.27241134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043224334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56980037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093265533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668422698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531444549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2179527282715</t>
@@ -599,46 +599,46 @@
     <t xml:space="preserve">10.5610933303833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4848384857178</t>
+    <t xml:space="preserve">10.4848394393921</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5229663848877</t>
+    <t xml:space="preserve">10.522967338562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3933343887329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98919200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
+    <t xml:space="preserve">9.98919296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
   </si>
   <si>
     <t xml:space="preserve">10.1188220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.073070526123</t>
+    <t xml:space="preserve">10.1950769424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
     <t xml:space="preserve">10.0959463119507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1264486312866</t>
+    <t xml:space="preserve">10.1264476776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.93581485748291</t>
@@ -653,64 +653,64 @@
     <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34104061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865154266357</t>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0597171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0286207199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200733184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997901916504</t>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
   </si>
   <si>
     <t xml:space="preserve">9.50775337219238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4688835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439949035645</t>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4844331741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85758972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.013072013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0830383300781</t>
+    <t xml:space="preserve">9.85758876800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0130729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484224319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4251012802124</t>
+    <t xml:space="preserve">10.4484233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007154464722</t>
+    <t xml:space="preserve">10.3007135391235</t>
   </si>
   <si>
     <t xml:space="preserve">10.4561977386475</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.4950685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">10.72829246521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5650358200073</t>
+    <t xml:space="preserve">10.565034866333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">10.4639711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4095525741577</t>
+    <t xml:space="preserve">10.4406490325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.409553527832</t>
   </si>
   <si>
     <t xml:space="preserve">10.3318109512329</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.222972869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929401397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4717454910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.184103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1996517181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240356445312</t>
+    <t xml:space="preserve">10.2229738235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929391860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4717445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1841039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1996507644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240365982056</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084888458252</t>
@@ -782,37 +782,37 @@
     <t xml:space="preserve">10.3395853042603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2540702819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2618436813354</t>
+    <t xml:space="preserve">10.2540712356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2618446350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.2696189880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2851667404175</t>
+    <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505508422852</t>
+    <t xml:space="preserve">10.6350030899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
     <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6816473007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.55726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116800308228</t>
+    <t xml:space="preserve">10.6816463470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5572605133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116790771484</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">10.8449029922485</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8604516983032</t>
+    <t xml:space="preserve">10.8604507446289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837747573853</t>
@@ -830,16 +830,16 @@
     <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7982578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7049684524536</t>
+    <t xml:space="preserve">10.7982597351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
     <t xml:space="preserve">10.7671632766724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795188903809</t>
+    <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
     <t xml:space="preserve">10.3629083633423</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219100952148</t>
+    <t xml:space="preserve">10.1219091415405</t>
   </si>
   <si>
     <t xml:space="preserve">9.96642780303955</t>
@@ -860,31 +860,31 @@
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0441694259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1374588012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918773651123</t>
+    <t xml:space="preserve">10.04416847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1374578475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1296844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1141357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530075073242</t>
+    <t xml:space="preserve">10.1296834945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1141347885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530065536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99752426147461</t>
+    <t xml:space="preserve">9.99752521514893</t>
   </si>
   <si>
     <t xml:space="preserve">9.98975086212158</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462949752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2307472229004</t>
+    <t xml:space="preserve">10.2462959289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
     <t xml:space="preserve">10.2151985168457</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43778610229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17346668243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675605773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22011089324951</t>
+    <t xml:space="preserve">9.43778705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675510406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011184692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
@@ -938,40 +938,40 @@
     <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31340217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23566055297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32894992828369</t>
+    <t xml:space="preserve">9.31340026855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2356595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32894897460938</t>
   </si>
   <si>
     <t xml:space="preserve">9.20456409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06462860107422</t>
+    <t xml:space="preserve">9.0646276473999</t>
   </si>
   <si>
     <t xml:space="preserve">9.40669059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37559413909912</t>
+    <t xml:space="preserve">9.3755931854248</t>
   </si>
   <si>
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0024356842041</t>
+    <t xml:space="preserve">9.00243473052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90914630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64482498168945</t>
+    <t xml:space="preserve">8.90914726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86250114440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47379493713379</t>
+    <t xml:space="preserve">8.8625020980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47379398345947</t>
   </si>
   <si>
     <t xml:space="preserve">8.55153656005859</t>
@@ -992,52 +992,52 @@
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708526611328</t>
+    <t xml:space="preserve">8.56708431243896</t>
   </si>
   <si>
     <t xml:space="preserve">8.6914701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67592239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58263301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52044105529785</t>
+    <t xml:space="preserve">8.67592430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58263397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52044010162354</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53598880767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42715072631836</t>
+    <t xml:space="preserve">8.53598785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59818077087402</t>
+    <t xml:space="preserve">8.59818172454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476047515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9402437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9246940612793</t>
+    <t xml:space="preserve">8.78475952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92469501495361</t>
   </si>
   <si>
     <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98688793182373</t>
+    <t xml:space="preserve">8.98688697814941</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
+    <t xml:space="preserve">9.36381149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788703918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751216888428</t>
@@ -1067,16 +1067,16 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5230598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53898620605469</t>
+    <t xml:space="preserve">9.52306079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53898525238037</t>
   </si>
   <si>
     <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39566135406494</t>
+    <t xml:space="preserve">9.39566230773926</t>
   </si>
   <si>
     <t xml:space="preserve">9.4912109375</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823360443115</t>
+    <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73008251190186</t>
+    <t xml:space="preserve">9.71415901184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73008346557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268497467041</t>
+    <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59941959381104</t>
+    <t xml:space="preserve">8.59941864013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.71089458465576</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496822357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63126850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44017124176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56757068634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47201919555664</t>
+    <t xml:space="preserve">8.69496726989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63126754760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44017028808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56756973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47202014923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2649974822998</t>
+    <t xml:space="preserve">8.26499652862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
+    <t xml:space="preserve">8.34462261199951</t>
   </si>
   <si>
     <t xml:space="preserve">8.12167453765869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96242570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05797386169434</t>
+    <t xml:space="preserve">7.96242618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05797481536865</t>
   </si>
   <si>
     <t xml:space="preserve">8.08982276916504</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">7.95446300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88279962539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204845428467</t>
+    <t xml:space="preserve">7.88280057907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420503616333</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716369628906</t>
+    <t xml:space="preserve">9.07716464996338</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98161506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644130706787</t>
+    <t xml:space="preserve">8.98161602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644226074219</t>
   </si>
   <si>
     <t xml:space="preserve">8.535719871521</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606643676758</t>
+    <t xml:space="preserve">8.88606739044189</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">8.99754047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051685333252</t>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
   </si>
   <si>
     <t xml:space="preserve">8.85421562194824</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349514007568</t>
+    <t xml:space="preserve">8.58349418640137</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
@@ -1262,19 +1262,19 @@
     <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74274349212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923072814941</t>
+    <t xml:space="preserve">8.74274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36054611206055</t>
+    <t xml:space="preserve">8.36054515838623</t>
   </si>
   <si>
     <t xml:space="preserve">8.40035820007324</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092288970947</t>
+    <t xml:space="preserve">8.28092193603516</t>
   </si>
   <si>
     <t xml:space="preserve">8.24111080169678</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">8.32073402404785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.081862449646</t>
+    <t xml:space="preserve">8.08186149597168</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3677864074707</t>
+    <t xml:space="preserve">8.36778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119119644165</t>
+    <t xml:space="preserve">7.94119167327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993223190308</t>
+    <t xml:space="preserve">7.80993270874023</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1352,40 +1352,40 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.826340675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711725234985</t>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148824691772</t>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167263031006</t>
+    <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604457855225</t>
+    <t xml:space="preserve">8.05604362487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478513717651</t>
+    <t xml:space="preserve">7.92478466033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352521896362</t>
+    <t xml:space="preserve">8.02322864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59663677215576</t>
+    <t xml:space="preserve">7.5966362953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84274768829346</t>
+    <t xml:space="preserve">7.8427472114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819135665894</t>
+    <t xml:space="preserve">7.49819183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38333988189697</t>
+    <t xml:space="preserve">7.38334035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441398620605</t>
+    <t xml:space="preserve">7.10441446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363645553589</t>
+    <t xml:space="preserve">7.15363597869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196968078613</t>
+    <t xml:space="preserve">7.89196920394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31770992279053</t>
+    <t xml:space="preserve">7.31771039962769</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111661911011</t>
+    <t xml:space="preserve">6.89111709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8583025932312</t>
+    <t xml:space="preserve">6.85830211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996841430664</t>
+    <t xml:space="preserve">6.38248777389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996793746948</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756076812744</t>
+    <t xml:space="preserve">5.21756029129028</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833686828613</t>
+    <t xml:space="preserve">4.95504140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318929672241</t>
+    <t xml:space="preserve">5.28318881988525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037479400635</t>
+    <t xml:space="preserve">5.25037431716919</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426340103149</t>
+    <t xml:space="preserve">5.00426292419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
+    <t xml:space="preserve">4.85659646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281862258911</t>
+    <t xml:space="preserve">4.46281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718866348267</t>
+    <t xml:space="preserve">4.39718818664551</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496563911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83113360404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78190994262695</t>
+    <t xml:space="preserve">3.90496587753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8311333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78191018104553</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137384414673</t>
+    <t xml:space="preserve">3.92137360572815</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1346697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826276779175</t>
+    <t xml:space="preserve">4.13467025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826229095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748428344727</t>
+    <t xml:space="preserve">4.16748476028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20029973983765</t>
+    <t xml:space="preserve">4.18389225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2003002166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155870437622</t>
+    <t xml:space="preserve">4.23311471939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155822753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083583831787</t>
+    <t xml:space="preserve">4.06083631515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802228927612</t>
+    <t xml:space="preserve">4.02802181243896</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1733,16 +1733,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97059559822083</t>
+    <t xml:space="preserve">3.9705958366394</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394762992859</t>
+    <t xml:space="preserve">3.73268818855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
+    <t xml:space="preserve">3.74909591674805</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4455578327179</t>
+    <t xml:space="preserve">3.44555807113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28968739509583</t>
+    <t xml:space="preserve">3.2896876335144</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220699310303</t>
+    <t xml:space="preserve">3.55220723152161</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885496139526</t>
+    <t xml:space="preserve">3.65885519981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952220916748</t>
+    <t xml:space="preserve">4.24952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767009735107</t>
+    <t xml:space="preserve">4.57767057418823</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515216827393</t>
+    <t xml:space="preserve">4.31515169143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796619415283</t>
+    <t xml:space="preserve">4.34796667098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630037307739</t>
+    <t xml:space="preserve">5.23396730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630084991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989336013794</t>
+    <t xml:space="preserve">5.06989288330078</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
+    <t xml:space="preserve">4.64330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676213264465</t>
+    <t xml:space="preserve">3.89676189422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9623920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418810844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72729468345642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844608306885</t>
+    <t xml:space="preserve">3.96239185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418858528137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598412513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.727294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844584465027</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598793983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549654960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99352979660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303888320923</t>
+    <t xml:space="preserve">3.94598841667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549607276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99353003501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18369817733765</t>
+    <t xml:space="preserve">4.1836986541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2977991104126</t>
+    <t xml:space="preserve">4.29779863357544</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255981445312</t>
+    <t xml:space="preserve">4.59255933761597</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2217321395874</t>
+    <t xml:space="preserve">4.06008863449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22173166275024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23123979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468191146851</t>
+    <t xml:space="preserve">4.23124027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468143463135</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68926119804382</t>
+    <t xml:space="preserve">3.6892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942934036255</t>
+    <t xml:space="preserve">3.87942910194397</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -58633,7 +58633,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6493171296</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>4733</v>
@@ -58654,6 +58654,32 @@
         <v>825</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.649525463</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>19442</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>827</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029663085938</t>
+    <t xml:space="preserve">6.71029615402222</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67216968536377</t>
+    <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829212188721</t>
+    <t xml:space="preserve">6.58829164505005</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728891372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822496414185</t>
+    <t xml:space="preserve">6.52728843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">6.39003324508667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42053365707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715650558472</t>
+    <t xml:space="preserve">6.42053413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44341039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
     <t xml:space="preserve">6.35190582275391</t>
@@ -89,16 +89,16 @@
     <t xml:space="preserve">6.32903003692627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615425109863</t>
+    <t xml:space="preserve">6.29090356826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414878845215</t>
+    <t xml:space="preserve">6.18414926528931</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508531570435</t>
@@ -107,40 +107,40 @@
     <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99351453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03926706314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545570373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950456619263</t>
+    <t xml:space="preserve">5.99351501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03926658630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545522689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87151002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950408935547</t>
   </si>
   <si>
     <t xml:space="preserve">5.92870044708252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99732828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10026979446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839673995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17652368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.283278465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25277614593506</t>
+    <t xml:space="preserve">5.99732780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10026931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839769363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17652320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28327894210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
     <t xml:space="preserve">6.1993989944458</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990083694458</t>
+    <t xml:space="preserve">6.22990131378174</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528297424316</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">6.51966381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39765882492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.279465675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19177436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140445709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38240814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27565240859985</t>
+    <t xml:space="preserve">6.3976583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27946519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19177389144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140493392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38240718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">6.35953140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214284896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264421463013</t>
+    <t xml:space="preserve">6.37096977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859487533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264469146729</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364742279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933374404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13077116012573</t>
+    <t xml:space="preserve">6.15364694595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933326721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13077163696289</t>
   </si>
   <si>
     <t xml:space="preserve">6.12314605712891</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10408306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08501958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883237838745</t>
+    <t xml:space="preserve">6.1040825843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0850191116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">5.95920133590698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207807540894</t>
+    <t xml:space="preserve">6.09645652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207712173462</t>
   </si>
   <si>
     <t xml:space="preserve">6.02401685714722</t>
@@ -239,22 +239,22 @@
     <t xml:space="preserve">6.07739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02782964706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26421546936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558668136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184009552002</t>
+    <t xml:space="preserve">6.02782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26421451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558715820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184057235718</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772455215454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24515247344971</t>
+    <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
     <t xml:space="preserve">6.18033647537231</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377983093262</t>
+    <t xml:space="preserve">6.30996656417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377935409546</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25658941268921</t>
+    <t xml:space="preserve">6.25658893585205</t>
   </si>
   <si>
     <t xml:space="preserve">6.16127252578735</t>
@@ -284,31 +284,31 @@
     <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3747820854187</t>
+    <t xml:space="preserve">6.37478256225586</t>
   </si>
   <si>
     <t xml:space="preserve">6.55778980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53491401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635286331177</t>
+    <t xml:space="preserve">6.53491449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635238647461</t>
   </si>
   <si>
     <t xml:space="preserve">6.47391176223755</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63404369354248</t>
+    <t xml:space="preserve">6.63404321670532</t>
   </si>
   <si>
     <t xml:space="preserve">6.49678802490234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58066606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54253959655762</t>
+    <t xml:space="preserve">6.58066701889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54254007339478</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
@@ -317,31 +317,31 @@
     <t xml:space="preserve">6.45103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43959760665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4357852935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42816019058228</t>
+    <t xml:space="preserve">6.43959808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3938455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43578481674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44722270965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47009897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50060033798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48534965515137</t>
+    <t xml:space="preserve">6.44722318649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4700984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50060081481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48534917831421</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441265106201</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5730414390564</t>
+    <t xml:space="preserve">6.58447933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66835737228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57304048538208</t>
   </si>
   <si>
     <t xml:space="preserve">6.60354280471802</t>
@@ -377,40 +377,40 @@
     <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63023090362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64166975021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6836085319519</t>
+    <t xml:space="preserve">6.63023042678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64166879653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68360900878906</t>
   </si>
   <si>
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7484245300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76367378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92761850357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96955871582031</t>
+    <t xml:space="preserve">6.67598247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74842405319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76367425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92761898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300207138062</t>
+    <t xml:space="preserve">7.05343723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
@@ -425,22 +425,22 @@
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768613815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387287139893</t>
+    <t xml:space="preserve">7.00768566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387239456177</t>
   </si>
   <si>
     <t xml:space="preserve">6.93524408340454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98099565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143177032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293491363525</t>
+    <t xml:space="preserve">6.98099613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143224716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293586730957</t>
   </si>
   <si>
     <t xml:space="preserve">7.16781759262085</t>
@@ -449,67 +449,67 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032442092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657688140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45758056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41564035415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43470430374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533903121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409832000732</t>
+    <t xml:space="preserve">7.15637874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169610977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3203239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657735824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095819473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45757961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41564083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4347038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533807754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159101486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
     <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11335849761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212112426758</t>
+    <t xml:space="preserve">8.11335945129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38787078857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011375427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32686901092529</t>
+    <t xml:space="preserve">8.38787174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011280059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974479675293</t>
@@ -521,22 +521,22 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.746262550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69288539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80726432800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91402053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88351726531982</t>
+    <t xml:space="preserve">8.68525886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74626159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69288444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80726528167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91401958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.92164611816406</t>
@@ -545,37 +545,37 @@
     <t xml:space="preserve">9.15040588378906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29528617858887</t>
+    <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
     <t xml:space="preserve">9.28766250610352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42491817474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72230625152588</t>
+    <t xml:space="preserve">9.42491722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230529785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.64605331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77568244934082</t>
+    <t xml:space="preserve">9.77568340301514</t>
   </si>
   <si>
     <t xml:space="preserve">9.27241134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37916564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668422698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043033599854</t>
+    <t xml:space="preserve">9.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043319702148</t>
   </si>
   <si>
     <t xml:space="preserve">9.56979846954346</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">9.79093360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531444549561</t>
+    <t xml:space="preserve">9.81380844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
   </si>
   <si>
     <t xml:space="preserve">10.2179527282715</t>
@@ -605,16 +605,16 @@
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.522967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933343887329</t>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
   </si>
   <si>
     <t xml:space="preserve">10.080696105957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0654449462891</t>
+    <t xml:space="preserve">10.0654458999634</t>
   </si>
   <si>
     <t xml:space="preserve">10.0044431686401</t>
@@ -626,25 +626,25 @@
     <t xml:space="preserve">10.2027025222778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1188220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950769424438</t>
+    <t xml:space="preserve">10.1188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0959463119507</t>
+    <t xml:space="preserve">10.095947265625</t>
   </si>
   <si>
     <t xml:space="preserve">10.1264476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304321289062</t>
   </si>
   <si>
     <t xml:space="preserve">9.44779300689697</t>
@@ -656,46 +656,46 @@
     <t xml:space="preserve">9.34103965759277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60792350769043</t>
+    <t xml:space="preserve">9.60792446136475</t>
   </si>
   <si>
     <t xml:space="preserve">9.95865249633789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0597171783447</t>
+    <t xml:space="preserve">10.0597162246704</t>
   </si>
   <si>
     <t xml:space="preserve">10.0286197662354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91200923919678</t>
+    <t xml:space="preserve">9.91200828552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.49997997283936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50775337219238</t>
+    <t xml:space="preserve">9.5077543258667</t>
   </si>
   <si>
     <t xml:space="preserve">9.46888446807861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4844331741333</t>
+    <t xml:space="preserve">9.48443222045898</t>
   </si>
   <si>
     <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56217288970947</t>
+    <t xml:space="preserve">9.56217193603516</t>
   </si>
   <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0130729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0830392837524</t>
+    <t xml:space="preserve">10.013072013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0830402374268</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007135391235</t>
+    <t xml:space="preserve">10.3007154464722</t>
   </si>
   <si>
     <t xml:space="preserve">10.4561977386475</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028429031372</t>
+    <t xml:space="preserve">10.4950675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028419494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229738235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929391860962</t>
+    <t xml:space="preserve">10.222972869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
     <t xml:space="preserve">10.4717445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1841039657593</t>
+    <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
     <t xml:space="preserve">10.1996507644653</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">10.3084888458252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3784551620483</t>
+    <t xml:space="preserve">10.3784561157227</t>
   </si>
   <si>
     <t xml:space="preserve">10.3395853042603</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">10.2540712356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2618446350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696189880371</t>
+    <t xml:space="preserve">10.2618436813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696180343628</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350030899048</t>
+    <t xml:space="preserve">10.6350011825562</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894197463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6816463470459</t>
+    <t xml:space="preserve">10.6894207000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
     <t xml:space="preserve">10.5572605133057</t>
@@ -818,82 +818,82 @@
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8449029922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8604507446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8837747573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8993225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982597351074</t>
+    <t xml:space="preserve">10.8449039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8604516983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8837738037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8993215560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7671632766724</t>
+    <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3629083633423</t>
+    <t xml:space="preserve">10.362907409668</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219091415405</t>
+    <t xml:space="preserve">10.1219100952148</t>
   </si>
   <si>
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94310474395752</t>
+    <t xml:space="preserve">9.94310569763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.04416847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1374578475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1918783187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3551340103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1296834945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1141347885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530065536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752521514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98975086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">10.0441694259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1374588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.191876411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3551330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1296844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1141366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607809066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752426147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98974990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674915313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -908,19 +908,19 @@
     <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90423488616943</t>
+    <t xml:space="preserve">9.90423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436580657959</t>
+    <t xml:space="preserve">9.62436676025391</t>
   </si>
   <si>
     <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43778705596924</t>
+    <t xml:space="preserve">9.43778610229492</t>
   </si>
   <si>
     <t xml:space="preserve">9.1734676361084</t>
@@ -929,61 +929,61 @@
     <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011184692383</t>
+    <t xml:space="preserve">9.2201099395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29785251617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31340026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2356595993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20456409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0646276473999</t>
+    <t xml:space="preserve">9.2978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31340217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23566055297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32894992828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20456314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
     <t xml:space="preserve">9.40669059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3755931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572601318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00243473052979</t>
+    <t xml:space="preserve">9.37559413909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0024356842041</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90914726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64482593536377</t>
+    <t xml:space="preserve">8.90914630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64482498168945</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256755828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8625020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47379398345947</t>
+    <t xml:space="preserve">8.72256851196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86250114440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47379589080811</t>
   </si>
   <si>
     <t xml:space="preserve">8.55153656005859</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">8.6914701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67592430114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58263397216797</t>
+    <t xml:space="preserve">8.67592334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58263301849365</t>
   </si>
   <si>
     <t xml:space="preserve">8.52044010162354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66037464141846</t>
+    <t xml:space="preserve">8.66037368774414</t>
   </si>
   <si>
     <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42714977264404</t>
+    <t xml:space="preserve">8.42715072631836</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78475952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94024467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92469501495361</t>
+    <t xml:space="preserve">8.78476047515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94024276733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.97133922576904</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31603813171387</t>
+    <t xml:space="preserve">9.31603717803955</t>
   </si>
   <si>
     <t xml:space="preserve">9.36381149291992</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">9.41158676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47528648376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52306079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53898525238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44343566894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39566230773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4912109375</t>
+    <t xml:space="preserve">9.47528553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5230598449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53898620605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.443434715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39566135406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">9.71415901184082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008346557617</t>
+    <t xml:space="preserve">9.73008251190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600791931152</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">9.01346492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82236671447754</t>
+    <t xml:space="preserve">8.82236766815186</t>
   </si>
   <si>
     <t xml:space="preserve">8.7586669921875</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496726989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63126754760742</t>
+    <t xml:space="preserve">8.69496822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63126850128174</t>
   </si>
   <si>
     <t xml:space="preserve">8.44017028808594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56756973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47202014923096</t>
+    <t xml:space="preserve">8.56757068634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47201919555664</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26499652862549</t>
+    <t xml:space="preserve">8.2649974822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
@@ -1172,28 +1172,28 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34462261199951</t>
+    <t xml:space="preserve">8.3446216583252</t>
   </si>
   <si>
     <t xml:space="preserve">8.12167453765869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96242618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05797481536865</t>
+    <t xml:space="preserve">7.96242570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
     <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88280057907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0420503616333</t>
+    <t xml:space="preserve">7.95446252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88279962539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204845428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91791534423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829212188721</t>
+    <t xml:space="preserve">8.9179162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829307556152</t>
   </si>
   <si>
     <t xml:space="preserve">8.98161602020264</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606739044189</t>
+    <t xml:space="preserve">8.88606643676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9497652053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99754047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311836242676</t>
+    <t xml:space="preserve">8.94976615905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9975414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311931610107</t>
   </si>
   <si>
     <t xml:space="preserve">8.79051780700684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85421562194824</t>
+    <t xml:space="preserve">8.85421657562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">8.55960750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36054515838623</t>
+    <t xml:space="preserve">8.36054611206055</t>
   </si>
   <si>
     <t xml:space="preserve">8.40035820007324</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">8.28092193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24111080169678</t>
+    <t xml:space="preserve">8.24110984802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32073402404785</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36778545379639</t>
+    <t xml:space="preserve">8.3677864074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119167327881</t>
+    <t xml:space="preserve">7.94119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993270874023</t>
+    <t xml:space="preserve">7.80993223190308</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1352,40 +1352,40 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82634115219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711772918701</t>
+    <t xml:space="preserve">7.90837717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.826340675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711725234985</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148872375488</t>
+    <t xml:space="preserve">7.66226720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148824691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167358398438</t>
+    <t xml:space="preserve">8.12167263031006</t>
   </si>
   <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604362487793</t>
+    <t xml:space="preserve">8.05604457855225</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478466033936</t>
+    <t xml:space="preserve">7.92478513717651</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352474212646</t>
+    <t xml:space="preserve">8.02322959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352521896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5966362953186</t>
+    <t xml:space="preserve">7.59663677215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8427472114563</t>
+    <t xml:space="preserve">7.84274768829346</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819183349609</t>
+    <t xml:space="preserve">7.49819135665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334035873413</t>
+    <t xml:space="preserve">7.38333988189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441446304321</t>
+    <t xml:space="preserve">7.10441398620605</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363597869873</t>
+    <t xml:space="preserve">7.15363645553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196920394897</t>
+    <t xml:space="preserve">7.89196968078613</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31771039962769</t>
+    <t xml:space="preserve">7.31770992279053</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111709594727</t>
+    <t xml:space="preserve">6.89111661911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85830211639404</t>
+    <t xml:space="preserve">6.8583025932312</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248777389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996793746948</t>
+    <t xml:space="preserve">6.38248729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996841430664</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756029129028</t>
+    <t xml:space="preserve">5.21756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833734512329</t>
+    <t xml:space="preserve">4.95504093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833686828613</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318881988525</t>
+    <t xml:space="preserve">5.28318929672241</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037431716919</t>
+    <t xml:space="preserve">5.25037479400635</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426292419434</t>
+    <t xml:space="preserve">5.00426340103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067089080811</t>
+    <t xml:space="preserve">4.85659694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281814575195</t>
+    <t xml:space="preserve">4.46281862258911</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718818664551</t>
+    <t xml:space="preserve">4.39718866348267</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496587753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8311333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78191018104553</t>
+    <t xml:space="preserve">3.90496563911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83113360404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137360572815</t>
+    <t xml:space="preserve">3.92137384414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13467025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826229095459</t>
+    <t xml:space="preserve">4.1346697807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826276779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748476028442</t>
+    <t xml:space="preserve">4.16748428344727</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2003002166748</t>
+    <t xml:space="preserve">4.18389272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20029973983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311471939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155822753906</t>
+    <t xml:space="preserve">4.23311424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155870437622</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083631515503</t>
+    <t xml:space="preserve">4.06083583831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802181243896</t>
+    <t xml:space="preserve">4.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1733,16 +1733,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9705958366394</t>
+    <t xml:space="preserve">3.97059559822083</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268818855286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394739151001</t>
+    <t xml:space="preserve">3.73268795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394762992859</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909591674805</t>
+    <t xml:space="preserve">3.74909567832947</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44555807113647</t>
+    <t xml:space="preserve">3.4455578327179</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2896876335144</t>
+    <t xml:space="preserve">3.28968739509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220723152161</t>
+    <t xml:space="preserve">3.55220699310303</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885519981384</t>
+    <t xml:space="preserve">3.65885496139526</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952173233032</t>
+    <t xml:space="preserve">4.24952220916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767057418823</t>
+    <t xml:space="preserve">4.57767009735107</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515169143677</t>
+    <t xml:space="preserve">4.31515216827393</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796667098999</t>
+    <t xml:space="preserve">4.34796619415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396730422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630084991455</t>
+    <t xml:space="preserve">5.23396682739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989288330078</t>
+    <t xml:space="preserve">5.06989336013794</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574388504028</t>
+    <t xml:space="preserve">4.64330005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8557436466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676189422607</t>
+    <t xml:space="preserve">3.89676213264465</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418858528137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598412513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.727294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844584465027</t>
+    <t xml:space="preserve">3.9623920917511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418810844421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72729468345642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844608306885</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598841667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549607276917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99353003501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303840637207</t>
+    <t xml:space="preserve">3.94598793983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549654960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99352979660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303888320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1836986541748</t>
+    <t xml:space="preserve">4.18369817733765</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29779863357544</t>
+    <t xml:space="preserve">4.2977991104126</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255933761597</t>
+    <t xml:space="preserve">4.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008863449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22173166275024</t>
+    <t xml:space="preserve">4.06008911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2217321395874</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23124027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468143463135</t>
+    <t xml:space="preserve">4.23123979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468191146851</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6892614364624</t>
+    <t xml:space="preserve">3.68926119804382</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942910194397</t>
+    <t xml:space="preserve">3.87942934036255</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -58659,7 +58659,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.649525463</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>19442</v>
@@ -58680,6 +58680,32 @@
         <v>827</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6495023148</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>6164</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728843688965</t>
+    <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
     <t xml:space="preserve">6.508225440979</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428119659424</t>
+    <t xml:space="preserve">6.35190629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428071975708</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15745973587036</t>
+    <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414926528931</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16508531570435</t>
+    <t xml:space="preserve">6.16508483886719</t>
   </si>
   <si>
     <t xml:space="preserve">6.11552047729492</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">5.99351501464844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926658630371</t>
+    <t xml:space="preserve">6.03926706314087</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545522689819</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">6.13839769363403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17652320861816</t>
+    <t xml:space="preserve">6.17652368545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.28327894210815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25277662277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1993989944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23752641677856</t>
+    <t xml:space="preserve">6.25277614593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19939851760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23752593994141</t>
   </si>
   <si>
     <t xml:space="preserve">6.22990131378174</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3976583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27946519851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19177389144897</t>
+    <t xml:space="preserve">6.51966333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39765882492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.279465675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
     <t xml:space="preserve">6.32140493392944</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">6.37859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06214332580566</t>
+    <t xml:space="preserve">6.06214284896851</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264469146729</t>
@@ -209,34 +209,34 @@
     <t xml:space="preserve">6.12314605712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90963649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1040825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0850191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883190155029</t>
+    <t xml:space="preserve">5.90963697433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10408306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95920133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207712173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401685714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07739448547363</t>
+    <t xml:space="preserve">5.95920085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0964560508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07739400863647</t>
   </si>
   <si>
     <t xml:space="preserve">6.02782917022705</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">6.19558715820312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184057235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772455215454</t>
+    <t xml:space="preserve">6.27184009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772407531738</t>
   </si>
   <si>
     <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.18033599853516</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">6.31377935409546</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21465015411377</t>
+    <t xml:space="preserve">6.21465063095093</t>
   </si>
   <si>
     <t xml:space="preserve">6.14602184295654</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24896383285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37478256225586</t>
+    <t xml:space="preserve">6.24896430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
     <t xml:space="preserve">6.55778980255127</t>
@@ -293,13 +293,13 @@
     <t xml:space="preserve">6.53491449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391176223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404369354248</t>
   </si>
   <si>
     <t xml:space="preserve">6.49678802490234</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">6.3938455581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43578481674194</t>
+    <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
     <t xml:space="preserve">6.42815971374512</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44722318649292</t>
+    <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
     <t xml:space="preserve">6.4700984954834</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
+    <t xml:space="preserve">6.55016469955444</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447933197021</t>
+    <t xml:space="preserve">6.58447885513306</t>
   </si>
   <si>
     <t xml:space="preserve">6.66835737228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57304048538208</t>
+    <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
     <t xml:space="preserve">6.60354280471802</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598247528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74842405319214</t>
+    <t xml:space="preserve">6.67598295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7484245300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367425918579</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96193408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05343723297119</t>
+    <t xml:space="preserve">6.96193361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
     <t xml:space="preserve">7.10300254821777</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">7.00387239456177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93524408340454</t>
+    <t xml:space="preserve">6.93524360656738</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">8.08285808563232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212017059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23536491394043</t>
+    <t xml:space="preserve">8.18961334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34211921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23536396026611</t>
   </si>
   <si>
     <t xml:space="preserve">8.38787174224854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22011280059814</t>
+    <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686805725098</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.68525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">8.74626159667969</t>
@@ -542,13 +542,13 @@
     <t xml:space="preserve">8.92164611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040588378906</t>
+    <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28766250610352</t>
+    <t xml:space="preserve">9.2876615524292</t>
   </si>
   <si>
     <t xml:space="preserve">9.42491722106934</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">9.83668518066406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76043319702148</t>
+    <t xml:space="preserve">9.76043224334717</t>
   </si>
   <si>
     <t xml:space="preserve">9.56979846954346</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">9.79093360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179527282715</t>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531444549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179536819458</t>
   </si>
   <si>
     <t xml:space="preserve">10.5610933303833</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">10.3933353424072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.080696105957</t>
+    <t xml:space="preserve">10.0806970596313</t>
   </si>
   <si>
     <t xml:space="preserve">10.0654458999634</t>
@@ -644,19 +644,19 @@
     <t xml:space="preserve">9.93581581115723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46304321289062</t>
+    <t xml:space="preserve">9.46304416656494</t>
   </si>
   <si>
     <t xml:space="preserve">9.44779300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50117111206055</t>
+    <t xml:space="preserve">9.50117015838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.34103965759277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60792446136475</t>
+    <t xml:space="preserve">9.60792541503906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95865249633789</t>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61116743087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58829164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397796630859</t>
+    <t xml:space="preserve">6.61116790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58829116821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397844314575</t>
   </si>
   <si>
     <t xml:space="preserve">6.52728891372681</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48153686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003372192383</t>
+    <t xml:space="preserve">6.48153734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003324508667</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44340991973877</t>
+    <t xml:space="preserve">6.44341087341309</t>
   </si>
   <si>
     <t xml:space="preserve">6.36715650558472</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">6.35190582275391</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34428024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36334419250488</t>
+    <t xml:space="preserve">6.34428119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36334466934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.32903051376343</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414926528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16508483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552095413208</t>
+    <t xml:space="preserve">6.18414878845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552000045776</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926658630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545522689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151050567627</t>
+    <t xml:space="preserve">6.03926753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545570373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87151002883911</t>
   </si>
   <si>
     <t xml:space="preserve">5.74950408935547</t>
@@ -128,52 +128,52 @@
     <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10026979446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839673995972</t>
+    <t xml:space="preserve">6.10026931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.283278465271</t>
+    <t xml:space="preserve">6.28327894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1993989944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23752593994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22990131378174</t>
+    <t xml:space="preserve">6.19939851760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23752641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22990083694458</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
+    <t xml:space="preserve">6.51966333389282</t>
   </si>
   <si>
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.279465675354</t>
+    <t xml:space="preserve">6.27946519851685</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32140493392944</t>
+    <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565288543701</t>
+    <t xml:space="preserve">6.27565240859985</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">6.35953140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37096977233887</t>
+    <t xml:space="preserve">6.37096881866455</t>
   </si>
   <si>
     <t xml:space="preserve">6.37859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06214284896851</t>
+    <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264421463013</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364742279053</t>
+    <t xml:space="preserve">6.15364694595337</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077211380005</t>
+    <t xml:space="preserve">6.13077116012573</t>
   </si>
   <si>
     <t xml:space="preserve">6.12314605712891</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0850191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207712173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401685714722</t>
+    <t xml:space="preserve">6.08502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10789585113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401638031006</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558620452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184057235718</t>
+    <t xml:space="preserve">6.26421499252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558572769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772455215454</t>
@@ -257,16 +257,16 @@
     <t xml:space="preserve">6.24515151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033695220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31759119033813</t>
+    <t xml:space="preserve">6.18033647537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
     <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31377983093262</t>
+    <t xml:space="preserve">6.31377935409546</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
@@ -275,37 +275,37 @@
     <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25658941268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16127252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24896430969238</t>
+    <t xml:space="preserve">6.25658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16127300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55778980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58066606521606</t>
+    <t xml:space="preserve">6.55779027938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49678754806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58066654205322</t>
   </si>
   <si>
     <t xml:space="preserve">6.54253959655762</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
+    <t xml:space="preserve">6.45103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959760665894</t>
   </si>
   <si>
     <t xml:space="preserve">6.39384603500366</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42816019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45866012573242</t>
+    <t xml:space="preserve">6.42815971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722270965576</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060033798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48534965515137</t>
+    <t xml:space="preserve">6.50060081481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48535013198853</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441265106201</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">6.58447933197021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66835784912109</t>
+    <t xml:space="preserve">6.66835689544678</t>
   </si>
   <si>
     <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354280471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872728347778</t>
+    <t xml:space="preserve">6.60354328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872680664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591770172119</t>
+    <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
     <t xml:space="preserve">6.63023090362549</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64166879653931</t>
+    <t xml:space="preserve">6.64166927337646</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">6.67598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7484245300293</t>
+    <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96193361282349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05343723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300159454346</t>
+    <t xml:space="preserve">6.96193408966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05343818664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
@@ -428,16 +428,16 @@
     <t xml:space="preserve">7.00768613815308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00387239456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9352445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143224716187</t>
+    <t xml:space="preserve">7.00387287139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93524408340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143177032471</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
@@ -449,46 +449,46 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637874603271</t>
+    <t xml:space="preserve">7.15637922286987</t>
   </si>
   <si>
     <t xml:space="preserve">7.28219699859619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25169563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3203239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657688140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095771789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45757961273193</t>
+    <t xml:space="preserve">7.25169610977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32032442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657640457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095819473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45758056640625</t>
   </si>
   <si>
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43470430374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533855438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159101486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409784317017</t>
+    <t xml:space="preserve">7.4347038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533807754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409832000732</t>
   </si>
   <si>
     <t xml:space="preserve">8.07523345947266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11335945129395</t>
+    <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
     <t xml:space="preserve">8.08285808563232</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23536491394043</t>
+    <t xml:space="preserve">8.23536586761475</t>
   </si>
   <si>
     <t xml:space="preserve">8.38787078857422</t>
@@ -512,37 +512,37 @@
     <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974384307861</t>
+    <t xml:space="preserve">8.34974575042725</t>
   </si>
   <si>
     <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31161880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68525981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74626064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69288349151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80726528167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91402053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88351917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040588378906</t>
+    <t xml:space="preserve">8.31161689758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68525886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.746262550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69288539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80726432800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91401958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88351821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164516448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528713226318</t>
@@ -551,46 +551,46 @@
     <t xml:space="preserve">9.2876615524292</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42491817474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72230625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
+    <t xml:space="preserve">9.42491722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6460542678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
   </si>
   <si>
     <t xml:space="preserve">9.83668518066406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76043224334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655467987061</t>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655277252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.79093360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
+    <t xml:space="preserve">9.81380844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531444549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2179536819458</t>
@@ -599,40 +599,40 @@
     <t xml:space="preserve">10.5610933303833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4848394393921</t>
+    <t xml:space="preserve">10.4848384857178</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5229663848877</t>
+    <t xml:space="preserve">10.522967338562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3933353424072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919296264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027025222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950769424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730724334717</t>
+    <t xml:space="preserve">10.0806970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044422149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9891939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073070526123</t>
   </si>
   <si>
     <t xml:space="preserve">10.0959463119507</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">9.44779300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50117015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103870391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792636871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
+    <t xml:space="preserve">9.50117111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865154266357</t>
   </si>
   <si>
     <t xml:space="preserve">10.0597171783447</t>
@@ -671,28 +671,25 @@
     <t xml:space="preserve">9.91200828552246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4688835144043</t>
+    <t xml:space="preserve">9.49997901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50775337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46888446807861</t>
   </si>
   <si>
     <t xml:space="preserve">9.48443126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217288970947</t>
+    <t xml:space="preserve">9.55439949035645</t>
   </si>
   <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0130710601807</t>
+    <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
     <t xml:space="preserve">10.0830392837524</t>
@@ -701,10 +698,10 @@
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4251003265381</t>
+    <t xml:space="preserve">10.4484224319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4251012802124</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
@@ -719,19 +716,19 @@
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028429031372</t>
+    <t xml:space="preserve">10.4950685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028419494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7282915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.72829246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -740,22 +737,22 @@
     <t xml:space="preserve">10.5106163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406490325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.409553527832</t>
+    <t xml:space="preserve">10.4639711380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4095525741577</t>
   </si>
   <si>
     <t xml:space="preserve">10.3318119049072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2229719161987</t>
+    <t xml:space="preserve">10.4017782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.222972869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -767,10 +764,10 @@
     <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1996507644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240365982056</t>
+    <t xml:space="preserve">10.1996517181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084878921509</t>
@@ -779,7 +776,7 @@
     <t xml:space="preserve">10.3784561157227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3395862579346</t>
+    <t xml:space="preserve">10.3395853042603</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540702819824</t>
@@ -791,16 +788,16 @@
     <t xml:space="preserve">10.2696189880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2851657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3473587036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505508422852</t>
+    <t xml:space="preserve">10.2851676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3473596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
     <t xml:space="preserve">10.6894197463989</t>
@@ -815,10 +812,10 @@
     <t xml:space="preserve">10.6116800308228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449039459229</t>
+    <t xml:space="preserve">10.6194543838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449029922485</t>
   </si>
   <si>
     <t xml:space="preserve">10.8604516983032</t>
@@ -827,34 +824,34 @@
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993215560913</t>
+    <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049694061279</t>
+    <t xml:space="preserve">10.7049684524536</t>
   </si>
   <si>
     <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362907409668</t>
+    <t xml:space="preserve">10.4795188903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3629083633423</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219110488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94310474395752</t>
+    <t xml:space="preserve">10.1219100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9431037902832</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -884,22 +881,22 @@
     <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99752521514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98974990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674915313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">9.99752426147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98975086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462959289551</t>
+    <t xml:space="preserve">10.2462949752808</t>
   </si>
   <si>
     <t xml:space="preserve">10.2307472229004</t>
@@ -908,28 +905,28 @@
     <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90423393249512</t>
+    <t xml:space="preserve">9.90423488616943</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436580657959</t>
+    <t xml:space="preserve">9.62436676025391</t>
   </si>
   <si>
     <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43778705596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17346668243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22011089324951</t>
+    <t xml:space="preserve">9.43778514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011184692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
@@ -947,22 +944,22 @@
     <t xml:space="preserve">9.32894992828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20456314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0646276473999</t>
+    <t xml:space="preserve">9.20456409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
     <t xml:space="preserve">9.40668964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3755931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572696685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00243473052979</t>
+    <t xml:space="preserve">9.37559413909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572601318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0024356842041</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579051971436</t>
@@ -971,16 +968,16 @@
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482593536377</t>
+    <t xml:space="preserve">8.64482498168945</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256755828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86250114440918</t>
+    <t xml:space="preserve">8.72256851196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8625020980835</t>
   </si>
   <si>
     <t xml:space="preserve">8.47379493713379</t>
@@ -989,22 +986,22 @@
     <t xml:space="preserve">8.55153656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6292781829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56708431243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6914701461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67592334747314</t>
+    <t xml:space="preserve">8.62927722930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56708526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69146919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67592239379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.58263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044010162354</t>
+    <t xml:space="preserve">8.52044105529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
@@ -1013,7 +1010,7 @@
     <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42715072631836</t>
+    <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
@@ -1025,22 +1022,22 @@
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9246940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97134017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98688793182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01798439025879</t>
+    <t xml:space="preserve">8.78475952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92469501495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97133922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98688697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01798534393311</t>
   </si>
   <si>
     <t xml:space="preserve">9.03353309631348</t>
@@ -1052,13 +1049,13 @@
     <t xml:space="preserve">9.36381149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
+    <t xml:space="preserve">9.50713634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751216888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1067,67 +1064,67 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5230598449707</t>
+    <t xml:space="preserve">9.52306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44343566894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39566135406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.44343662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823360443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66638374328613</t>
+    <t xml:space="preserve">9.69823455810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66638278961182</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61861038208008</t>
+    <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600887298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60268402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01346588134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236766815186</t>
+    <t xml:space="preserve">9.73008251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600791931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60268497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01346492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236671447754</t>
   </si>
   <si>
     <t xml:space="preserve">8.75866794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61534404754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979446411133</t>
+    <t xml:space="preserve">8.59941959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6153450012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979541778564</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
@@ -1136,10 +1133,10 @@
     <t xml:space="preserve">8.69496822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63126850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44017124176025</t>
+    <t xml:space="preserve">8.63126754760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44017028808594</t>
   </si>
   <si>
     <t xml:space="preserve">8.56757068634033</t>
@@ -1154,16 +1151,16 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2649974822998</t>
+    <t xml:space="preserve">8.26499652862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4083194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7268180847168</t>
+    <t xml:space="preserve">8.40832042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72681903839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,7 +1169,7 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
+    <t xml:space="preserve">8.34462261199951</t>
   </si>
   <si>
     <t xml:space="preserve">8.12167358398438</t>
@@ -1184,16 +1181,16 @@
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95446252822876</t>
+    <t xml:space="preserve">8.08982276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9544620513916</t>
   </si>
   <si>
     <t xml:space="preserve">7.88280057907104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04204845428467</t>
+    <t xml:space="preserve">8.04204940795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1208,46 +1205,46 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9179162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829212188721</t>
+    <t xml:space="preserve">8.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829116821289</t>
   </si>
   <si>
     <t xml:space="preserve">8.98161602020264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80644226074219</t>
+    <t xml:space="preserve">8.80644130706787</t>
   </si>
   <si>
     <t xml:space="preserve">8.53571891784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90199089050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88606739044189</t>
+    <t xml:space="preserve">8.90198993682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88606643676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04531574249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94976615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9975414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
+    <t xml:space="preserve">9.04531478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99753952026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
@@ -1259,16 +1256,16 @@
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719486236572</t>
+    <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
     <t xml:space="preserve">8.74274253845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
+    <t xml:space="preserve">8.47998142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1289,10 +1286,10 @@
     <t xml:space="preserve">8.28092193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24110984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073307037354</t>
+    <t xml:space="preserve">8.24111080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073402404785</t>
   </si>
   <si>
     <t xml:space="preserve">8.08186149597168</t>
@@ -1322,7 +1319,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36778545379639</t>
+    <t xml:space="preserve">8.3677864074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1331,7 +1328,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119167327881</t>
+    <t xml:space="preserve">7.94119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1340,7 +1337,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993270874023</t>
+    <t xml:space="preserve">7.80993223190308</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1352,37 +1349,40 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82634115219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711772918701</t>
+    <t xml:space="preserve">7.90837717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.826340675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711725234985</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148872375488</t>
+    <t xml:space="preserve">7.66226720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148824691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
+    <t xml:space="preserve">8.12167263031006</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604362487793</t>
+    <t xml:space="preserve">8.05604457855225</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478466033936</t>
+    <t xml:space="preserve">7.92478513717651</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352474212646</t>
+    <t xml:space="preserve">8.02322959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352521896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5966362953186</t>
+    <t xml:space="preserve">7.59663677215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8427472114563</t>
+    <t xml:space="preserve">7.84274768829346</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819183349609</t>
+    <t xml:space="preserve">7.49819135665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334035873413</t>
+    <t xml:space="preserve">7.38333988189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441446304321</t>
+    <t xml:space="preserve">7.10441398620605</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363597869873</t>
+    <t xml:space="preserve">7.15363645553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196920394897</t>
+    <t xml:space="preserve">7.89196968078613</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31771039962769</t>
+    <t xml:space="preserve">7.31770992279053</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111709594727</t>
+    <t xml:space="preserve">6.89111661911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85830211639404</t>
+    <t xml:space="preserve">6.8583025932312</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248777389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996793746948</t>
+    <t xml:space="preserve">6.38248729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996841430664</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756029129028</t>
+    <t xml:space="preserve">5.21756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833734512329</t>
+    <t xml:space="preserve">4.95504093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833686828613</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318881988525</t>
+    <t xml:space="preserve">5.28318929672241</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037431716919</t>
+    <t xml:space="preserve">5.25037479400635</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426292419434</t>
+    <t xml:space="preserve">5.00426340103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067089080811</t>
+    <t xml:space="preserve">4.85659694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281814575195</t>
+    <t xml:space="preserve">4.46281862258911</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718818664551</t>
+    <t xml:space="preserve">4.39718866348267</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496587753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8311333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78191018104553</t>
+    <t xml:space="preserve">3.90496563911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83113360404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137360572815</t>
+    <t xml:space="preserve">3.92137384414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13467025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826229095459</t>
+    <t xml:space="preserve">4.1346697807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826276779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748476028442</t>
+    <t xml:space="preserve">4.16748428344727</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2003002166748</t>
+    <t xml:space="preserve">4.18389272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20029973983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311471939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155822753906</t>
+    <t xml:space="preserve">4.23311424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155870437622</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083631515503</t>
+    <t xml:space="preserve">4.06083583831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802181243896</t>
+    <t xml:space="preserve">4.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9705958366394</t>
+    <t xml:space="preserve">3.97059559822083</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268818855286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394739151001</t>
+    <t xml:space="preserve">3.73268795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394762992859</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909591674805</t>
+    <t xml:space="preserve">3.74909567832947</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44555807113647</t>
+    <t xml:space="preserve">3.4455578327179</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2896876335144</t>
+    <t xml:space="preserve">3.28968739509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220723152161</t>
+    <t xml:space="preserve">3.55220699310303</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885519981384</t>
+    <t xml:space="preserve">3.65885496139526</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952173233032</t>
+    <t xml:space="preserve">4.24952220916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767057418823</t>
+    <t xml:space="preserve">4.57767009735107</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515169143677</t>
+    <t xml:space="preserve">4.31515216827393</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796667098999</t>
+    <t xml:space="preserve">4.34796619415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396730422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630084991455</t>
+    <t xml:space="preserve">5.23396682739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989288330078</t>
+    <t xml:space="preserve">5.06989336013794</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574388504028</t>
+    <t xml:space="preserve">4.64330005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8557436466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676189422607</t>
+    <t xml:space="preserve">3.89676213264465</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418858528137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598412513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.727294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844584465027</t>
+    <t xml:space="preserve">3.9623920917511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418810844421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72729468345642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844608306885</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598841667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549607276917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99353003501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303840637207</t>
+    <t xml:space="preserve">3.94598793983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549654960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99352979660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303888320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1836986541748</t>
+    <t xml:space="preserve">4.18369817733765</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29779863357544</t>
+    <t xml:space="preserve">4.2977991104126</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255933761597</t>
+    <t xml:space="preserve">4.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008863449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22173166275024</t>
+    <t xml:space="preserve">4.06008911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2217321395874</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23124027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468143463135</t>
+    <t xml:space="preserve">4.23123979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468191146851</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6892614364624</t>
+    <t xml:space="preserve">3.68926119804382</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942910194397</t>
+    <t xml:space="preserve">3.87942934036255</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -58812,7 +58812,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6495486111</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>36154</v>
@@ -58833,6 +58833,32 @@
         <v>826</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.649537037</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>9758</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029615402222</t>
+    <t xml:space="preserve">6.71029567718506</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829116821289</t>
+    <t xml:space="preserve">6.58829212188721</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50822496414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48153734207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003372192383</t>
+    <t xml:space="preserve">6.50822591781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48153686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003324508667</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053413391113</t>
@@ -74,37 +74,37 @@
     <t xml:space="preserve">6.44341087341309</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36715698242188</t>
+    <t xml:space="preserve">6.36715650558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.35190582275391</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34428071975708</t>
+    <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32903003692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090356826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615425109863</t>
+    <t xml:space="preserve">6.32903051376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
     <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414974212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16508483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552047729492</t>
+    <t xml:space="preserve">6.18414878845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552000045776</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351501464844</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">6.03545475006104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87151050567627</t>
+    <t xml:space="preserve">5.87151002883911</t>
   </si>
   <si>
     <t xml:space="preserve">5.74950408935547</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.13839769363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17652368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1993989944458</t>
+    <t xml:space="preserve">6.19939947128296</t>
   </si>
   <si>
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990131378174</t>
+    <t xml:space="preserve">6.22990083694458</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39765882492065</t>
+    <t xml:space="preserve">6.51966333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39765930175781</t>
   </si>
   <si>
     <t xml:space="preserve">6.279465675354</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32140493392944</t>
+    <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240766525269</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33665609359741</t>
+    <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
     <t xml:space="preserve">6.35953187942505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37096929550171</t>
+    <t xml:space="preserve">6.37096977233887</t>
   </si>
   <si>
     <t xml:space="preserve">6.37859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06214284896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264421463013</t>
+    <t xml:space="preserve">6.06214380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264373779297</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
@@ -203,52 +203,52 @@
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077211380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12314605712891</t>
+    <t xml:space="preserve">6.13077163696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12314653396606</t>
   </si>
   <si>
     <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10408306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08501958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883190155029</t>
+    <t xml:space="preserve">6.1040825843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95920038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207712173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401685714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07739448547363</t>
+    <t xml:space="preserve">5.95920133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645700454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0240159034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07739400863647</t>
   </si>
   <si>
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558620452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27183961868286</t>
+    <t xml:space="preserve">6.26421403884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558668136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772407531738</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">6.18033647537231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31759119033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30996656417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377983093262</t>
+    <t xml:space="preserve">6.31759166717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30996608734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3137788772583</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1460223197937</t>
+    <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
@@ -281,52 +281,52 @@
     <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24896383285522</t>
+    <t xml:space="preserve">6.24896430969238</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55778980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635286331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58066606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54254007339478</t>
+    <t xml:space="preserve">6.55778932571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4967885017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58066654205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
+    <t xml:space="preserve">6.45103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959856033325</t>
   </si>
   <si>
     <t xml:space="preserve">6.39384603500366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43578577041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42815971374512</t>
+    <t xml:space="preserve">6.4357852935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42816019058228</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866012573242</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47009897232056</t>
+    <t xml:space="preserve">6.4700984954834</t>
   </si>
   <si>
     <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48534917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50441265106201</t>
+    <t xml:space="preserve">6.48534965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50441217422485</t>
   </si>
   <si>
     <t xml:space="preserve">6.5501651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46628665924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58447885513306</t>
+    <t xml:space="preserve">6.46628618240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58447933197021</t>
   </si>
   <si>
     <t xml:space="preserve">6.66835737228394</t>
@@ -362,19 +362,19 @@
     <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354232788086</t>
+    <t xml:space="preserve">6.60354280471802</t>
   </si>
   <si>
     <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53110122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591722488403</t>
+    <t xml:space="preserve">6.46247339248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5311017036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591674804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.63023042678833</t>
@@ -386,46 +386,46 @@
     <t xml:space="preserve">6.6836085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69885969161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67598295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7484245300293</t>
+    <t xml:space="preserve">6.69885873794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67598342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761898040771</t>
+    <t xml:space="preserve">6.92761850357056</t>
   </si>
   <si>
     <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96193361282349</t>
+    <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
     <t xml:space="preserve">7.05343723297119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300207138062</t>
+    <t xml:space="preserve">7.10300302505493</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581165313721</t>
+    <t xml:space="preserve">7.0915641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768566131592</t>
+    <t xml:space="preserve">7.00768518447876</t>
   </si>
   <si>
     <t xml:space="preserve">7.00387287139893</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143224716187</t>
+    <t xml:space="preserve">6.93143129348755</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">7.15637874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169563293457</t>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169658660889</t>
   </si>
   <si>
     <t xml:space="preserve">7.3203239440918</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">7.45758008956909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564130783081</t>
+    <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
     <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62533807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159196853638</t>
+    <t xml:space="preserve">7.62533760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7015905380249</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523250579834</t>
+    <t xml:space="preserve">8.07523155212402</t>
   </si>
   <si>
     <t xml:space="preserve">8.11335945129395</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">8.08285808563232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18961334228516</t>
+    <t xml:space="preserve">8.18961238861084</t>
   </si>
   <si>
     <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23536491394043</t>
+    <t xml:space="preserve">8.23536396026611</t>
   </si>
   <si>
     <t xml:space="preserve">8.38787174224854</t>
@@ -509,28 +509,28 @@
     <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686901092529</t>
+    <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974479675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37262058258057</t>
+    <t xml:space="preserve">8.37261962890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74626159667969</t>
+    <t xml:space="preserve">8.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.69288444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726528167725</t>
+    <t xml:space="preserve">8.80726337432861</t>
   </si>
   <si>
     <t xml:space="preserve">8.91401958465576</t>
@@ -539,169 +539,169 @@
     <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92164611816406</t>
+    <t xml:space="preserve">8.92164516448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29528713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491817474365</t>
+    <t xml:space="preserve">9.29528617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2876615524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.561092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950769424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.095947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34104061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5077543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668422698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531444549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950769424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0959463119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792541503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597162246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217193603516</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830402374268</t>
+    <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484233856201</t>
+    <t xml:space="preserve">10.4484224319458</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561977386475</t>
+    <t xml:space="preserve">10.3007144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561967849731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.5028409957886</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.72829246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.7282915115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">10.5106163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4639711380005</t>
+    <t xml:space="preserve">10.4639701843262</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406490325928</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.222972869873</t>
+    <t xml:space="preserve">10.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1996507644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240365982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3784561157227</t>
+    <t xml:space="preserve">10.1996517181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240356445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084878921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3784551620483</t>
   </si>
   <si>
     <t xml:space="preserve">10.3395853042603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2540712356567</t>
+    <t xml:space="preserve">10.2540702819824</t>
   </si>
   <si>
     <t xml:space="preserve">10.2618436813354</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">10.2696180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2851657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3473596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350011825562</t>
+    <t xml:space="preserve">10.2851667404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3473587036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350021362305</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5572605133057</t>
+    <t xml:space="preserve">10.55726146698</t>
   </si>
   <si>
     <t xml:space="preserve">10.6116790771484</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">10.8449039459229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8604516983032</t>
+    <t xml:space="preserve">10.8604526519775</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837738037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993215560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982587814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7049694061279</t>
+    <t xml:space="preserve">10.8993225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7049703598022</t>
   </si>
   <si>
     <t xml:space="preserve">10.767162322998</t>
@@ -860,28 +860,28 @@
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0441694259644</t>
+    <t xml:space="preserve">10.04416847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191876411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3551330566406</t>
+    <t xml:space="preserve">10.1918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141366958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607809066772</t>
+    <t xml:space="preserve">10.1141357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530065536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
     <t xml:space="preserve">9.99752426147461</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">10.0674915313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462959289551</t>
+    <t xml:space="preserve">10.2462968826294</t>
   </si>
   <si>
     <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2151985168457</t>
+    <t xml:space="preserve">10.2152004241943</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -914,28 +914,28 @@
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59326839447021</t>
+    <t xml:space="preserve">9.62436580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5932674407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.43778610229492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1734676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2201099395752</t>
+    <t xml:space="preserve">9.17346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011089324951</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2978515625</t>
+    <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
     <t xml:space="preserve">9.31340217590332</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">9.23566055297852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32894992828369</t>
+    <t xml:space="preserve">9.32894897460938</t>
   </si>
   <si>
     <t xml:space="preserve">9.20456314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06462860107422</t>
+    <t xml:space="preserve">9.0646276473999</t>
   </si>
   <si>
     <t xml:space="preserve">9.40669059753418</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">9.37559413909912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09572696685791</t>
+    <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
     <t xml:space="preserve">9.0024356842041</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90914630889893</t>
+    <t xml:space="preserve">8.90914535522461</t>
   </si>
   <si>
     <t xml:space="preserve">8.64482498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61372947692871</t>
+    <t xml:space="preserve">8.61373043060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.72256851196289</t>
@@ -983,31 +983,31 @@
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55153656005859</t>
+    <t xml:space="preserve">8.47379493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55153751373291</t>
   </si>
   <si>
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708431243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6914701461792</t>
+    <t xml:space="preserve">8.56708526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69147109985352</t>
   </si>
   <si>
     <t xml:space="preserve">8.67592334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58263301849365</t>
+    <t xml:space="preserve">8.58263397216797</t>
   </si>
   <si>
     <t xml:space="preserve">8.52044010162354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66037368774414</t>
+    <t xml:space="preserve">8.66037464141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.53598785400391</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">8.42715072631836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70701885223389</t>
+    <t xml:space="preserve">8.7070198059082</t>
   </si>
   <si>
     <t xml:space="preserve">8.59818172454834</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31603717803955</t>
+    <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
     <t xml:space="preserve">9.36381149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788703918457</t>
+    <t xml:space="preserve">9.50713634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788799285889</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751216888428</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">9.41158676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47528553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5230598449707</t>
+    <t xml:space="preserve">9.47528648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.443434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39566135406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.44343662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66638374328613</t>
+    <t xml:space="preserve">9.66638278961182</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71415901184082</t>
+    <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">9.73008251190186</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268402099609</t>
+    <t xml:space="preserve">9.60268497467041</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82236766815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7586669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941864013672</t>
+    <t xml:space="preserve">8.82236671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75866794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941959381104</t>
   </si>
   <si>
     <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61534404754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979446411133</t>
+    <t xml:space="preserve">8.6153450012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979541778564</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">8.69496822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63126850128174</t>
+    <t xml:space="preserve">8.63126754760742</t>
   </si>
   <si>
     <t xml:space="preserve">8.44017028808594</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2649974822998</t>
+    <t xml:space="preserve">8.26499652862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7268180847168</t>
+    <t xml:space="preserve">8.72681903839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12167453765869</t>
+    <t xml:space="preserve">8.34462261199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95446252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88279962539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204845428467</t>
+    <t xml:space="preserve">7.9544620513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88280057907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204940795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9179162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829307556152</t>
+    <t xml:space="preserve">8.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829116821289</t>
   </si>
   <si>
     <t xml:space="preserve">8.98161602020264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80644226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.535719871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90199089050293</t>
+    <t xml:space="preserve">8.80644130706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53571891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90198993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.88606643676758</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">8.77459239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04531574249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94976615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9975414276123</t>
+    <t xml:space="preserve">9.04531478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99753952026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.66311931610107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
+    <t xml:space="preserve">8.79051685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">8.74274253845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
+    <t xml:space="preserve">8.47998142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">8.28092193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24110984802246</t>
+    <t xml:space="preserve">8.24111080169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.32073402404785</t>
@@ -58919,13 +58919,13 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494097222</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>2172</v>
       </c>
       <c r="C2158" t="n">
-        <v>7.15999984741211</v>
+        <v>7.1399998664856</v>
       </c>
       <c r="D2158" t="n">
         <v>7.1399998664856</v>
@@ -58940,6 +58940,32 @@
         <v>825</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494212963</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>2733</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217016220093</t>
+    <t xml:space="preserve">6.67217063903809</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829212188721</t>
+    <t xml:space="preserve">6.58829164505005</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728891372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822591781616</t>
+    <t xml:space="preserve">6.52728843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">6.36715650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428119659424</t>
+    <t xml:space="preserve">6.35190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428071975708</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
@@ -89,22 +89,22 @@
     <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615377426147</t>
+    <t xml:space="preserve">6.29090404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615425109863</t>
   </si>
   <si>
     <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414878845215</t>
+    <t xml:space="preserve">6.18414926528931</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508531570435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11552000045776</t>
+    <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351501464844</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839769363403</t>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652368545532</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">6.51966333389282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39765930175781</t>
+    <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.279465675354</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">6.38240766525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565288543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33665561676025</t>
+    <t xml:space="preserve">6.27565240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33665609359741</t>
   </si>
   <si>
     <t xml:space="preserve">6.35953187942505</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">6.37096977233887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859487533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214380264282</t>
+    <t xml:space="preserve">6.37859439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214284896851</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264373779297</t>
@@ -209,46 +209,46 @@
     <t xml:space="preserve">6.12314653396606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90963649749756</t>
+    <t xml:space="preserve">5.9096360206604</t>
   </si>
   <si>
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883237838745</t>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95920133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0240159034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07739400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02782964706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26421403884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558668136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184009552002</t>
+    <t xml:space="preserve">5.95920085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207712173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07739448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02783012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26421499252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558572769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27183961868286</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772407531738</t>
@@ -257,19 +257,19 @@
     <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.18033695220947</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996608734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137788772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465015411377</t>
+    <t xml:space="preserve">6.30996656417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21464967727661</t>
   </si>
   <si>
     <t xml:space="preserve">6.14602184295654</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24896430969238</t>
+    <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">6.55778932571411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53491497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391176223755</t>
+    <t xml:space="preserve">6.53491449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404369354248</t>
@@ -305,10 +305,10 @@
     <t xml:space="preserve">6.4967885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58066654205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54253959655762</t>
+    <t xml:space="preserve">6.58066606521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54254055023193</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">6.43959856033325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39384603500366</t>
+    <t xml:space="preserve">6.39384651184082</t>
   </si>
   <si>
     <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42816019058228</t>
+    <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866012573242</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4700984954834</t>
+    <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
     <t xml:space="preserve">6.50060081481934</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">6.50441217422485</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46628618240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58447933197021</t>
+    <t xml:space="preserve">6.55016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46628665924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58447885513306</t>
   </si>
   <si>
     <t xml:space="preserve">6.66835737228394</t>
@@ -368,13 +368,13 @@
     <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247339248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5311017036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591674804688</t>
+    <t xml:space="preserve">6.46247386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53110122680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
     <t xml:space="preserve">6.63023042678833</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">6.64166879653931</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6836085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69885873794556</t>
+    <t xml:space="preserve">6.68360805511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
     <t xml:space="preserve">6.67598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74842405319214</t>
+    <t xml:space="preserve">6.7484245300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">6.92761850357056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96955823898315</t>
+    <t xml:space="preserve">6.969557762146</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300302505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11443996429443</t>
+    <t xml:space="preserve">7.05343675613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11444044113159</t>
   </si>
   <si>
     <t xml:space="preserve">7.0915641784668</t>
@@ -431,19 +431,19 @@
     <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9352445602417</t>
+    <t xml:space="preserve">6.93524503707886</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143129348755</t>
+    <t xml:space="preserve">6.93143224716187</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16781759262085</t>
+    <t xml:space="preserve">7.16781806945801</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">7.15637874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28219699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169658660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3203239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657688140869</t>
+    <t xml:space="preserve">7.28219747543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169610977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32032442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657640457153</t>
   </si>
   <si>
     <t xml:space="preserve">7.51095771789551</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">7.45758008956909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564083099365</t>
+    <t xml:space="preserve">7.41564130783081</t>
   </si>
   <si>
     <t xml:space="preserve">7.4347038269043</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">7.62533760070801</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7015905380249</t>
+    <t xml:space="preserve">7.70159149169922</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523155212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335945129395</t>
+    <t xml:space="preserve">8.07523250579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
     <t xml:space="preserve">8.08285808563232</t>
@@ -500,37 +500,37 @@
     <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23536396026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38787174224854</t>
+    <t xml:space="preserve">8.23536491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38787078857422</t>
   </si>
   <si>
     <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686805725098</t>
+    <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974479675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37261962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31161785125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68525981903076</t>
+    <t xml:space="preserve">8.37262058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31161689758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68525886535645</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80726337432861</t>
+    <t xml:space="preserve">8.69288349151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80726432800293</t>
   </si>
   <si>
     <t xml:space="preserve">8.91401958465576</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92164516448975</t>
+    <t xml:space="preserve">8.92164611816406</t>
   </si>
   <si>
     <t xml:space="preserve">9.15040493011475</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">9.56217384338379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
+    <t xml:space="preserve">9.72230529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568435668945</t>
   </si>
   <si>
     <t xml:space="preserve">9.27241134643555</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">9.76043128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56979846954346</t>
+    <t xml:space="preserve">9.56979942321777</t>
   </si>
   <si>
     <t xml:space="preserve">9.67655277252197</t>
@@ -611,40 +611,40 @@
     <t xml:space="preserve">10.3933353424072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.080696105957</t>
+    <t xml:space="preserve">10.0806970596313</t>
   </si>
   <si>
     <t xml:space="preserve">10.0654458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0044431686401</t>
+    <t xml:space="preserve">10.0044441223145</t>
   </si>
   <si>
     <t xml:space="preserve">9.98919200897217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2027025222778</t>
+    <t xml:space="preserve">10.2027015686035</t>
   </si>
   <si>
     <t xml:space="preserve">10.1188230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950769424438</t>
+    <t xml:space="preserve">10.1950759887695</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.095947265625</t>
+    <t xml:space="preserve">10.0959463119507</t>
   </si>
   <si>
     <t xml:space="preserve">10.1264476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
+    <t xml:space="preserve">9.93581485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304321289062</t>
   </si>
   <si>
     <t xml:space="preserve">9.44779300689697</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34104061126709</t>
+    <t xml:space="preserve">9.34103965759277</t>
   </si>
   <si>
     <t xml:space="preserve">9.60792541503906</t>
@@ -58945,7 +58945,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494212963</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>2733</v>
@@ -58966,6 +58966,32 @@
         <v>825</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6495717593</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>2289</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029567718506</t>
+    <t xml:space="preserve">6.71029663085938</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217016220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61116695404053</t>
+    <t xml:space="preserve">6.67216968536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
     <t xml:space="preserve">6.58829164505005</t>
@@ -56,40 +56,40 @@
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.508225440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48153686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053461074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341087341309</t>
+    <t xml:space="preserve">6.52728891372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50822496414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48153638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003276824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44341039657593</t>
   </si>
   <si>
     <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428071975708</t>
+    <t xml:space="preserve">6.35190582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428024291992</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32903051376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090404510498</t>
+    <t xml:space="preserve">6.32903003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090356826782</t>
   </si>
   <si>
     <t xml:space="preserve">6.30615425109863</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414926528931</t>
+    <t xml:space="preserve">6.18414878845215</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508483886719</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99351501464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03926706314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545475006104</t>
+    <t xml:space="preserve">5.99351406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03926658630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545522689819</t>
   </si>
   <si>
     <t xml:space="preserve">5.87151050567627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92869997024536</t>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92870044708252</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10026979446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.10027027130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839673995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17652368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">6.19939947128296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23752689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22990131378174</t>
+    <t xml:space="preserve">6.23752641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22990083694458</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528345108032</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">6.51966381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39765882492065</t>
+    <t xml:space="preserve">6.3976583480835</t>
   </si>
   <si>
     <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19177436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140493392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38240814208984</t>
+    <t xml:space="preserve">6.19177389144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140445709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38240766525269</t>
   </si>
   <si>
     <t xml:space="preserve">6.27565240859985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33665609359741</t>
+    <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
     <t xml:space="preserve">6.35953187942505</t>
@@ -185,37 +185,37 @@
     <t xml:space="preserve">6.37096929550171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214332580566</t>
+    <t xml:space="preserve">6.37859487533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214284896851</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264373779297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08120679855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15364789962769</t>
+    <t xml:space="preserve">6.08120727539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15364742279053</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077211380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12314653396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9096360206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1040825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08501958847046</t>
+    <t xml:space="preserve">6.13077116012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12314605712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90963649749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10408306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0850191116333</t>
   </si>
   <si>
     <t xml:space="preserve">6.08883190155029</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207712173462</t>
+    <t xml:space="preserve">6.09645652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
     <t xml:space="preserve">6.02401685714722</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27183961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772407531738</t>
+    <t xml:space="preserve">6.26421499252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772455215454</t>
   </si>
   <si>
     <t xml:space="preserve">6.24515199661255</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1460223197937</t>
+    <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16127252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24896335601807</t>
+    <t xml:space="preserve">6.16127300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
@@ -290,49 +290,49 @@
     <t xml:space="preserve">6.55778980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53491449356079</t>
+    <t xml:space="preserve">6.53491401672363</t>
   </si>
   <si>
     <t xml:space="preserve">6.54635286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47391176223755</t>
+    <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404321670532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4967885017395</t>
+    <t xml:space="preserve">6.49678802490234</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54254007339478</t>
+    <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4357852935791</t>
+    <t xml:space="preserve">6.45103645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384603500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43578481674194</t>
   </si>
   <si>
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866012573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44722270965576</t>
+    <t xml:space="preserve">6.45866060256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
@@ -347,28 +347,28 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46628665924072</t>
+    <t xml:space="preserve">6.55016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447885513306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66835784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57304096221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354232788086</t>
+    <t xml:space="preserve">6.66835737228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5730414390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354280471802</t>
   </si>
   <si>
     <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247386932373</t>
+    <t xml:space="preserve">6.46247339248657</t>
   </si>
   <si>
     <t xml:space="preserve">6.53110122680664</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63023042678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64166879653931</t>
+    <t xml:space="preserve">6.63023090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64166927337646</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
@@ -401,46 +401,46 @@
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.969557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96193361282349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05343675613403</t>
+    <t xml:space="preserve">6.96955823898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96193408966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
     <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11444044113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0915641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581165313721</t>
+    <t xml:space="preserve">7.11443996429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09156322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768518447876</t>
+    <t xml:space="preserve">7.00768613815308</t>
   </si>
   <si>
     <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93524503707886</t>
+    <t xml:space="preserve">6.9352445602417</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143224716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293539047241</t>
+    <t xml:space="preserve">6.93143177032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293491363525</t>
   </si>
   <si>
     <t xml:space="preserve">7.16781759262085</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637874603271</t>
+    <t xml:space="preserve">7.15637922286987</t>
   </si>
   <si>
     <t xml:space="preserve">7.28219747543335</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">7.25169563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3203239440918</t>
+    <t xml:space="preserve">7.32032442092896</t>
   </si>
   <si>
     <t xml:space="preserve">7.39657688140869</t>
@@ -470,28 +470,28 @@
     <t xml:space="preserve">7.45758008956909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564130783081</t>
+    <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
     <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62533807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409784317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07523155212402</t>
+    <t xml:space="preserve">7.62533855438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159101486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409832000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
     <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08285808563232</t>
+    <t xml:space="preserve">8.08285713195801</t>
   </si>
   <si>
     <t xml:space="preserve">8.18961238861084</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38787174224854</t>
+    <t xml:space="preserve">8.3878698348999</t>
   </si>
   <si>
     <t xml:space="preserve">8.22011470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686901092529</t>
+    <t xml:space="preserve">8.32686996459961</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974479675293</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.746262550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69288444519043</t>
+    <t xml:space="preserve">8.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74626159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69288349151611</t>
   </si>
   <si>
     <t xml:space="preserve">8.80726432800293</t>
@@ -542,205 +542,208 @@
     <t xml:space="preserve">8.92164611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29528713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
+    <t xml:space="preserve">9.15040588378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29528617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2876615524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093265533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848394393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.522967338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950769424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959463119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264486312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50775337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.561092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0959463119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597162246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758972167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830402374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5728101730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4484224319458</t>
+    <t xml:space="preserve">10.0830383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5728092193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4484233856201</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4173269271851</t>
+    <t xml:space="preserve">10.4173259735107</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561967849731</t>
+    <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.4950685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.72829246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5650358200073</t>
+    <t xml:space="preserve">10.7282915115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.565034866333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5106153488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406480789185</t>
+    <t xml:space="preserve">10.5106163024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4639711380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
     <t xml:space="preserve">10.409553527832</t>
@@ -752,13 +755,13 @@
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229738235474</t>
+    <t xml:space="preserve">10.222972869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4717435836792</t>
+    <t xml:space="preserve">10.4717445373535</t>
   </si>
   <si>
     <t xml:space="preserve">10.1841039657593</t>
@@ -770,7 +773,7 @@
     <t xml:space="preserve">10.3240365982056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3084878921509</t>
+    <t xml:space="preserve">10.3084888458252</t>
   </si>
   <si>
     <t xml:space="preserve">10.3784551620483</t>
@@ -782,16 +785,16 @@
     <t xml:space="preserve">10.2540712356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2618436813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696180343628</t>
+    <t xml:space="preserve">10.2618446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696189880371</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3473596572876</t>
+    <t xml:space="preserve">10.3473587036133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6350021362305</t>
@@ -800,31 +803,31 @@
     <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.55726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116790771484</t>
+    <t xml:space="preserve">10.5572605133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116800308228</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8604516983032</t>
+    <t xml:space="preserve">10.8449029922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8604507446289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993225097656</t>
+    <t xml:space="preserve">10.8993215560913</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
@@ -833,13 +836,13 @@
     <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.767162322998</t>
+    <t xml:space="preserve">10.7671632766724</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.362907409668</t>
+    <t xml:space="preserve">10.3629083633423</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
@@ -851,7 +854,7 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94310569763184</t>
+    <t xml:space="preserve">9.94310474395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -863,7 +866,7 @@
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918773651123</t>
+    <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551330566406</t>
@@ -872,22 +875,22 @@
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141366958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530065536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607809066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98974990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674915313721</t>
+    <t xml:space="preserve">10.1141357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98975086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674905776978</t>
   </si>
   <si>
     <t xml:space="preserve">10.1452322006226</t>
@@ -896,13 +899,13 @@
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462968826294</t>
+    <t xml:space="preserve">10.2462959289551</t>
   </si>
   <si>
     <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.21519947052</t>
+    <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -911,22 +914,22 @@
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5932674407959</t>
+    <t xml:space="preserve">9.62436580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59326934814453</t>
   </si>
   <si>
     <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17346668243408</t>
+    <t xml:space="preserve">9.1734676361084</t>
   </si>
   <si>
     <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011089324951</t>
+    <t xml:space="preserve">9.22011184692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
@@ -935,52 +938,52 @@
     <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31340217590332</t>
+    <t xml:space="preserve">9.313401222229</t>
   </si>
   <si>
     <t xml:space="preserve">9.23566055297852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32894992828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20456409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06462860107422</t>
+    <t xml:space="preserve">9.32894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20456314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0646276473999</t>
   </si>
   <si>
     <t xml:space="preserve">9.40669059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37559413909912</t>
+    <t xml:space="preserve">9.3755931854248</t>
   </si>
   <si>
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0024356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95579051971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90914630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64482593536377</t>
+    <t xml:space="preserve">9.00243377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95579147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90914726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64482688903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256851196289</t>
+    <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379493713379</t>
+    <t xml:space="preserve">8.47379398345947</t>
   </si>
   <si>
     <t xml:space="preserve">8.55153656005859</t>
@@ -989,7 +992,7 @@
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708526611328</t>
+    <t xml:space="preserve">8.56708431243896</t>
   </si>
   <si>
     <t xml:space="preserve">8.6914701461792</t>
@@ -1001,7 +1004,7 @@
     <t xml:space="preserve">8.58263397216797</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044105529785</t>
+    <t xml:space="preserve">8.52044010162354</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
@@ -1010,52 +1013,52 @@
     <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42715072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70701885223389</t>
+    <t xml:space="preserve">8.42714977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7070198059082</t>
   </si>
   <si>
     <t xml:space="preserve">8.59818172454834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75366401672363</t>
+    <t xml:space="preserve">8.75366306304932</t>
   </si>
   <si>
     <t xml:space="preserve">8.78476047515869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94024276733398</t>
+    <t xml:space="preserve">8.9402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97133922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98688697814941</t>
+    <t xml:space="preserve">8.97134017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03353214263916</t>
+    <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751216888428</t>
+    <t xml:space="preserve">9.36381149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1064,7 +1067,7 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5230598449707</t>
+    <t xml:space="preserve">9.52306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
@@ -1073,16 +1076,16 @@
     <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39566135406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4912109375</t>
+    <t xml:space="preserve">9.39566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823360443115</t>
+    <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1097,13 +1100,13 @@
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008251190186</t>
+    <t xml:space="preserve">9.73008346557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268497467041</t>
+    <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
@@ -1115,10 +1118,10 @@
     <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59941959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089458465576</t>
+    <t xml:space="preserve">8.59941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089363098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1130,19 +1133,19 @@
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496822357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63126850128174</t>
+    <t xml:space="preserve">8.69496726989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63126754760742</t>
   </si>
   <si>
     <t xml:space="preserve">8.44017124176025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56757068634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47201919555664</t>
+    <t xml:space="preserve">8.56756973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47202014923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1160,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1169,28 +1172,28 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12167453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96242570877075</t>
+    <t xml:space="preserve">8.34462261199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12167358398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96242523193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982276916504</t>
+    <t xml:space="preserve">8.08982372283936</t>
   </si>
   <si>
     <t xml:space="preserve">7.95446300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88279962539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204845428467</t>
+    <t xml:space="preserve">7.88280057907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204940795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1205,16 +1208,16 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91791534423828</t>
+    <t xml:space="preserve">8.9179162979126</t>
   </si>
   <si>
     <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98161506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644130706787</t>
+    <t xml:space="preserve">8.98161602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644226074219</t>
   </si>
   <si>
     <t xml:space="preserve">8.535719871521</t>
@@ -1235,22 +1238,22 @@
     <t xml:space="preserve">8.9497652053833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99754047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421562194824</t>
+    <t xml:space="preserve">8.9975414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421657562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349514007568</t>
+    <t xml:space="preserve">8.58349418640137</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
@@ -1259,13 +1262,13 @@
     <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74274349212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923072814941</t>
+    <t xml:space="preserve">8.74274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1286,7 +1289,7 @@
     <t xml:space="preserve">8.28092288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24111080169678</t>
+    <t xml:space="preserve">8.24110984802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32073402404785</t>
@@ -1319,7 +1322,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3677864074707</t>
+    <t xml:space="preserve">8.36778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119119644165</t>
+    <t xml:space="preserve">7.94119167327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993223190308</t>
+    <t xml:space="preserve">7.80993270874023</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1349,40 +1352,37 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.826340675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711725234985</t>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148824691772</t>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167263031006</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604457855225</t>
+    <t xml:space="preserve">8.05604362487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478513717651</t>
+    <t xml:space="preserve">7.92478466033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352521896362</t>
+    <t xml:space="preserve">8.02322864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59663677215576</t>
+    <t xml:space="preserve">7.5966362953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84274768829346</t>
+    <t xml:space="preserve">7.8427472114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819135665894</t>
+    <t xml:space="preserve">7.49819183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38333988189697</t>
+    <t xml:space="preserve">7.38334035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441398620605</t>
+    <t xml:space="preserve">7.10441446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363645553589</t>
+    <t xml:space="preserve">7.15363597869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196968078613</t>
+    <t xml:space="preserve">7.89196920394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31770992279053</t>
+    <t xml:space="preserve">7.31771039962769</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111661911011</t>
+    <t xml:space="preserve">6.89111709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8583025932312</t>
+    <t xml:space="preserve">6.85830211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996841430664</t>
+    <t xml:space="preserve">6.38248777389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996793746948</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756076812744</t>
+    <t xml:space="preserve">5.21756029129028</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833686828613</t>
+    <t xml:space="preserve">4.95504140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318929672241</t>
+    <t xml:space="preserve">5.28318881988525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037479400635</t>
+    <t xml:space="preserve">5.25037431716919</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426340103149</t>
+    <t xml:space="preserve">5.00426292419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
+    <t xml:space="preserve">4.85659646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281862258911</t>
+    <t xml:space="preserve">4.46281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718866348267</t>
+    <t xml:space="preserve">4.39718818664551</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496563911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83113360404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78190994262695</t>
+    <t xml:space="preserve">3.90496587753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8311333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78191018104553</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137384414673</t>
+    <t xml:space="preserve">3.92137360572815</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1346697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826276779175</t>
+    <t xml:space="preserve">4.13467025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826229095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748428344727</t>
+    <t xml:space="preserve">4.16748476028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20029973983765</t>
+    <t xml:space="preserve">4.18389225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2003002166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155870437622</t>
+    <t xml:space="preserve">4.23311471939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155822753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083583831787</t>
+    <t xml:space="preserve">4.06083631515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802228927612</t>
+    <t xml:space="preserve">4.02802181243896</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97059559822083</t>
+    <t xml:space="preserve">3.9705958366394</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394762992859</t>
+    <t xml:space="preserve">3.73268818855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
+    <t xml:space="preserve">3.74909591674805</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4455578327179</t>
+    <t xml:space="preserve">3.44555807113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28968739509583</t>
+    <t xml:space="preserve">3.2896876335144</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220699310303</t>
+    <t xml:space="preserve">3.55220723152161</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885496139526</t>
+    <t xml:space="preserve">3.65885519981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952220916748</t>
+    <t xml:space="preserve">4.24952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767009735107</t>
+    <t xml:space="preserve">4.57767057418823</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515216827393</t>
+    <t xml:space="preserve">4.31515169143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796619415283</t>
+    <t xml:space="preserve">4.34796667098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630037307739</t>
+    <t xml:space="preserve">5.23396730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630084991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989336013794</t>
+    <t xml:space="preserve">5.06989288330078</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
+    <t xml:space="preserve">4.64330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676213264465</t>
+    <t xml:space="preserve">3.89676189422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9623920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418810844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72729468345642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844608306885</t>
+    <t xml:space="preserve">3.96239185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418858528137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598412513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.727294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844584465027</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598793983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549654960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99352979660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303888320923</t>
+    <t xml:space="preserve">3.94598841667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549607276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99353003501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18369817733765</t>
+    <t xml:space="preserve">4.1836986541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2977991104126</t>
+    <t xml:space="preserve">4.29779863357544</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255981445312</t>
+    <t xml:space="preserve">4.59255933761597</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2217321395874</t>
+    <t xml:space="preserve">4.06008863449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22173166275024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23123979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468191146851</t>
+    <t xml:space="preserve">4.23124027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468143463135</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68926119804382</t>
+    <t xml:space="preserve">3.6892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942934036255</t>
+    <t xml:space="preserve">3.87942910194397</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -58994,13 +58994,13 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6496296296</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>3989</v>
       </c>
       <c r="C2161" t="n">
-        <v>7.1399998664856</v>
+        <v>7.15999984741211</v>
       </c>
       <c r="D2161" t="n">
         <v>7.1399998664856</v>
@@ -59015,6 +59015,32 @@
         <v>826</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6496412037</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>42693</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>824</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -44,79 +44,79 @@
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67216968536377</t>
+    <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397796630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52728891372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822496414185</t>
+    <t xml:space="preserve">6.58829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52728843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153638839722</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003276824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341039657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715698242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35190582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428024291992</t>
+    <t xml:space="preserve">6.39003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053365707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44341087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32903003692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090356826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15745973587036</t>
+    <t xml:space="preserve">6.32903051376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615377426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414878845215</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16508483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552047729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99351406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03926658630371</t>
+    <t xml:space="preserve">6.16508531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552000045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99351453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03926706314087</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545522689819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87151050567627</t>
+    <t xml:space="preserve">5.87150955200195</t>
   </si>
   <si>
     <t xml:space="preserve">5.74950456619263</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10027027130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839673995972</t>
+    <t xml:space="preserve">6.10026931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.283278465271</t>
+    <t xml:space="preserve">6.28327894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19939947128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23752641677856</t>
+    <t xml:space="preserve">6.1993989944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23752593994141</t>
   </si>
   <si>
     <t xml:space="preserve">6.22990083694458</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19177389144897</t>
+    <t xml:space="preserve">6.19177484512329</t>
   </si>
   <si>
     <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38240766525269</t>
+    <t xml:space="preserve">6.38240718841553</t>
   </si>
   <si>
     <t xml:space="preserve">6.27565240859985</t>
@@ -179,61 +179,61 @@
     <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953187942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37096929550171</t>
+    <t xml:space="preserve">6.35953140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37096977233887</t>
   </si>
   <si>
     <t xml:space="preserve">6.37859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06214284896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264373779297</t>
+    <t xml:space="preserve">6.06214332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264421463013</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364742279053</t>
+    <t xml:space="preserve">6.15364789962769</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077116012573</t>
+    <t xml:space="preserve">6.13077163696289</t>
   </si>
   <si>
     <t xml:space="preserve">6.12314605712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90963649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10408306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0850191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10789585113525</t>
+    <t xml:space="preserve">5.90963697433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1040825843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
     <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645652770996</t>
+    <t xml:space="preserve">6.09645700454712</t>
   </si>
   <si>
     <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02401685714722</t>
+    <t xml:space="preserve">6.02401638031006</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
@@ -242,40 +242,40 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421499252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558620452881</t>
+    <t xml:space="preserve">6.26421451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558572769165</t>
   </si>
   <si>
     <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47772455215454</t>
+    <t xml:space="preserve">6.47772359848022</t>
   </si>
   <si>
     <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.18033599853516</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996656417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14602184295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25658941268921</t>
+    <t xml:space="preserve">6.30996608734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21465063095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460223197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25658893585205</t>
   </si>
   <si>
     <t xml:space="preserve">6.16127300262451</t>
@@ -284,28 +284,28 @@
     <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3747820854187</t>
+    <t xml:space="preserve">6.37478256225586</t>
   </si>
   <si>
     <t xml:space="preserve">6.55778980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53491401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635286331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58066606521606</t>
+    <t xml:space="preserve">6.53491449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4967885017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58066654205322</t>
   </si>
   <si>
     <t xml:space="preserve">6.54253959655762</t>
@@ -314,22 +314,22 @@
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959760665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578481674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42815971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45866060256958</t>
+    <t xml:space="preserve">6.45103597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4357852935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42816019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722318649292</t>
@@ -347,31 +347,31 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55016565322876</t>
+    <t xml:space="preserve">6.5501651763916</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447885513306</t>
+    <t xml:space="preserve">6.58447933197021</t>
   </si>
   <si>
     <t xml:space="preserve">6.66835737228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5730414390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354280471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872728347778</t>
+    <t xml:space="preserve">6.57304096221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872632980347</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53110122680664</t>
+    <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591722488403</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">6.64166927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6836085319519</t>
+    <t xml:space="preserve">6.68360805511475</t>
   </si>
   <si>
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7484245300293</t>
+    <t xml:space="preserve">6.67598295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
@@ -401,31 +401,31 @@
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96955823898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96193408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05343770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300254821777</t>
+    <t xml:space="preserve">6.969557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96193361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05343723297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300302505493</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09156322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581212997437</t>
+    <t xml:space="preserve">7.09156370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581165313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768613815308</t>
+    <t xml:space="preserve">7.00768566131592</t>
   </si>
   <si>
     <t xml:space="preserve">7.00387287139893</t>
@@ -440,25 +440,25 @@
     <t xml:space="preserve">6.93143177032471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02293491363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16781759262085</t>
+    <t xml:space="preserve">7.02293634414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16781711578369</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032442092896</t>
+    <t xml:space="preserve">7.15637874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169658660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32032489776611</t>
   </si>
   <si>
     <t xml:space="preserve">7.39657688140869</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">7.51095724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45758008956909</t>
+    <t xml:space="preserve">7.45758056640625</t>
   </si>
   <si>
     <t xml:space="preserve">7.41564083099365</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62533855438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159101486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409832000732</t>
+    <t xml:space="preserve">7.62533807754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7015905380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
     <t xml:space="preserve">8.07523250579834</t>
@@ -491,10 +491,10 @@
     <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961238861084</t>
+    <t xml:space="preserve">8.08285903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961143493652</t>
   </si>
   <si>
     <t xml:space="preserve">8.34212017059326</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3878698348999</t>
+    <t xml:space="preserve">8.38787078857422</t>
   </si>
   <si>
     <t xml:space="preserve">8.22011470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686996459961</t>
+    <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974479675293</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31161785125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68525981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74626159667969</t>
+    <t xml:space="preserve">8.31161689758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68525791168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.69288349151611</t>
@@ -533,31 +533,31 @@
     <t xml:space="preserve">8.80726432800293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91402053833008</t>
+    <t xml:space="preserve">8.91401958465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92164611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040588378906</t>
+    <t xml:space="preserve">8.92164516448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528617858887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2876615524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491817474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72230625152588</t>
+    <t xml:space="preserve">9.28766059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230529785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.64605236053467</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">9.77568340301514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27241039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
+    <t xml:space="preserve">9.27241134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668613433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.76043128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56979942321777</t>
+    <t xml:space="preserve">9.56979846954346</t>
   </si>
   <si>
     <t xml:space="preserve">9.67655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79093265533447</t>
+    <t xml:space="preserve">9.79093360900879</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380939483643</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">10.2179536819458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5610933303833</t>
+    <t xml:space="preserve">10.5610942840576</t>
   </si>
   <si>
     <t xml:space="preserve">10.4848394393921</t>
@@ -605,52 +605,52 @@
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.522967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933343887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950769424438</t>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0806970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044422149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0959463119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264486312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581485748291</t>
+    <t xml:space="preserve">10.095947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.126446723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
   </si>
   <si>
     <t xml:space="preserve">9.46304416656494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117015838623</t>
+    <t xml:space="preserve">9.44779205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
     <t xml:space="preserve">9.34103965759277</t>
@@ -665,19 +665,19 @@
     <t xml:space="preserve">10.0597171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200923919678</t>
+    <t xml:space="preserve">10.0286207199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200828552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.49997997283936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50775337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
+    <t xml:space="preserve">9.5077543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688835144043</t>
   </si>
   <si>
     <t xml:space="preserve">9.48443222045898</t>
@@ -686,52 +686,49 @@
     <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56217288970947</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758972167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830383300781</t>
+    <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484233856201</t>
+    <t xml:space="preserve">10.4484224319458</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4173259735107</t>
+    <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561977386475</t>
+    <t xml:space="preserve">10.4561967849731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028429031372</t>
+    <t xml:space="preserve">10.4950675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028419494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7282915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.72829246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -746,16 +743,16 @@
     <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.409553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3318109512329</t>
+    <t xml:space="preserve">10.4095525741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3318099975586</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.222972869873</t>
+    <t xml:space="preserve">10.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -764,13 +761,13 @@
     <t xml:space="preserve">10.4717445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1841039657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1996517181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240365982056</t>
+    <t xml:space="preserve">10.184103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1996507644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084888458252</t>
@@ -779,16 +776,16 @@
     <t xml:space="preserve">10.3784551620483</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3395853042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2540712356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2618446350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696189880371</t>
+    <t xml:space="preserve">10.3395843505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2540702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2618436813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696180343628</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
@@ -797,37 +794,37 @@
     <t xml:space="preserve">10.3473587036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894197463989</t>
+    <t xml:space="preserve">10.6350011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894207000732</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5572605133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116800308228</t>
+    <t xml:space="preserve">10.55726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116790771484</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8449029922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8604507446289</t>
+    <t xml:space="preserve">10.8449039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8604516983032</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993215560913</t>
+    <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
@@ -839,7 +836,7 @@
     <t xml:space="preserve">10.7671632766724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795198440552</t>
+    <t xml:space="preserve">10.4795188903809</t>
   </si>
   <si>
     <t xml:space="preserve">10.3629083633423</t>
@@ -854,46 +851,46 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94310474395752</t>
+    <t xml:space="preserve">9.94310569763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0441694259644</t>
+    <t xml:space="preserve">10.04416847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918783187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3551330566406</t>
+    <t xml:space="preserve">10.1918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530055999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607789993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752521514893</t>
+    <t xml:space="preserve">10.1141366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607799530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
     <t xml:space="preserve">9.98975086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0674905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">10.0674915313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -905,7 +902,7 @@
     <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2151985168457</t>
+    <t xml:space="preserve">10.21519947052</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -917,25 +914,25 @@
     <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59326934814453</t>
+    <t xml:space="preserve">9.5932674407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1734676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29785251617432</t>
+    <t xml:space="preserve">9.17346572875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2978515625</t>
   </si>
   <si>
     <t xml:space="preserve">9.313401222229</t>
@@ -947,34 +944,34 @@
     <t xml:space="preserve">9.32894897460938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20456314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0646276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40669059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3755931854248</t>
+    <t xml:space="preserve">9.20456409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06462860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4066915512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37559413909912</t>
   </si>
   <si>
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00243377685547</t>
+    <t xml:space="preserve">9.00243473052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90914726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64482688903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61372947692871</t>
+    <t xml:space="preserve">8.90914630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64482593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61373043060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.72256755828857</t>
@@ -983,49 +980,49 @@
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379398345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55153656005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6292781829834</t>
+    <t xml:space="preserve">8.47379493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55153560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62927913665771</t>
   </si>
   <si>
     <t xml:space="preserve">8.56708431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6914701461792</t>
+    <t xml:space="preserve">8.69147109985352</t>
   </si>
   <si>
     <t xml:space="preserve">8.67592334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58263397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52044010162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66037464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53598785400391</t>
+    <t xml:space="preserve">8.58263301849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52044105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66037559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53598880767822</t>
   </si>
   <si>
     <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7070198059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59818172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75366306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78476047515869</t>
+    <t xml:space="preserve">8.70701885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59818077087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75366401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78476142883301</t>
   </si>
   <si>
     <t xml:space="preserve">8.9402437210083</t>
@@ -1034,31 +1031,31 @@
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97134017944336</t>
+    <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
     <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01798439025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03353309631348</t>
+    <t xml:space="preserve">9.01798343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03353214263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
+    <t xml:space="preserve">9.36381244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751216888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1067,7 +1064,7 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52306079864502</t>
+    <t xml:space="preserve">9.5230598449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
@@ -1076,16 +1073,16 @@
     <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39566230773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.39566135406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823455810547</t>
+    <t xml:space="preserve">9.69823360443115</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1100,13 +1097,13 @@
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008346557617</t>
+    <t xml:space="preserve">9.73008251190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268402099609</t>
+    <t xml:space="preserve">9.60268497467041</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
@@ -1118,10 +1115,10 @@
     <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089363098145</t>
+    <t xml:space="preserve">8.59941959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1133,19 +1130,19 @@
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496726989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63126754760742</t>
+    <t xml:space="preserve">8.69496822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63126850128174</t>
   </si>
   <si>
     <t xml:space="preserve">8.44017124176025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56756973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47202014923096</t>
+    <t xml:space="preserve">8.56757068634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47201919555664</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1163,7 +1160,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7268180847168</t>
+    <t xml:space="preserve">8.72681903839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,28 +1169,28 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34462261199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12167358398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96242523193359</t>
+    <t xml:space="preserve">8.3446216583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12167453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96242570877075</t>
   </si>
   <si>
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982372283936</t>
+    <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
     <t xml:space="preserve">7.95446300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88280057907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204940795898</t>
+    <t xml:space="preserve">7.88279962539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204845428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1208,16 +1205,16 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9179162979126</t>
+    <t xml:space="preserve">8.91791534423828</t>
   </si>
   <si>
     <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98161602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644226074219</t>
+    <t xml:space="preserve">8.98161506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644130706787</t>
   </si>
   <si>
     <t xml:space="preserve">8.535719871521</t>
@@ -1238,22 +1235,22 @@
     <t xml:space="preserve">8.9497652053833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9975414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
+    <t xml:space="preserve">8.99754047393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349418640137</t>
+    <t xml:space="preserve">8.58349514007568</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
@@ -1262,13 +1259,13 @@
     <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
+    <t xml:space="preserve">8.74274349212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1289,7 +1286,7 @@
     <t xml:space="preserve">8.28092288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24110984802246</t>
+    <t xml:space="preserve">8.24111080169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.32073402404785</t>
@@ -1322,7 +1319,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36778545379639</t>
+    <t xml:space="preserve">8.3677864074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1331,7 +1328,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119167327881</t>
+    <t xml:space="preserve">7.94119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1340,7 +1337,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993270874023</t>
+    <t xml:space="preserve">7.80993223190308</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1352,37 +1349,40 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82634115219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711772918701</t>
+    <t xml:space="preserve">7.90837717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.826340675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711725234985</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148872375488</t>
+    <t xml:space="preserve">7.66226720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148824691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
+    <t xml:space="preserve">8.12167263031006</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604362487793</t>
+    <t xml:space="preserve">8.05604457855225</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478466033936</t>
+    <t xml:space="preserve">7.92478513717651</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352474212646</t>
+    <t xml:space="preserve">8.02322959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352521896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5966362953186</t>
+    <t xml:space="preserve">7.59663677215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8427472114563</t>
+    <t xml:space="preserve">7.84274768829346</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819183349609</t>
+    <t xml:space="preserve">7.49819135665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334035873413</t>
+    <t xml:space="preserve">7.38333988189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441446304321</t>
+    <t xml:space="preserve">7.10441398620605</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363597869873</t>
+    <t xml:space="preserve">7.15363645553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196920394897</t>
+    <t xml:space="preserve">7.89196968078613</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31771039962769</t>
+    <t xml:space="preserve">7.31770992279053</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111709594727</t>
+    <t xml:space="preserve">6.89111661911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85830211639404</t>
+    <t xml:space="preserve">6.8583025932312</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248777389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996793746948</t>
+    <t xml:space="preserve">6.38248729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996841430664</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756029129028</t>
+    <t xml:space="preserve">5.21756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833734512329</t>
+    <t xml:space="preserve">4.95504093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833686828613</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318881988525</t>
+    <t xml:space="preserve">5.28318929672241</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037431716919</t>
+    <t xml:space="preserve">5.25037479400635</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426292419434</t>
+    <t xml:space="preserve">5.00426340103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067089080811</t>
+    <t xml:space="preserve">4.85659694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281814575195</t>
+    <t xml:space="preserve">4.46281862258911</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718818664551</t>
+    <t xml:space="preserve">4.39718866348267</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496587753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8311333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78191018104553</t>
+    <t xml:space="preserve">3.90496563911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83113360404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137360572815</t>
+    <t xml:space="preserve">3.92137384414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13467025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826229095459</t>
+    <t xml:space="preserve">4.1346697807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826276779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748476028442</t>
+    <t xml:space="preserve">4.16748428344727</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2003002166748</t>
+    <t xml:space="preserve">4.18389272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20029973983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311471939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155822753906</t>
+    <t xml:space="preserve">4.23311424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155870437622</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083631515503</t>
+    <t xml:space="preserve">4.06083583831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802181243896</t>
+    <t xml:space="preserve">4.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9705958366394</t>
+    <t xml:space="preserve">3.97059559822083</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268818855286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394739151001</t>
+    <t xml:space="preserve">3.73268795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394762992859</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909591674805</t>
+    <t xml:space="preserve">3.74909567832947</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44555807113647</t>
+    <t xml:space="preserve">3.4455578327179</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2896876335144</t>
+    <t xml:space="preserve">3.28968739509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220723152161</t>
+    <t xml:space="preserve">3.55220699310303</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885519981384</t>
+    <t xml:space="preserve">3.65885496139526</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952173233032</t>
+    <t xml:space="preserve">4.24952220916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767057418823</t>
+    <t xml:space="preserve">4.57767009735107</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515169143677</t>
+    <t xml:space="preserve">4.31515216827393</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796667098999</t>
+    <t xml:space="preserve">4.34796619415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396730422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630084991455</t>
+    <t xml:space="preserve">5.23396682739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989288330078</t>
+    <t xml:space="preserve">5.06989336013794</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574388504028</t>
+    <t xml:space="preserve">4.64330005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8557436466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676189422607</t>
+    <t xml:space="preserve">3.89676213264465</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418858528137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598412513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.727294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844584465027</t>
+    <t xml:space="preserve">3.9623920917511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418810844421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72729468345642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844608306885</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598841667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549607276917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99353003501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303840637207</t>
+    <t xml:space="preserve">3.94598793983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549654960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99352979660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303888320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1836986541748</t>
+    <t xml:space="preserve">4.18369817733765</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29779863357544</t>
+    <t xml:space="preserve">4.2977991104126</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255933761597</t>
+    <t xml:space="preserve">4.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008863449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22173166275024</t>
+    <t xml:space="preserve">4.06008911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2217321395874</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23124027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468143463135</t>
+    <t xml:space="preserve">4.23123979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468191146851</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6892614364624</t>
+    <t xml:space="preserve">3.68926119804382</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942910194397</t>
+    <t xml:space="preserve">3.87942934036255</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -59020,7 +59020,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6496412037</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>42693</v>
@@ -59041,6 +59041,32 @@
         <v>824</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6496412037</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>7691</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>824</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -50,37 +50,37 @@
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397844314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52728843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.508225440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48153638839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003324508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053365707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341087341309</t>
+    <t xml:space="preserve">6.58829164505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397796630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52728891372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50822496414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48153686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003372192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44340991973877</t>
   </si>
   <si>
     <t xml:space="preserve">6.36715650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428119659424</t>
+    <t xml:space="preserve">6.35190582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428024291992</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090404510498</t>
+    <t xml:space="preserve">6.29090356826782</t>
   </si>
   <si>
     <t xml:space="preserve">6.30615377426147</t>
@@ -98,46 +98,46 @@
     <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16508531570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552000045776</t>
+    <t xml:space="preserve">6.18414926528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552095413208</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926706314087</t>
+    <t xml:space="preserve">6.03926658630371</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545522689819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87150955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950456619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92870044708252</t>
+    <t xml:space="preserve">5.87151050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92869997024536</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10026931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839721679688</t>
+    <t xml:space="preserve">6.10026979446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839673995972</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
@@ -149,31 +149,31 @@
     <t xml:space="preserve">6.23752593994141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990083694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40528345108032</t>
+    <t xml:space="preserve">6.22990131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
     <t xml:space="preserve">6.51966381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3976583480835</t>
+    <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19177484512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140445709229</t>
+    <t xml:space="preserve">6.19177436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140493392944</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565240859985</t>
+    <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">6.37859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06214332580566</t>
+    <t xml:space="preserve">6.06214284896851</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264421463013</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364789962769</t>
+    <t xml:space="preserve">6.15364742279053</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077163696289</t>
+    <t xml:space="preserve">6.13077211380005</t>
   </si>
   <si>
     <t xml:space="preserve">6.12314605712891</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883237838745</t>
+    <t xml:space="preserve">6.0850191116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401638031006</t>
+    <t xml:space="preserve">6.09645652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207712173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401685714722</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
@@ -245,46 +245,46 @@
     <t xml:space="preserve">6.26421451568604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19558572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772359848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24515199661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18033599853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31759166717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30996608734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377935409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465063095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460223197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16127300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24896383285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37478256225586</t>
+    <t xml:space="preserve">6.19558620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772455215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24515151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18033695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31759119033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30996656417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377983093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21465015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14602184295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25658941268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16127252578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24896430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
     <t xml:space="preserve">6.55778980255127</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">6.54635238647461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47391176223755</t>
+    <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4967885017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58066654205322</t>
+    <t xml:space="preserve">6.49678802490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
     <t xml:space="preserve">6.54253959655762</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">6.43959808349609</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39384651184082</t>
+    <t xml:space="preserve">6.39384603500366</t>
   </si>
   <si>
     <t xml:space="preserve">6.4357852935791</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44722318649292</t>
+    <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060081481934</t>
+    <t xml:space="preserve">6.50060033798218</t>
   </si>
   <si>
     <t xml:space="preserve">6.48534965515137</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
+    <t xml:space="preserve">6.55016565322876</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">6.58447933197021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66835737228394</t>
+    <t xml:space="preserve">6.66835784912109</t>
   </si>
   <si>
     <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872632980347</t>
+    <t xml:space="preserve">6.60354280471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
@@ -374,34 +374,34 @@
     <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591722488403</t>
+    <t xml:space="preserve">6.59591770172119</t>
   </si>
   <si>
     <t xml:space="preserve">6.63023090362549</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64166927337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68360805511475</t>
+    <t xml:space="preserve">6.64166879653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6836085319519</t>
   </si>
   <si>
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74842405319214</t>
+    <t xml:space="preserve">6.67598342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7484245300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.969557762146</t>
+    <t xml:space="preserve">6.92761945724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193361282349</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">7.05343723297119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300302505493</t>
+    <t xml:space="preserve">7.10300159454346</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">7.09156370162964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04581165313721</t>
+    <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387287139893</t>
+    <t xml:space="preserve">7.00768613815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387239456177</t>
   </si>
   <si>
     <t xml:space="preserve">6.9352445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98099613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143177032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293634414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16781711578369</t>
+    <t xml:space="preserve">6.98099660873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143224716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293539047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16781759262085</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
@@ -455,46 +455,46 @@
     <t xml:space="preserve">7.28219699859619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25169658660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032489776611</t>
+    <t xml:space="preserve">7.25169563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3203239440918</t>
   </si>
   <si>
     <t xml:space="preserve">7.39657688140869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51095724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45758056640625</t>
+    <t xml:space="preserve">7.51095771789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45757961273193</t>
   </si>
   <si>
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4347038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7015905380249</t>
+    <t xml:space="preserve">7.43470430374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533855438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335849761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285903930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961143493652</t>
+    <t xml:space="preserve">8.07523345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335945129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961238861084</t>
   </si>
   <si>
     <t xml:space="preserve">8.34212017059326</t>
@@ -506,190 +506,193 @@
     <t xml:space="preserve">8.38787078857422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22011470794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32686805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34974479675293</t>
+    <t xml:space="preserve">8.22011375427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32686901092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34974384307861</t>
   </si>
   <si>
     <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31161689758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68525791168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.746262550354</t>
+    <t xml:space="preserve">8.31161880493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74626064300537</t>
   </si>
   <si>
     <t xml:space="preserve">8.69288349151611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726432800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91401958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88351821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29528617858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
+    <t xml:space="preserve">8.80726528167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91402053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88351917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040588378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29528713226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2876615524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848394393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950769424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959463119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103870391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792636871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200828552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5077543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668613433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044422149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919296264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027025222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.095947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.126446723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286207199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4688835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85758972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.013072013855</t>
+    <t xml:space="preserve">9.85758876800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0130710601807</t>
   </si>
   <si>
     <t xml:space="preserve">10.0830392837524</t>
@@ -698,7 +701,7 @@
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484224319458</t>
+    <t xml:space="preserve">10.4484233856201</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
@@ -710,7 +713,7 @@
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561967849731</t>
+    <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
@@ -719,16 +722,16 @@
     <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.72829246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5650358200073</t>
+    <t xml:space="preserve">10.7282915115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.565034866333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -737,22 +740,22 @@
     <t xml:space="preserve">10.5106163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4639711380005</t>
+    <t xml:space="preserve">10.4639720916748</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4095525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3318099975586</t>
+    <t xml:space="preserve">10.409553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3318119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229738235474</t>
+    <t xml:space="preserve">10.2229719161987</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -767,16 +770,16 @@
     <t xml:space="preserve">10.1996507644653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3240356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3784551620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3395843505859</t>
+    <t xml:space="preserve">10.3240365982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084878921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3784561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3395862579346</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540702819824</t>
@@ -785,7 +788,7 @@
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696180343628</t>
+    <t xml:space="preserve">10.2696189880371</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
@@ -800,19 +803,19 @@
     <t xml:space="preserve">10.6505508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.55726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194543838501</t>
+    <t xml:space="preserve">10.5572605133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449039459229</t>
@@ -824,7 +827,7 @@
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993225097656</t>
+    <t xml:space="preserve">10.8993215560913</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
@@ -833,31 +836,31 @@
     <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7671632766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795188903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3629083633423</t>
+    <t xml:space="preserve">10.767162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795207977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.362907409668</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642780303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94310569763184</t>
+    <t xml:space="preserve">10.1219110488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642684936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94310474395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.04416847229</t>
+    <t xml:space="preserve">10.0441694259644</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
@@ -872,19 +875,19 @@
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141366958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530075073242</t>
+    <t xml:space="preserve">10.1141357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530065536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99752426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98975086212158</t>
+    <t xml:space="preserve">9.99752521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98974990844727</t>
   </si>
   <si>
     <t xml:space="preserve">10.0674915313721</t>
@@ -899,10 +902,10 @@
     <t xml:space="preserve">10.2462959289551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2307481765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.21519947052</t>
+    <t xml:space="preserve">10.2307472229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -914,55 +917,55 @@
     <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5932674407959</t>
+    <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
     <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17346572875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675605773926</t>
+    <t xml:space="preserve">9.17346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
     <t xml:space="preserve">9.22011089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18901443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.313401222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23566055297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20456409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06462860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4066915512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37559413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572601318359</t>
+    <t xml:space="preserve">9.18901538848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29785251617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31340217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2356595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32894992828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20456314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0646276473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40668964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3755931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572696685791</t>
   </si>
   <si>
     <t xml:space="preserve">9.00243473052979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95579147338867</t>
+    <t xml:space="preserve">8.95579051971436</t>
   </si>
   <si>
     <t xml:space="preserve">8.90914630889893</t>
@@ -971,7 +974,7 @@
     <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61373043060303</t>
+    <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
     <t xml:space="preserve">8.72256755828857</t>
@@ -983,16 +986,16 @@
     <t xml:space="preserve">8.47379493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55153560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62927913665771</t>
+    <t xml:space="preserve">8.55153656005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
     <t xml:space="preserve">8.56708431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69147109985352</t>
+    <t xml:space="preserve">8.6914701461792</t>
   </si>
   <si>
     <t xml:space="preserve">8.67592334747314</t>
@@ -1001,16 +1004,16 @@
     <t xml:space="preserve">8.58263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66037559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53598880767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42714977264404</t>
+    <t xml:space="preserve">8.52044010162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66037464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53598785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42715072631836</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
@@ -1025,37 +1028,37 @@
     <t xml:space="preserve">8.78476142883301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9402437210083</t>
+    <t xml:space="preserve">8.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97133922576904</t>
+    <t xml:space="preserve">8.97134017944336</t>
   </si>
   <si>
     <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01798343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03353214263916</t>
+    <t xml:space="preserve">9.01798439025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751216888428</t>
+    <t xml:space="preserve">9.36381149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1076,7 +1079,7 @@
     <t xml:space="preserve">9.39566135406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4912109375</t>
+    <t xml:space="preserve">9.49120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1091,34 +1094,34 @@
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61860942840576</t>
+    <t xml:space="preserve">9.61861038208008</t>
   </si>
   <si>
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008251190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60268497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01346492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7586669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089458465576</t>
+    <t xml:space="preserve">9.73008346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60268402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01346588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236766815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75866794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089363098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1157,10 +1160,10 @@
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40832042694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.4083194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,7 +1175,7 @@
     <t xml:space="preserve">8.3446216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167453765869</t>
+    <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1181,13 +1184,13 @@
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88279962539673</t>
+    <t xml:space="preserve">8.08982372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95446252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88280057907104</t>
   </si>
   <si>
     <t xml:space="preserve">8.04204845428467</t>
@@ -1199,31 +1202,31 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716369628906</t>
+    <t xml:space="preserve">9.07716464996338</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91791534423828</t>
+    <t xml:space="preserve">8.9179162979126</t>
   </si>
   <si>
     <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98161506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644130706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.535719871521</t>
+    <t xml:space="preserve">8.98161602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644226074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53571891784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606643676758</t>
+    <t xml:space="preserve">8.88606739044189</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1232,40 +1235,40 @@
     <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9497652053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99754047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421562194824</t>
+    <t xml:space="preserve">8.94976615905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9975414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421657562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349514007568</t>
+    <t xml:space="preserve">8.58349418640137</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74274349212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923072814941</t>
+    <t xml:space="preserve">8.64719486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1283,16 +1286,16 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24111080169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073402404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.081862449646</t>
+    <t xml:space="preserve">8.28092193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24110984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073307037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08186149597168</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -1319,7 +1322,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3677864074707</t>
+    <t xml:space="preserve">8.36778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119119644165</t>
+    <t xml:space="preserve">7.94119167327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993223190308</t>
+    <t xml:space="preserve">7.80993270874023</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1349,40 +1352,37 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.826340675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711725234985</t>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148824691772</t>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167263031006</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604457855225</t>
+    <t xml:space="preserve">8.05604362487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478513717651</t>
+    <t xml:space="preserve">7.92478466033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352521896362</t>
+    <t xml:space="preserve">8.02322864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59663677215576</t>
+    <t xml:space="preserve">7.5966362953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84274768829346</t>
+    <t xml:space="preserve">7.8427472114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819135665894</t>
+    <t xml:space="preserve">7.49819183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38333988189697</t>
+    <t xml:space="preserve">7.38334035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441398620605</t>
+    <t xml:space="preserve">7.10441446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363645553589</t>
+    <t xml:space="preserve">7.15363597869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196968078613</t>
+    <t xml:space="preserve">7.89196920394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31770992279053</t>
+    <t xml:space="preserve">7.31771039962769</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111661911011</t>
+    <t xml:space="preserve">6.89111709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8583025932312</t>
+    <t xml:space="preserve">6.85830211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996841430664</t>
+    <t xml:space="preserve">6.38248777389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996793746948</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756076812744</t>
+    <t xml:space="preserve">5.21756029129028</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833686828613</t>
+    <t xml:space="preserve">4.95504140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318929672241</t>
+    <t xml:space="preserve">5.28318881988525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037479400635</t>
+    <t xml:space="preserve">5.25037431716919</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426340103149</t>
+    <t xml:space="preserve">5.00426292419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
+    <t xml:space="preserve">4.85659646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281862258911</t>
+    <t xml:space="preserve">4.46281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718866348267</t>
+    <t xml:space="preserve">4.39718818664551</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496563911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83113360404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78190994262695</t>
+    <t xml:space="preserve">3.90496587753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8311333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78191018104553</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137384414673</t>
+    <t xml:space="preserve">3.92137360572815</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1346697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826276779175</t>
+    <t xml:space="preserve">4.13467025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826229095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748428344727</t>
+    <t xml:space="preserve">4.16748476028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20029973983765</t>
+    <t xml:space="preserve">4.18389225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2003002166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155870437622</t>
+    <t xml:space="preserve">4.23311471939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155822753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083583831787</t>
+    <t xml:space="preserve">4.06083631515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802228927612</t>
+    <t xml:space="preserve">4.02802181243896</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97059559822083</t>
+    <t xml:space="preserve">3.9705958366394</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394762992859</t>
+    <t xml:space="preserve">3.73268818855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
+    <t xml:space="preserve">3.74909591674805</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4455578327179</t>
+    <t xml:space="preserve">3.44555807113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28968739509583</t>
+    <t xml:space="preserve">3.2896876335144</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220699310303</t>
+    <t xml:space="preserve">3.55220723152161</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885496139526</t>
+    <t xml:space="preserve">3.65885519981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952220916748</t>
+    <t xml:space="preserve">4.24952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767009735107</t>
+    <t xml:space="preserve">4.57767057418823</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515216827393</t>
+    <t xml:space="preserve">4.31515169143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796619415283</t>
+    <t xml:space="preserve">4.34796667098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630037307739</t>
+    <t xml:space="preserve">5.23396730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630084991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989336013794</t>
+    <t xml:space="preserve">5.06989288330078</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
+    <t xml:space="preserve">4.64330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676213264465</t>
+    <t xml:space="preserve">3.89676189422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9623920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418810844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72729468345642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844608306885</t>
+    <t xml:space="preserve">3.96239185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418858528137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598412513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.727294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844584465027</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598793983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549654960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99352979660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303888320923</t>
+    <t xml:space="preserve">3.94598841667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549607276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99353003501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18369817733765</t>
+    <t xml:space="preserve">4.1836986541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2977991104126</t>
+    <t xml:space="preserve">4.29779863357544</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255981445312</t>
+    <t xml:space="preserve">4.59255933761597</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2217321395874</t>
+    <t xml:space="preserve">4.06008863449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22173166275024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23123979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468191146851</t>
+    <t xml:space="preserve">4.23124027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468143463135</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68926119804382</t>
+    <t xml:space="preserve">3.6892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942934036255</t>
+    <t xml:space="preserve">3.87942910194397</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -59046,7 +59046,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6496412037</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>7691</v>
@@ -59067,6 +59067,32 @@
         <v>824</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6496180556</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>25530</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>824</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029663085938</t>
+    <t xml:space="preserve">6.71029567718506</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61116743087769</t>
+    <t xml:space="preserve">6.61116695404053</t>
   </si>
   <si>
     <t xml:space="preserve">6.58829164505005</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728891372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822496414185</t>
+    <t xml:space="preserve">6.52728843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">6.39003372192383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42053413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44340991973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35190582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428024291992</t>
+    <t xml:space="preserve">6.42053461074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44341087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428071975708</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090356826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15746021270752</t>
+    <t xml:space="preserve">6.29090404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414926528931</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">6.16508483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11552095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99351453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03926658630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545522689819</t>
+    <t xml:space="preserve">6.11552047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99351501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03926706314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545475006104</t>
   </si>
   <si>
     <t xml:space="preserve">5.87151050567627</t>
@@ -131,28 +131,28 @@
     <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839673995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17652368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.283278465271</t>
+    <t xml:space="preserve">6.13839721679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17652416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28327894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1993989944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23752593994141</t>
+    <t xml:space="preserve">6.19939947128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23752689361572</t>
   </si>
   <si>
     <t xml:space="preserve">6.22990131378174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40528297424316</t>
+    <t xml:space="preserve">6.40528345108032</t>
   </si>
   <si>
     <t xml:space="preserve">6.51966381072998</t>
@@ -170,34 +170,34 @@
     <t xml:space="preserve">6.32140493392944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38240718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27565288543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33665561676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35953140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37096977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859487533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214284896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264421463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08120727539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15364742279053</t>
+    <t xml:space="preserve">6.38240814208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27565240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33665609359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35953187942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37096929550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08120679855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15364789962769</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
@@ -206,28 +206,28 @@
     <t xml:space="preserve">6.13077211380005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12314605712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90963697433472</t>
+    <t xml:space="preserve">6.12314653396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9096360206604</t>
   </si>
   <si>
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0850191116333</t>
+    <t xml:space="preserve">6.08501958847046</t>
   </si>
   <si>
     <t xml:space="preserve">6.08883190155029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1078953742981</t>
+    <t xml:space="preserve">6.10789585113525</t>
   </si>
   <si>
     <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645652770996</t>
+    <t xml:space="preserve">6.09645700454712</t>
   </si>
   <si>
     <t xml:space="preserve">5.98207712173462</t>
@@ -245,22 +245,22 @@
     <t xml:space="preserve">6.26421451568604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19558620452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184057235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24515151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18033695220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31759119033813</t>
+    <t xml:space="preserve">6.19558572769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27183961868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24515199661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18033647537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
     <t xml:space="preserve">6.30996656417847</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14602184295654</t>
+    <t xml:space="preserve">6.1460223197937</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24896430969238</t>
+    <t xml:space="preserve">6.24896335601807</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
@@ -293,22 +293,22 @@
     <t xml:space="preserve">6.53491449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678802490234</t>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4967885017395</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54253959655762</t>
+    <t xml:space="preserve">6.54254007339478</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">6.43959808349609</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39384603500366</t>
+    <t xml:space="preserve">6.39384651184082</t>
   </si>
   <si>
     <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42816019058228</t>
+    <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866012573242</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060033798218</t>
+    <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
     <t xml:space="preserve">6.48534965515137</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55016565322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46628618240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58447933197021</t>
+    <t xml:space="preserve">6.5501651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46628665924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58447885513306</t>
   </si>
   <si>
     <t xml:space="preserve">6.66835784912109</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354280471802</t>
+    <t xml:space="preserve">6.60354232788086</t>
   </si>
   <si>
     <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247339248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5311017036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63023090362549</t>
+    <t xml:space="preserve">6.46247386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53110122680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591722488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63023042678833</t>
   </si>
   <si>
     <t xml:space="preserve">6.64166879653931</t>
@@ -398,43 +398,43 @@
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96955823898315</t>
+    <t xml:space="preserve">6.92761898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.969557762146</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193361282349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300159454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11443996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581212997437</t>
+    <t xml:space="preserve">7.05343675613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11444044113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0915641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581165313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768613815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387239456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9352445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099660873413</t>
+    <t xml:space="preserve">7.00768518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387287139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93524503707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
     <t xml:space="preserve">6.93143224716187</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">7.15637874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28219699859619</t>
+    <t xml:space="preserve">7.28219747543335</t>
   </si>
   <si>
     <t xml:space="preserve">7.25169563293457</t>
@@ -464,31 +464,31 @@
     <t xml:space="preserve">7.39657688140869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51095771789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45757961273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41564083099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43470430374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533855438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159101486206</t>
+    <t xml:space="preserve">7.51095724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45758008956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41564130783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4347038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533807754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159196853638</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335945129395</t>
+    <t xml:space="preserve">8.07523155212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
     <t xml:space="preserve">8.08285808563232</t>
@@ -503,70 +503,70 @@
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38787078857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011375427246</t>
+    <t xml:space="preserve">8.38787174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974384307861</t>
+    <t xml:space="preserve">8.34974479675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31161880493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68525981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74626064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69288349151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80726528167725</t>
+    <t xml:space="preserve">8.31161785125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68525886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.746262550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69288444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80726432800293</t>
   </si>
   <si>
     <t xml:space="preserve">8.91402053833008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351917266846</t>
+    <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.92164611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040588378906</t>
+    <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2876615524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491817474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72230625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605236053467</t>
+    <t xml:space="preserve">9.28766250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605331420898</t>
   </si>
   <si>
     <t xml:space="preserve">9.77568340301514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27241134643555</t>
+    <t xml:space="preserve">9.27241230010986</t>
   </si>
   <si>
     <t xml:space="preserve">9.37916469573975</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">9.83668518066406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76043224334717</t>
+    <t xml:space="preserve">9.76043128967285</t>
   </si>
   <si>
     <t xml:space="preserve">9.56979942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67655467987061</t>
+    <t xml:space="preserve">9.67655277252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.79093360900879</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">9.90531349182129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2179536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
+    <t xml:space="preserve">10.2179527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.561092376709</t>
   </si>
   <si>
     <t xml:space="preserve">10.4848394393921</t>
@@ -617,22 +617,22 @@
     <t xml:space="preserve">10.0654458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919296264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027025222778</t>
+    <t xml:space="preserve">10.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027015686035</t>
   </si>
   <si>
     <t xml:space="preserve">10.1188230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950769424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730724334717</t>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
     <t xml:space="preserve">10.0959463119507</t>
@@ -653,16 +653,16 @@
     <t xml:space="preserve">9.50117015838623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34103870391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792636871338</t>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792446136475</t>
   </si>
   <si>
     <t xml:space="preserve">9.95865249633789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0597171783447</t>
+    <t xml:space="preserve">10.0597162246704</t>
   </si>
   <si>
     <t xml:space="preserve">10.0286197662354</t>
@@ -677,31 +677,28 @@
     <t xml:space="preserve">9.5077543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4688835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443126678467</t>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
   </si>
   <si>
     <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56217288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85758876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0130710601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0830392837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5728092193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4484233856201</t>
+    <t xml:space="preserve">9.85758972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.013072013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0830402374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5728101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4484224319458</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
@@ -713,7 +710,7 @@
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561977386475</t>
+    <t xml:space="preserve">10.4561967849731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
@@ -722,52 +719,52 @@
     <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5028429031372</t>
+    <t xml:space="preserve">10.5028419494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7282915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.72829246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5106163024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406490325928</t>
+    <t xml:space="preserve">10.5106153488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4639701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406480789185</t>
   </si>
   <si>
     <t xml:space="preserve">10.409553527832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3318119049072</t>
+    <t xml:space="preserve">10.3318109512329</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229719161987</t>
+    <t xml:space="preserve">10.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4717445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.184103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1996507644653</t>
+    <t xml:space="preserve">10.4717435836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1841039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1996517181396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3240365982056</t>
@@ -776,46 +773,46 @@
     <t xml:space="preserve">10.3084878921509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3784561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3395862579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2540702819824</t>
+    <t xml:space="preserve">10.3784551620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3395853042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2540712356567</t>
   </si>
   <si>
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696189880371</t>
+    <t xml:space="preserve">10.2696180343628</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3473587036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894197463989</t>
+    <t xml:space="preserve">10.3473596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505498886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894207000732</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5572605133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116800308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194534301758</t>
+    <t xml:space="preserve">10.55726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449039459229</t>
@@ -827,7 +824,7 @@
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993215560913</t>
+    <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
@@ -839,7 +836,7 @@
     <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795207977295</t>
+    <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
     <t xml:space="preserve">10.362907409668</t>
@@ -848,13 +845,13 @@
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219110488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94310474395752</t>
+    <t xml:space="preserve">10.1219100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94310569763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -869,22 +866,22 @@
     <t xml:space="preserve">10.1918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3551340103149</t>
+    <t xml:space="preserve">10.3551330566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141357421875</t>
+    <t xml:space="preserve">10.1141366958618</t>
   </si>
   <si>
     <t xml:space="preserve">10.1530065536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1607799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752521514893</t>
+    <t xml:space="preserve">10.1607809066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
     <t xml:space="preserve">9.98974990844727</t>
@@ -893,19 +890,19 @@
     <t xml:space="preserve">10.0674915313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462959289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2307472229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2151985168457</t>
+    <t xml:space="preserve">10.2462968826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307481765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.21519947052</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -914,10 +911,10 @@
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59326839447021</t>
+    <t xml:space="preserve">9.62436676025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5932674407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.43778705596924</t>
@@ -941,28 +938,28 @@
     <t xml:space="preserve">9.31340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2356595993042</t>
+    <t xml:space="preserve">9.23566055297852</t>
   </si>
   <si>
     <t xml:space="preserve">9.32894992828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20456314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0646276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40668964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3755931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572696685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00243473052979</t>
+    <t xml:space="preserve">9.20456409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06462860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40669059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37559413909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572601318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0024356842041</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579051971436</t>
@@ -977,7 +974,7 @@
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256755828857</t>
+    <t xml:space="preserve">8.72256851196289</t>
   </si>
   <si>
     <t xml:space="preserve">8.86250114440918</t>
@@ -992,7 +989,7 @@
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708431243896</t>
+    <t xml:space="preserve">8.56708526611328</t>
   </si>
   <si>
     <t xml:space="preserve">8.6914701461792</t>
@@ -1001,10 +998,10 @@
     <t xml:space="preserve">8.67592334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58263301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52044010162354</t>
+    <t xml:space="preserve">8.58263397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52044105529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
@@ -1019,13 +1016,13 @@
     <t xml:space="preserve">8.70701885223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59818077087402</t>
+    <t xml:space="preserve">8.59818172454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476142883301</t>
+    <t xml:space="preserve">8.78476047515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.94024276733398</t>
@@ -1034,31 +1031,31 @@
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97134017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98688793182373</t>
+    <t xml:space="preserve">8.97133922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98688697814941</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03353309631348</t>
+    <t xml:space="preserve">9.03353214263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
+    <t xml:space="preserve">9.36381244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751216888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1079,7 +1076,7 @@
     <t xml:space="preserve">9.39566135406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1094,34 +1091,34 @@
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61861038208008</t>
+    <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600887298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60268402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01346588134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236766815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75866794586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089363098145</t>
+    <t xml:space="preserve">9.73008251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600791931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60268497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01346492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7586669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1160,10 +1157,10 @@
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4083194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7268180847168</t>
+    <t xml:space="preserve">8.40832042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72681903839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1175,7 +1172,7 @@
     <t xml:space="preserve">8.3446216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167358398438</t>
+    <t xml:space="preserve">8.12167453765869</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1184,13 +1181,13 @@
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95446252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88280057907104</t>
+    <t xml:space="preserve">8.08982276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95446300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88279962539673</t>
   </si>
   <si>
     <t xml:space="preserve">8.04204845428467</t>
@@ -1202,31 +1199,31 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716464996338</t>
+    <t xml:space="preserve">9.07716369628906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9179162979126</t>
+    <t xml:space="preserve">8.91791534423828</t>
   </si>
   <si>
     <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98161602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53571891784668</t>
+    <t xml:space="preserve">8.98161506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644130706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.535719871521</t>
   </si>
   <si>
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606739044189</t>
+    <t xml:space="preserve">8.88606643676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1235,40 +1232,40 @@
     <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94976615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9975414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99754047393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349418640137</t>
+    <t xml:space="preserve">8.58349514007568</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
+    <t xml:space="preserve">8.64719390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74274349212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1286,16 +1283,16 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24110984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08186149597168</t>
+    <t xml:space="preserve">8.28092288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24111080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073402404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.081862449646</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -1322,7 +1319,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36778545379639</t>
+    <t xml:space="preserve">8.3677864074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1331,7 +1328,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119167327881</t>
+    <t xml:space="preserve">7.94119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1340,7 +1337,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993270874023</t>
+    <t xml:space="preserve">7.80993223190308</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1352,37 +1349,40 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82634115219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711772918701</t>
+    <t xml:space="preserve">7.90837717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.826340675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711725234985</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148872375488</t>
+    <t xml:space="preserve">7.66226720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148824691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
+    <t xml:space="preserve">8.12167263031006</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604362487793</t>
+    <t xml:space="preserve">8.05604457855225</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478466033936</t>
+    <t xml:space="preserve">7.92478513717651</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352474212646</t>
+    <t xml:space="preserve">8.02322959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352521896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5966362953186</t>
+    <t xml:space="preserve">7.59663677215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8427472114563</t>
+    <t xml:space="preserve">7.84274768829346</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819183349609</t>
+    <t xml:space="preserve">7.49819135665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334035873413</t>
+    <t xml:space="preserve">7.38333988189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441446304321</t>
+    <t xml:space="preserve">7.10441398620605</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363597869873</t>
+    <t xml:space="preserve">7.15363645553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196920394897</t>
+    <t xml:space="preserve">7.89196968078613</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31771039962769</t>
+    <t xml:space="preserve">7.31770992279053</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111709594727</t>
+    <t xml:space="preserve">6.89111661911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85830211639404</t>
+    <t xml:space="preserve">6.8583025932312</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248777389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996793746948</t>
+    <t xml:space="preserve">6.38248729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996841430664</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756029129028</t>
+    <t xml:space="preserve">5.21756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833734512329</t>
+    <t xml:space="preserve">4.95504093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833686828613</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318881988525</t>
+    <t xml:space="preserve">5.28318929672241</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037431716919</t>
+    <t xml:space="preserve">5.25037479400635</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426292419434</t>
+    <t xml:space="preserve">5.00426340103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067089080811</t>
+    <t xml:space="preserve">4.85659694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067041397095</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281814575195</t>
+    <t xml:space="preserve">4.46281862258911</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718818664551</t>
+    <t xml:space="preserve">4.39718866348267</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496587753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8311333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78191018104553</t>
+    <t xml:space="preserve">3.90496563911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83113360404968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137360572815</t>
+    <t xml:space="preserve">3.92137384414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13467025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826229095459</t>
+    <t xml:space="preserve">4.1346697807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826276779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748476028442</t>
+    <t xml:space="preserve">4.16748428344727</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2003002166748</t>
+    <t xml:space="preserve">4.18389272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20029973983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311471939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155822753906</t>
+    <t xml:space="preserve">4.23311424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155870437622</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083631515503</t>
+    <t xml:space="preserve">4.06083583831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802181243896</t>
+    <t xml:space="preserve">4.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9705958366394</t>
+    <t xml:space="preserve">3.97059559822083</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268818855286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394739151001</t>
+    <t xml:space="preserve">3.73268795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394762992859</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909591674805</t>
+    <t xml:space="preserve">3.74909567832947</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44555807113647</t>
+    <t xml:space="preserve">3.4455578327179</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2896876335144</t>
+    <t xml:space="preserve">3.28968739509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220723152161</t>
+    <t xml:space="preserve">3.55220699310303</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885519981384</t>
+    <t xml:space="preserve">3.65885496139526</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952173233032</t>
+    <t xml:space="preserve">4.24952220916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767057418823</t>
+    <t xml:space="preserve">4.57767009735107</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515169143677</t>
+    <t xml:space="preserve">4.31515216827393</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796667098999</t>
+    <t xml:space="preserve">4.34796619415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396730422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630084991455</t>
+    <t xml:space="preserve">5.23396682739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989288330078</t>
+    <t xml:space="preserve">5.06989336013794</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574388504028</t>
+    <t xml:space="preserve">4.64330005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8557436466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676189422607</t>
+    <t xml:space="preserve">3.89676213264465</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418858528137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598412513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.727294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844584465027</t>
+    <t xml:space="preserve">3.9623920917511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418810844421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72729468345642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844608306885</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598841667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549607276917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99353003501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303840637207</t>
+    <t xml:space="preserve">3.94598793983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549654960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99352979660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303888320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1836986541748</t>
+    <t xml:space="preserve">4.18369817733765</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29779863357544</t>
+    <t xml:space="preserve">4.2977991104126</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255933761597</t>
+    <t xml:space="preserve">4.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008863449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22173166275024</t>
+    <t xml:space="preserve">4.06008911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2217321395874</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23124027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468143463135</t>
+    <t xml:space="preserve">4.23123979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468191146851</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6892614364624</t>
+    <t xml:space="preserve">3.68926119804382</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942910194397</t>
+    <t xml:space="preserve">3.87942934036255</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -59072,7 +59072,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6496180556</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>25530</v>
@@ -59093,6 +59093,32 @@
         <v>824</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6494212963</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>10123</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029567718506</t>
+    <t xml:space="preserve">6.71029615402222</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61116695404053</t>
+    <t xml:space="preserve">6.61116790771484</t>
   </si>
   <si>
     <t xml:space="preserve">6.58829164505005</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728843688965</t>
+    <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
     <t xml:space="preserve">6.508225440979</t>
@@ -65,25 +65,25 @@
     <t xml:space="preserve">6.48153686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053461074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341087341309</t>
+    <t xml:space="preserve">6.39003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053365707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44340991973877</t>
   </si>
   <si>
     <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428071975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36334419250488</t>
+    <t xml:space="preserve">6.35190582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36334466934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.32903051376343</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">6.29090404510498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30615425109863</t>
+    <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414926528931</t>
+    <t xml:space="preserve">6.18414878845215</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508483886719</t>
@@ -110,67 +110,67 @@
     <t xml:space="preserve">5.99351501464844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926706314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92869997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10026979446411</t>
+    <t xml:space="preserve">6.03926753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545570373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87151002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92870044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10027027130127</t>
   </si>
   <si>
     <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.17652320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19939947128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23752689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22990131378174</t>
+    <t xml:space="preserve">6.1993989944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23752641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22990083694458</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528345108032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
+    <t xml:space="preserve">6.51966333389282</t>
   </si>
   <si>
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.279465675354</t>
+    <t xml:space="preserve">6.27946519851685</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32140493392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38240814208984</t>
+    <t xml:space="preserve">6.3214054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38240766525269</t>
   </si>
   <si>
     <t xml:space="preserve">6.27565240859985</t>
@@ -179,46 +179,46 @@
     <t xml:space="preserve">6.33665609359741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953187942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37096929550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859439849854</t>
+    <t xml:space="preserve">6.35953140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37096977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859487533569</t>
   </si>
   <si>
     <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09264373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08120679855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15364789962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933326721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13077211380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12314653396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9096360206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1040825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08501958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883190155029</t>
+    <t xml:space="preserve">6.09264469146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08120727539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15364646911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933279037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13077116012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12314558029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90963649749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10408306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883285522461</t>
   </si>
   <si>
     <t xml:space="preserve">6.10789585113525</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207712173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401685714722</t>
+    <t xml:space="preserve">6.09645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401733398438</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">6.19558572769165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27183961868286</t>
+    <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772407531738</t>
@@ -257,70 +257,70 @@
     <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.18033599853516</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996656417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460223197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25658941268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16127252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24896335601807</t>
+    <t xml:space="preserve">6.30996608734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21464967727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14602136611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1612720489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55778980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635286331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391176223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
+    <t xml:space="preserve">6.55779027938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404417037964</t>
   </si>
   <si>
     <t xml:space="preserve">6.4967885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58066606521606</t>
+    <t xml:space="preserve">6.58066654205322</t>
   </si>
   <si>
     <t xml:space="preserve">6.54254007339478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.512038230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384651184082</t>
+    <t xml:space="preserve">6.51203775405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384603500366</t>
   </si>
   <si>
     <t xml:space="preserve">6.4357852935791</t>
@@ -329,85 +329,85 @@
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866012573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44722270965576</t>
+    <t xml:space="preserve">6.45866060256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060081481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48534965515137</t>
+    <t xml:space="preserve">6.50060129165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48534917831421</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
+    <t xml:space="preserve">6.55016565322876</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628665924072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66835784912109</t>
+    <t xml:space="preserve">6.58447933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66835737228394</t>
   </si>
   <si>
     <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354232788086</t>
+    <t xml:space="preserve">6.60354328155518</t>
   </si>
   <si>
     <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53110122680664</t>
+    <t xml:space="preserve">6.46247339248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63023042678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64166879653931</t>
+    <t xml:space="preserve">6.63023138046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64166975021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69885921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67598342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7484245300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76367378234863</t>
+    <t xml:space="preserve">6.69885873794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67598295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74842405319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76367425918579</t>
   </si>
   <si>
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.969557762146</t>
+    <t xml:space="preserve">6.96955871582031</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193361282349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343675613403</t>
+    <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
     <t xml:space="preserve">7.10300254821777</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">7.11444044113159</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0915641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581165313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93905735015869</t>
+    <t xml:space="preserve">7.09156370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581212997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93905687332153</t>
   </si>
   <si>
     <t xml:space="preserve">7.00768518447876</t>
@@ -431,25 +431,25 @@
     <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93524503707886</t>
+    <t xml:space="preserve">6.9352445602417</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143224716187</t>
+    <t xml:space="preserve">6.93143177032471</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16781759262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14875364303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15637874603271</t>
+    <t xml:space="preserve">7.16781806945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14875411987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15637969970703</t>
   </si>
   <si>
     <t xml:space="preserve">7.28219747543335</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">7.51095724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45758008956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41564130783081</t>
+    <t xml:space="preserve">7.45757961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
     <t xml:space="preserve">7.4347038269043</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">7.62533807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70159196853638</t>
+    <t xml:space="preserve">7.7015905380249</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523155212402</t>
+    <t xml:space="preserve">8.07523345947266</t>
   </si>
   <si>
     <t xml:space="preserve">8.11335849761963</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23536491394043</t>
+    <t xml:space="preserve">8.23536396026611</t>
   </si>
   <si>
     <t xml:space="preserve">8.38787174224854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22011470794678</t>
+    <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974479675293</t>
+    <t xml:space="preserve">8.34974670410156</t>
   </si>
   <si>
     <t xml:space="preserve">8.37262058258057</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.746262550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69288444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80726432800293</t>
+    <t xml:space="preserve">8.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74626159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69288539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80726528167725</t>
   </si>
   <si>
     <t xml:space="preserve">8.91402053833008</t>
@@ -542,160 +542,163 @@
     <t xml:space="preserve">8.92164611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29528713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
+    <t xml:space="preserve">9.15040588378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29528617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2876615524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81381034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560796737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959463119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.126446723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.059718132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50775337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439949035645</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.561092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0959463119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597162246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.013072013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0830402374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5728101730347</t>
+    <t xml:space="preserve">10.0130710601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0830392837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
     <t xml:space="preserve">10.4484224319458</t>
@@ -710,10 +713,10 @@
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561967849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5183906555176</t>
+    <t xml:space="preserve">10.4561977386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5183897018433</t>
   </si>
   <si>
     <t xml:space="preserve">10.4950675964355</t>
@@ -722,10 +725,10 @@
     <t xml:space="preserve">10.5028419494629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4328746795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.72829246521</t>
+    <t xml:space="preserve">10.4328737258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7282915115356</t>
   </si>
   <si>
     <t xml:space="preserve">10.5650358200073</t>
@@ -734,40 +737,40 @@
     <t xml:space="preserve">10.5261640548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5106153488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406480789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.409553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3318109512329</t>
+    <t xml:space="preserve">10.5106163024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4639711380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406490325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4095525741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3318119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229738235474</t>
+    <t xml:space="preserve">10.2229719161987</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4717435836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1841039657593</t>
+    <t xml:space="preserve">10.4717445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
     <t xml:space="preserve">10.1996517181396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3240365982056</t>
+    <t xml:space="preserve">10.3240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084878921509</t>
@@ -779,43 +782,43 @@
     <t xml:space="preserve">10.3395853042603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2540712356567</t>
+    <t xml:space="preserve">10.2540702819824</t>
   </si>
   <si>
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696180343628</t>
+    <t xml:space="preserve">10.2696189880371</t>
   </si>
   <si>
     <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3473596572876</t>
+    <t xml:space="preserve">10.3473587036133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6350021362305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6505498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6505508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.55726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194543838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449039459229</t>
+    <t xml:space="preserve">10.5572605133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194534301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449029922485</t>
   </si>
   <si>
     <t xml:space="preserve">10.8604516983032</t>
@@ -824,13 +827,13 @@
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993225097656</t>
+    <t xml:space="preserve">10.8993215560913</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049694061279</t>
+    <t xml:space="preserve">10.7049684524536</t>
   </si>
   <si>
     <t xml:space="preserve">10.767162322998</t>
@@ -851,7 +854,7 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94310569763184</t>
+    <t xml:space="preserve">9.94310474395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -860,31 +863,31 @@
     <t xml:space="preserve">10.0441694259644</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1374588012695</t>
+    <t xml:space="preserve">10.1374578475952</t>
   </si>
   <si>
     <t xml:space="preserve">10.1918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3551330566406</t>
+    <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141366958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530065536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607809066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98974990844727</t>
+    <t xml:space="preserve">10.1141357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98975086212158</t>
   </si>
   <si>
     <t xml:space="preserve">10.0674915313721</t>
@@ -893,19 +896,19 @@
     <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1685543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2462968826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2307481765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.21519947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90423393249512</t>
+    <t xml:space="preserve">10.168553352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2462959289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307472229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2151985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90423488616943</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
@@ -914,10 +917,10 @@
     <t xml:space="preserve">9.62436676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5932674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43778705596924</t>
+    <t xml:space="preserve">9.59326934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43778610229492</t>
   </si>
   <si>
     <t xml:space="preserve">9.17346668243408</t>
@@ -938,28 +941,28 @@
     <t xml:space="preserve">9.31340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23566055297852</t>
+    <t xml:space="preserve">9.2356595993042</t>
   </si>
   <si>
     <t xml:space="preserve">9.32894992828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20456409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06462860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40669059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37559413909912</t>
+    <t xml:space="preserve">9.20456314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0646276473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40668964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3755931854248</t>
   </si>
   <si>
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0024356842041</t>
+    <t xml:space="preserve">9.00243473052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579051971436</t>
@@ -971,13 +974,13 @@
     <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61372947692871</t>
+    <t xml:space="preserve">8.61373043060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.72256851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86250114440918</t>
+    <t xml:space="preserve">8.8625020980835</t>
   </si>
   <si>
     <t xml:space="preserve">8.47379493713379</t>
@@ -1001,7 +1004,7 @@
     <t xml:space="preserve">8.58263397216797</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044105529785</t>
+    <t xml:space="preserve">8.52044010162354</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
@@ -1013,7 +1016,7 @@
     <t xml:space="preserve">8.42715072631836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70701885223389</t>
+    <t xml:space="preserve">8.7070198059082</t>
   </si>
   <si>
     <t xml:space="preserve">8.59818172454834</t>
@@ -1022,7 +1025,7 @@
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476047515869</t>
+    <t xml:space="preserve">8.78476142883301</t>
   </si>
   <si>
     <t xml:space="preserve">8.94024276733398</t>
@@ -1040,22 +1043,22 @@
     <t xml:space="preserve">9.01798439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03353214263916</t>
+    <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751216888428</t>
+    <t xml:space="preserve">9.36381149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1076,7 +1079,7 @@
     <t xml:space="preserve">9.39566135406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4912109375</t>
+    <t xml:space="preserve">9.49120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1091,34 +1094,34 @@
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61860942840576</t>
+    <t xml:space="preserve">9.61861038208008</t>
   </si>
   <si>
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008251190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60268497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01346492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7586669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089458465576</t>
+    <t xml:space="preserve">9.73008346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60268402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01346588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236766815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75866794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089363098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1157,10 +1160,10 @@
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40832042694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.4083194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,7 +1175,7 @@
     <t xml:space="preserve">8.3446216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167453765869</t>
+    <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1181,13 +1184,13 @@
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88279962539673</t>
+    <t xml:space="preserve">8.08982372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95446252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88280057907104</t>
   </si>
   <si>
     <t xml:space="preserve">8.04204845428467</t>
@@ -1199,31 +1202,31 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716369628906</t>
+    <t xml:space="preserve">9.07716464996338</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91791534423828</t>
+    <t xml:space="preserve">8.9179162979126</t>
   </si>
   <si>
     <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98161506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644130706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.535719871521</t>
+    <t xml:space="preserve">8.98161602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644226074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53571891784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606643676758</t>
+    <t xml:space="preserve">8.88606739044189</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1232,40 +1235,40 @@
     <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9497652053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99754047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421562194824</t>
+    <t xml:space="preserve">8.94976615905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9975414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421657562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349514007568</t>
+    <t xml:space="preserve">8.58349418640137</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74274349212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923072814941</t>
+    <t xml:space="preserve">8.64719486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1283,16 +1286,16 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24111080169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073402404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.081862449646</t>
+    <t xml:space="preserve">8.28092193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24110984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073307037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08186149597168</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -1319,7 +1322,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3677864074707</t>
+    <t xml:space="preserve">8.36778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119119644165</t>
+    <t xml:space="preserve">7.94119167327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993223190308</t>
+    <t xml:space="preserve">7.80993270874023</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1349,40 +1352,37 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.826340675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711725234985</t>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148824691772</t>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167263031006</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604457855225</t>
+    <t xml:space="preserve">8.05604362487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478513717651</t>
+    <t xml:space="preserve">7.92478466033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352521896362</t>
+    <t xml:space="preserve">8.02322864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59663677215576</t>
+    <t xml:space="preserve">7.5966362953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84274768829346</t>
+    <t xml:space="preserve">7.8427472114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819135665894</t>
+    <t xml:space="preserve">7.49819183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38333988189697</t>
+    <t xml:space="preserve">7.38334035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441398620605</t>
+    <t xml:space="preserve">7.10441446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363645553589</t>
+    <t xml:space="preserve">7.15363597869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196968078613</t>
+    <t xml:space="preserve">7.89196920394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31770992279053</t>
+    <t xml:space="preserve">7.31771039962769</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111661911011</t>
+    <t xml:space="preserve">6.89111709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8583025932312</t>
+    <t xml:space="preserve">6.85830211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996841430664</t>
+    <t xml:space="preserve">6.38248777389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996793746948</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756076812744</t>
+    <t xml:space="preserve">5.21756029129028</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833686828613</t>
+    <t xml:space="preserve">4.95504140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318929672241</t>
+    <t xml:space="preserve">5.28318881988525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037479400635</t>
+    <t xml:space="preserve">5.25037431716919</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426340103149</t>
+    <t xml:space="preserve">5.00426292419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
+    <t xml:space="preserve">4.85659646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281862258911</t>
+    <t xml:space="preserve">4.46281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718866348267</t>
+    <t xml:space="preserve">4.39718818664551</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496563911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83113360404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78190994262695</t>
+    <t xml:space="preserve">3.90496587753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8311333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78191018104553</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137384414673</t>
+    <t xml:space="preserve">3.92137360572815</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1346697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826276779175</t>
+    <t xml:space="preserve">4.13467025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826229095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748428344727</t>
+    <t xml:space="preserve">4.16748476028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20029973983765</t>
+    <t xml:space="preserve">4.18389225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2003002166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155870437622</t>
+    <t xml:space="preserve">4.23311471939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155822753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083583831787</t>
+    <t xml:space="preserve">4.06083631515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802228927612</t>
+    <t xml:space="preserve">4.02802181243896</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97059559822083</t>
+    <t xml:space="preserve">3.9705958366394</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394762992859</t>
+    <t xml:space="preserve">3.73268818855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
+    <t xml:space="preserve">3.74909591674805</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4455578327179</t>
+    <t xml:space="preserve">3.44555807113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28968739509583</t>
+    <t xml:space="preserve">3.2896876335144</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220699310303</t>
+    <t xml:space="preserve">3.55220723152161</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885496139526</t>
+    <t xml:space="preserve">3.65885519981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952220916748</t>
+    <t xml:space="preserve">4.24952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767009735107</t>
+    <t xml:space="preserve">4.57767057418823</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515216827393</t>
+    <t xml:space="preserve">4.31515169143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796619415283</t>
+    <t xml:space="preserve">4.34796667098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630037307739</t>
+    <t xml:space="preserve">5.23396730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630084991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989336013794</t>
+    <t xml:space="preserve">5.06989288330078</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
+    <t xml:space="preserve">4.64330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676213264465</t>
+    <t xml:space="preserve">3.89676189422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9623920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418810844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72729468345642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844608306885</t>
+    <t xml:space="preserve">3.96239185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418858528137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598412513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.727294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844584465027</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598793983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549654960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99352979660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303888320923</t>
+    <t xml:space="preserve">3.94598841667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549607276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99353003501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18369817733765</t>
+    <t xml:space="preserve">4.1836986541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2977991104126</t>
+    <t xml:space="preserve">4.29779863357544</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255981445312</t>
+    <t xml:space="preserve">4.59255933761597</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2217321395874</t>
+    <t xml:space="preserve">4.06008863449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22173166275024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23123979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468191146851</t>
+    <t xml:space="preserve">4.23124027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468143463135</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68926119804382</t>
+    <t xml:space="preserve">3.6892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942934036255</t>
+    <t xml:space="preserve">3.87942910194397</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -59098,7 +59098,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6494212963</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>10123</v>
@@ -59119,6 +59119,32 @@
         <v>826</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6496412037</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>824</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029615402222</t>
+    <t xml:space="preserve">6.71029663085938</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">6.67217016220093</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61116743087769</t>
+    <t xml:space="preserve">6.61116695404053</t>
   </si>
   <si>
     <t xml:space="preserve">6.58829164505005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55397796630859</t>
+    <t xml:space="preserve">6.55397844314575</t>
   </si>
   <si>
     <t xml:space="preserve">6.52728891372681</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">6.48153734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053413391113</t>
+    <t xml:space="preserve">6.39003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053365707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.44341039657593</t>
@@ -83,22 +83,22 @@
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334419250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32902956008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090356826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615329742432</t>
+    <t xml:space="preserve">6.36334371566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32903003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615425109863</t>
   </si>
   <si>
     <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414878845215</t>
+    <t xml:space="preserve">6.18414831161499</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508531570435</t>
@@ -110,31 +110,31 @@
     <t xml:space="preserve">5.99351453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926658630371</t>
+    <t xml:space="preserve">6.03926706314087</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545522689819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87151002883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92870044708252</t>
+    <t xml:space="preserve">5.87151050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92870092391968</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10026931762695</t>
+    <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
     <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17652320861816</t>
+    <t xml:space="preserve">6.17652368545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.283278465271</t>
@@ -143,37 +143,37 @@
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19939851760864</t>
+    <t xml:space="preserve">6.1993989944458</t>
   </si>
   <si>
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990083694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40528297424316</t>
+    <t xml:space="preserve">6.22990131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40528345108032</t>
   </si>
   <si>
     <t xml:space="preserve">6.51966333389282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3976583480835</t>
+    <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19177436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140493392944</t>
+    <t xml:space="preserve">6.19177389144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240766525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565288543701</t>
+    <t xml:space="preserve">6.27565240859985</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">6.37096929550171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859487533569</t>
+    <t xml:space="preserve">6.37859439849854</t>
   </si>
   <si>
     <t xml:space="preserve">6.06214284896851</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">6.09264421463013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08120727539062</t>
+    <t xml:space="preserve">6.08120679855347</t>
   </si>
   <si>
     <t xml:space="preserve">6.15364742279053</t>
@@ -203,28 +203,28 @@
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077211380005</t>
+    <t xml:space="preserve">6.13077163696289</t>
   </si>
   <si>
     <t xml:space="preserve">6.12314605712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90963649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1040825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920085906982</t>
+    <t xml:space="preserve">5.90963554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10408306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10789585113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920038223267</t>
   </si>
   <si>
     <t xml:space="preserve">6.09645652770996</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">6.07739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26421403884888</t>
+    <t xml:space="preserve">6.02782964706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26421451568604</t>
   </si>
   <si>
     <t xml:space="preserve">6.19558668136597</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">6.27184057235718</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47772407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24515199661255</t>
+    <t xml:space="preserve">6.47772455215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24515247344971</t>
   </si>
   <si>
     <t xml:space="preserve">6.18033647537231</t>
@@ -266,19 +266,19 @@
     <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31377935409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465063095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460223197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1612720489502</t>
+    <t xml:space="preserve">6.3137788772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21465015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14602136611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25658941268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
     <t xml:space="preserve">6.24896383285522</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">6.53491449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678802490234</t>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391080856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404417037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4967885017395</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066654205322</t>
@@ -311,37 +311,37 @@
     <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.512038230896</t>
+    <t xml:space="preserve">6.51203775405884</t>
   </si>
   <si>
     <t xml:space="preserve">6.45103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3938455581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578481674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42816019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45865964889526</t>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384603500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4357852935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42815971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4700984954834</t>
+    <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
     <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48534917831421</t>
+    <t xml:space="preserve">6.48534965515137</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441312789917</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">6.5501651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46628618240356</t>
+    <t xml:space="preserve">6.46628570556641</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447933197021</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">6.60354280471802</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53872728347778</t>
+    <t xml:space="preserve">6.53872680664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53110122680664</t>
+    <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63023042678833</t>
+    <t xml:space="preserve">6.63023138046265</t>
   </si>
   <si>
     <t xml:space="preserve">6.64166927337646</t>
@@ -389,16 +389,16 @@
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598247528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74842405319214</t>
+    <t xml:space="preserve">6.67598295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74842357635498</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367425918579</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761850357056</t>
+    <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
     <t xml:space="preserve">6.96955823898315</t>
@@ -410,37 +410,37 @@
     <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300254821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11443996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0915641784668</t>
+    <t xml:space="preserve">7.10300302505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11443948745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09156370162964</t>
   </si>
   <si>
     <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93905735015869</t>
+    <t xml:space="preserve">6.93905687332153</t>
   </si>
   <si>
     <t xml:space="preserve">7.00768566131592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00387287139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93524408340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143177032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293586730957</t>
+    <t xml:space="preserve">7.00387334823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9352445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143224716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293539047241</t>
   </si>
   <si>
     <t xml:space="preserve">7.16781759262085</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219699859619</t>
+    <t xml:space="preserve">7.15637922286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219795227051</t>
   </si>
   <si>
     <t xml:space="preserve">7.25169563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3203239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657735824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095819473267</t>
+    <t xml:space="preserve">7.32032442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657688140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.45758008956909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43470430374146</t>
+    <t xml:space="preserve">7.41564083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85409879684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07523155212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335945129395</t>
+    <t xml:space="preserve">7.85409736633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07523250579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
     <t xml:space="preserve">8.08285808563232</t>
@@ -497,37 +497,37 @@
     <t xml:space="preserve">8.18961334228516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34212017059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23536491394043</t>
+    <t xml:space="preserve">8.34212112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23536396026611</t>
   </si>
   <si>
     <t xml:space="preserve">8.38787174224854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22011280059814</t>
+    <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37261962890625</t>
+    <t xml:space="preserve">8.34974575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.68525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288539886475</t>
+    <t xml:space="preserve">8.69288444519043</t>
   </si>
   <si>
     <t xml:space="preserve">8.80726528167725</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">8.91401958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29528713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766250610352</t>
+    <t xml:space="preserve">8.88351821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164516448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040683746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29528617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2876615524292</t>
   </si>
   <si>
     <t xml:space="preserve">9.42491817474365</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230625152588</t>
+    <t xml:space="preserve">9.72230529785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.64605331420898</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">9.77568340301514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27241039276123</t>
+    <t xml:space="preserve">9.27241134643555</t>
   </si>
   <si>
     <t xml:space="preserve">9.37916469573975</t>
@@ -575,34 +575,34 @@
     <t xml:space="preserve">9.83668518066406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76043224334717</t>
+    <t xml:space="preserve">9.76043033599854</t>
   </si>
   <si>
     <t xml:space="preserve">9.56979846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
+    <t xml:space="preserve">9.67655277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380844116211</t>
   </si>
   <si>
     <t xml:space="preserve">9.90531444549561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2179527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560777664185</t>
+    <t xml:space="preserve">10.2179517745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.561092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560796737671</t>
   </si>
   <si>
     <t xml:space="preserve">10.5229663848877</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">10.0654458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919296264648</t>
+    <t xml:space="preserve">10.0044450759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9891939163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.2027025222778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1188230514526</t>
+    <t xml:space="preserve">10.1188220977783</t>
   </si>
   <si>
     <t xml:space="preserve">10.1950769424438</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34103965759277</t>
+    <t xml:space="preserve">9.34104061126709</t>
   </si>
   <si>
     <t xml:space="preserve">9.60792541503906</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">10.0286197662354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91200923919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
+    <t xml:space="preserve">9.91200828552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997901916504</t>
   </si>
   <si>
     <t xml:space="preserve">9.5077543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46888542175293</t>
+    <t xml:space="preserve">9.4688835144043</t>
   </si>
   <si>
     <t xml:space="preserve">9.48443222045898</t>
@@ -686,40 +686,40 @@
     <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85758876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.013072013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0830402374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5728101730347</t>
+    <t xml:space="preserve">9.85758972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0130710601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0830392837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
     <t xml:space="preserve">10.4484233856201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4251012802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4173278808594</t>
+    <t xml:space="preserve">10.4250993728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4173259735107</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561967849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5183906555176</t>
+    <t xml:space="preserve">10.4561977386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5183897018433</t>
   </si>
   <si>
     <t xml:space="preserve">10.4950685501099</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">10.4717445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.184103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1996507644653</t>
+    <t xml:space="preserve">10.1841039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1996517181396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3240365982056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3084878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3784561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3395853042603</t>
+    <t xml:space="preserve">10.3084888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3784551620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3395862579346</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540712356567</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350011825562</t>
+    <t xml:space="preserve">10.6350021362305</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894207000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6816473007202</t>
+    <t xml:space="preserve">10.6894197463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6816463470459</t>
   </si>
   <si>
     <t xml:space="preserve">10.5572605133057</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194543838501</t>
+    <t xml:space="preserve">10.6116800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449039459229</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">10.8604516983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8837738037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.899320602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982578277588</t>
+    <t xml:space="preserve">10.8837747573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8993215560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7671632766724</t>
+    <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795198440552</t>
@@ -842,28 +842,28 @@
     <t xml:space="preserve">10.362907409668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063613891602</t>
+    <t xml:space="preserve">10.1063604354858</t>
   </si>
   <si>
     <t xml:space="preserve">10.1219100952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96642684936523</t>
+    <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
     <t xml:space="preserve">9.94310474395752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87313652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.04416847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1374578475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191876411438</t>
+    <t xml:space="preserve">9.87313747406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0441694259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1374588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551340103149</t>
@@ -875,31 +875,31 @@
     <t xml:space="preserve">10.1141357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1530075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98974990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674915313721</t>
+    <t xml:space="preserve">10.1530065536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98975086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674905776978</t>
   </si>
   <si>
     <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1685543060303</t>
+    <t xml:space="preserve">10.168553352356</t>
   </si>
   <si>
     <t xml:space="preserve">10.2462959289551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2307481765747</t>
+    <t xml:space="preserve">10.2307472229004</t>
   </si>
   <si>
     <t xml:space="preserve">10.2151985168457</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43778610229492</t>
+    <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.1734676361084</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901443481445</t>
+    <t xml:space="preserve">9.22011184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31340217590332</t>
+    <t xml:space="preserve">9.313401222229</t>
   </si>
   <si>
     <t xml:space="preserve">9.2356595993042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32894897460938</t>
+    <t xml:space="preserve">9.32894992828369</t>
   </si>
   <si>
     <t xml:space="preserve">9.20456314086914</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40669059753418</t>
+    <t xml:space="preserve">9.40668964385986</t>
   </si>
   <si>
     <t xml:space="preserve">9.3755931854248</t>
@@ -959,31 +959,31 @@
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0024356842041</t>
+    <t xml:space="preserve">9.00243473052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90914630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64482498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61373043060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72256851196289</t>
+    <t xml:space="preserve">8.90914726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64482593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61372947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55153656005859</t>
+    <t xml:space="preserve">8.47379398345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55153751373291</t>
   </si>
   <si>
     <t xml:space="preserve">8.6292781829834</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7070198059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59818077087402</t>
+    <t xml:space="preserve">8.70701885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59818172454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94024276733398</t>
+    <t xml:space="preserve">8.78476047515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9402437210083</t>
   </si>
   <si>
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97133922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98688697814941</t>
+    <t xml:space="preserve">8.97134017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5230598449707</t>
+    <t xml:space="preserve">9.52306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39566135406494</t>
+    <t xml:space="preserve">9.39566230773926</t>
   </si>
   <si>
     <t xml:space="preserve">9.49120998382568</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823360443115</t>
+    <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61861038208008</t>
+    <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
     <t xml:space="preserve">9.7141580581665</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">9.73008346557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74600887298584</t>
+    <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01346588134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236766815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75866794586182</t>
+    <t xml:space="preserve">9.01346492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.59941864013672</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496822357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63126850128174</t>
+    <t xml:space="preserve">8.69496726989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63126754760742</t>
   </si>
   <si>
     <t xml:space="preserve">8.44017124176025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56757068634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47201919555664</t>
+    <t xml:space="preserve">8.56756973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47202014923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4083194732666</t>
+    <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
     <t xml:space="preserve">8.7268180847168</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
+    <t xml:space="preserve">8.34462261199951</t>
   </si>
   <si>
     <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96242570877075</t>
+    <t xml:space="preserve">7.96242523193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.05797386169434</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">8.08982372283936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95446252822876</t>
+    <t xml:space="preserve">7.95446300506592</t>
   </si>
   <si>
     <t xml:space="preserve">7.88280057907104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04204845428467</t>
+    <t xml:space="preserve">8.04204940795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716464996338</t>
+    <t xml:space="preserve">9.07716369628906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">8.80644226074219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53571891784668</t>
+    <t xml:space="preserve">8.535719871521</t>
   </si>
   <si>
     <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88606739044189</t>
+    <t xml:space="preserve">8.88606643676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94976615905762</t>
+    <t xml:space="preserve">8.9497652053833</t>
   </si>
   <si>
     <t xml:space="preserve">8.9975414276123</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719486236572</t>
+    <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
     <t xml:space="preserve">8.74274253845215</t>
@@ -1283,16 +1283,16 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092193603516</t>
+    <t xml:space="preserve">8.28092288970947</t>
   </si>
   <si>
     <t xml:space="preserve">8.24110984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32073307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08186149597168</t>
+    <t xml:space="preserve">8.32073402404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.081862449646</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -59225,7 +59225,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6494675926</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>10045</v>
@@ -59246,6 +59246,32 @@
         <v>825</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6495833333</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>15507</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>823</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -50,16 +50,16 @@
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397796630859</t>
+    <t xml:space="preserve">6.58829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397844314575</t>
   </si>
   <si>
     <t xml:space="preserve">6.52728843688965</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50822496414185</t>
+    <t xml:space="preserve">6.508225440979</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
@@ -68,16 +68,16 @@
     <t xml:space="preserve">6.39003372192383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42053413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35190582275391</t>
+    <t xml:space="preserve">6.42053365707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44340991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35190629959106</t>
   </si>
   <si>
     <t xml:space="preserve">6.34428119659424</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090356826782</t>
+    <t xml:space="preserve">6.29090404510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15746021270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18414926528931</t>
+    <t xml:space="preserve">6.15745973587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18414878845215</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11552000045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99351501464844</t>
+    <t xml:space="preserve">6.11552047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99351453781128</t>
   </si>
   <si>
     <t xml:space="preserve">6.03926753997803</t>
@@ -116,28 +116,28 @@
     <t xml:space="preserve">6.03545522689819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87151002883911</t>
+    <t xml:space="preserve">5.87150955200195</t>
   </si>
   <si>
     <t xml:space="preserve">5.74950456619263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92869997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10026979446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839721679688</t>
+    <t xml:space="preserve">5.92870044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10026931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839673995972</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652320861816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990131378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40528345108032</t>
+    <t xml:space="preserve">6.22990083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
     <t xml:space="preserve">6.51966333389282</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27946519851685</t>
+    <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32140445709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38240718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27565240859985</t>
+    <t xml:space="preserve">6.3214054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38240766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">6.35953187942505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214284896851</t>
+    <t xml:space="preserve">6.37096977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859487533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264421463013</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10408306121826</t>
+    <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
     <t xml:space="preserve">6.08501958847046</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10789585113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645748138428</t>
+    <t xml:space="preserve">6.1078953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645652770996</t>
   </si>
   <si>
     <t xml:space="preserve">5.98207759857178</t>
@@ -248,34 +248,34 @@
     <t xml:space="preserve">6.19558620452881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24515151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18033647537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31759166717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30996656417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137788772583</t>
+    <t xml:space="preserve">6.27184057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24515199661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18033599853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31759214401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30996704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377983093262</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14602184295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25658941268921</t>
+    <t xml:space="preserve">6.14602136611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25658893585205</t>
   </si>
   <si>
     <t xml:space="preserve">6.16127252578735</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3747820854187</t>
+    <t xml:space="preserve">6.37478256225586</t>
   </si>
   <si>
     <t xml:space="preserve">6.55779027938843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53491497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635334014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
+    <t xml:space="preserve">6.53491449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404417037964</t>
   </si>
   <si>
     <t xml:space="preserve">6.49678802490234</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54254007339478</t>
+    <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
@@ -320,70 +320,70 @@
     <t xml:space="preserve">6.43959760665894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578481674194</t>
+    <t xml:space="preserve">6.39384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866060256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44722318649292</t>
+    <t xml:space="preserve">6.45865964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060081481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48534965515137</t>
+    <t xml:space="preserve">6.50060033798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48534917831421</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55016613006592</t>
+    <t xml:space="preserve">6.55016565322876</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66835689544678</t>
+    <t xml:space="preserve">6.58447933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66835737228394</t>
   </si>
   <si>
     <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60354328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872728347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46247339248657</t>
+    <t xml:space="preserve">6.60354280471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46247291564941</t>
   </si>
   <si>
     <t xml:space="preserve">6.53110122680664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591722488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63023042678833</t>
+    <t xml:space="preserve">6.59591770172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63023138046265</t>
   </si>
   <si>
     <t xml:space="preserve">6.64166927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6836085319519</t>
+    <t xml:space="preserve">6.68360805511475</t>
   </si>
   <si>
     <t xml:space="preserve">6.69885921478271</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">6.67598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74842405319214</t>
+    <t xml:space="preserve">6.7484245300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761945724487</t>
+    <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
     <t xml:space="preserve">6.969557762146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96193408966064</t>
+    <t xml:space="preserve">6.96193361282349</t>
   </si>
   <si>
     <t xml:space="preserve">7.05343770980835</t>
@@ -416,109 +416,109 @@
     <t xml:space="preserve">7.11444044113159</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93905782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00768566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387287139893</t>
+    <t xml:space="preserve">7.0915641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581165313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93905735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00768518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387239456177</t>
   </si>
   <si>
     <t xml:space="preserve">6.9352445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98099613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143177032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293491363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16781806945801</t>
+    <t xml:space="preserve">6.98099660873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143129348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16781711578369</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032489776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45757961273193</t>
+    <t xml:space="preserve">7.15637874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169610977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3203239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657688140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095676422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45758056640625</t>
   </si>
   <si>
     <t xml:space="preserve">7.41564130783081</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43470430374146</t>
+    <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409832000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07523250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335945129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285808563232</t>
+    <t xml:space="preserve">7.70159149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409879684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07523155212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335849761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285713195801</t>
   </si>
   <si>
     <t xml:space="preserve">8.18961238861084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34212017059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23536491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3878698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011470794678</t>
+    <t xml:space="preserve">8.34212112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23536396026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38787078857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686901092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37262153625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31161785125732</t>
+    <t xml:space="preserve">8.34974575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31161689758301</t>
   </si>
   <si>
     <t xml:space="preserve">8.68525886535645</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">8.69288444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726432800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91401958465576</t>
+    <t xml:space="preserve">8.80726528167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91402053833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.88351821899414</t>
@@ -542,94 +542,94 @@
     <t xml:space="preserve">8.92164516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29528617858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28766059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568435668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
+    <t xml:space="preserve">9.15040588378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29528713226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28766250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605140686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668613433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.76043224334717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56980037689209</t>
+    <t xml:space="preserve">9.56979751586914</t>
   </si>
   <si>
     <t xml:space="preserve">9.67655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79093265533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
+    <t xml:space="preserve">9.79093360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531444549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2179527282715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848384857178</t>
+    <t xml:space="preserve">10.5610942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848394393921</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933343887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
+    <t xml:space="preserve">10.522967338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9891939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
   </si>
   <si>
     <t xml:space="preserve">10.1188220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950759887695</t>
+    <t xml:space="preserve">10.1950750350952</t>
   </si>
   <si>
     <t xml:space="preserve">10.073070526123</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">10.0959463119507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1264486312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581485748291</t>
+    <t xml:space="preserve">10.126446723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
   </si>
   <si>
     <t xml:space="preserve">9.46304416656494</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">9.60792446136475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95865154266357</t>
+    <t xml:space="preserve">9.95865249633789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0597171783447</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">9.50775337219238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4688835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439949035645</t>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830383300781</t>
+    <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">10.4484224319458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4251012802124</t>
+    <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561977386475</t>
+    <t xml:space="preserve">10.3007144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561967849731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">10.4639711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406499862671</t>
+    <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
     <t xml:space="preserve">10.4095525741577</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.222972869873</t>
+    <t xml:space="preserve">10.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4717454910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.184103012085</t>
+    <t xml:space="preserve">10.4717435836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1841039657593</t>
   </si>
   <si>
     <t xml:space="preserve">10.1996517181396</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">10.3240356445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3084888458252</t>
+    <t xml:space="preserve">10.3084878921509</t>
   </si>
   <si>
     <t xml:space="preserve">10.3784551620483</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851667404175</t>
+    <t xml:space="preserve">10.2696180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3473596572876</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">10.6505508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894197463989</t>
+    <t xml:space="preserve">10.6894207000732</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">10.55726146698</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6116800308228</t>
+    <t xml:space="preserve">10.6116790771484</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8449029922485</t>
+    <t xml:space="preserve">10.8449039459229</t>
   </si>
   <si>
     <t xml:space="preserve">10.8604516983032</t>
@@ -830,16 +830,16 @@
     <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7982578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7049684524536</t>
+    <t xml:space="preserve">10.7982587814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7049694061279</t>
   </si>
   <si>
     <t xml:space="preserve">10.7671632766724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795188903809</t>
+    <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
     <t xml:space="preserve">10.3629083633423</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94310474395752</t>
+    <t xml:space="preserve">9.94310569763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918773651123</t>
+    <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551340103149</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530075073242</t>
+    <t xml:space="preserve">10.1141366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530065536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98975086212158</t>
+    <t xml:space="preserve">9.98974990844727</t>
   </si>
   <si>
     <t xml:space="preserve">10.0674905776978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462949752808</t>
+    <t xml:space="preserve">10.2462959289551</t>
   </si>
   <si>
     <t xml:space="preserve">10.2307472229004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2151985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90423488616943</t>
+    <t xml:space="preserve">10.21519947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59326839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43778610229492</t>
+    <t xml:space="preserve">9.5932674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.17346668243408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26675605773926</t>
+    <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
     <t xml:space="preserve">9.22011089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18901538848877</t>
+    <t xml:space="preserve">9.18901443481445</t>
   </si>
   <si>
     <t xml:space="preserve">9.29785251617432</t>
@@ -953,25 +953,25 @@
     <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40669059753418</t>
+    <t xml:space="preserve">9.4066915512085</t>
   </si>
   <si>
     <t xml:space="preserve">9.37559413909912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09572601318359</t>
+    <t xml:space="preserve">9.09572505950928</t>
   </si>
   <si>
     <t xml:space="preserve">9.0024356842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95579147338867</t>
+    <t xml:space="preserve">8.95579051971436</t>
   </si>
   <si>
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482498168945</t>
+    <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55153656005859</t>
+    <t xml:space="preserve">8.47379398345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55153560638428</t>
   </si>
   <si>
     <t xml:space="preserve">8.6292781829834</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">8.6914701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67592239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58263301849365</t>
+    <t xml:space="preserve">8.67592334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58263397216797</t>
   </si>
   <si>
     <t xml:space="preserve">8.52044105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66037464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53598880767822</t>
+    <t xml:space="preserve">8.66037559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
     <t xml:space="preserve">8.42715072631836</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">8.70701885223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59818077087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75366401672363</t>
+    <t xml:space="preserve">8.59818172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75366497039795</t>
   </si>
   <si>
     <t xml:space="preserve">8.78476047515869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9402437210083</t>
+    <t xml:space="preserve">8.94024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">8.9246940612793</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01798439025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03353309631348</t>
+    <t xml:space="preserve">9.01798343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03353214263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
@@ -59335,13 +59335,13 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6493981481</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>3592</v>
       </c>
       <c r="C2174" t="n">
-        <v>7.1399998664856</v>
+        <v>7.15999984741211</v>
       </c>
       <c r="D2174" t="n">
         <v>7.1399998664856</v>
@@ -59356,6 +59356,32 @@
         <v>827</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.649537037</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>31674</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029663085938</t>
+    <t xml:space="preserve">6.71029615402222</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217016220093</t>
+    <t xml:space="preserve">6.67216920852661</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829116821289</t>
+    <t xml:space="preserve">6.58829212188721</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822496414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48153686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003372192383</t>
+    <t xml:space="preserve">6.52728891372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48153638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003276824951</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053413391113</t>
@@ -77,52 +77,52 @@
     <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428071975708</t>
+    <t xml:space="preserve">6.35190582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334466934204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32902956008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29090356826782</t>
+    <t xml:space="preserve">6.32903051376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29090404510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.30615377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15746021270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18414926528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16508483886719</t>
+    <t xml:space="preserve">6.15745973587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18414878845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508531570435</t>
   </si>
   <si>
     <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99351453781128</t>
+    <t xml:space="preserve">5.99351501464844</t>
   </si>
   <si>
     <t xml:space="preserve">6.03926706314087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03545475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92869997024536</t>
+    <t xml:space="preserve">6.03545522689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87150955200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92870044708252</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732828140259</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839673995972</t>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652368545532</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">6.1993989944458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23752641677856</t>
+    <t xml:space="preserve">6.23752593994141</t>
   </si>
   <si>
     <t xml:space="preserve">6.22990131378174</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3976583480835</t>
+    <t xml:space="preserve">6.51966333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.279465675354</t>
@@ -176,37 +176,37 @@
     <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33665609359741</t>
+    <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
     <t xml:space="preserve">6.35953187942505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859487533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214284896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08120727539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15364742279053</t>
+    <t xml:space="preserve">6.37096977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859535217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264421463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08120775222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15364646911621</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13077211380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12314605712891</t>
+    <t xml:space="preserve">6.13077116012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12314653396606</t>
   </si>
   <si>
     <t xml:space="preserve">5.90963649749756</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09645652770996</t>
+    <t xml:space="preserve">6.09645700454712</t>
   </si>
   <si>
     <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02401685714722</t>
+    <t xml:space="preserve">6.02401638031006</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421451568604</t>
+    <t xml:space="preserve">6.26421403884888</t>
   </si>
   <si>
     <t xml:space="preserve">6.19558620452881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184009552002</t>
+    <t xml:space="preserve">6.27184057235718</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772407531738</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.18033599853516</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1460223197937</t>
+    <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">6.53491449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391128540039</t>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391176223755</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404321670532</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">6.58066654205322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54254007339478</t>
+    <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">6.45103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384603500366</t>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3938455581665</t>
   </si>
   <si>
     <t xml:space="preserve">6.4357852935791</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45865964889526</t>
+    <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47009897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50060033798218</t>
+    <t xml:space="preserve">6.4700984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
     <t xml:space="preserve">6.48534917831421</t>
@@ -347,52 +347,52 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55016565322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46628665924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58447885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66835784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57304096221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354280471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872776031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46247386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53110122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63023042678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64166927337646</t>
+    <t xml:space="preserve">6.5501651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46628618240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58447933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66835737228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5730414390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872728347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46247339248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5311017036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591722488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63023090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64166975021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69885969161987</t>
+    <t xml:space="preserve">6.69885873794556</t>
   </si>
   <si>
     <t xml:space="preserve">6.67598295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7484245300293</t>
+    <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">6.96955823898315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96193408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05343723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10300207138062</t>
+    <t xml:space="preserve">6.96193361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05343770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">7.0915641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04581212997437</t>
+    <t xml:space="preserve">7.04581165313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387287139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9352445602417</t>
+    <t xml:space="preserve">7.00768518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387239456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93524408340454</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143224716187</t>
+    <t xml:space="preserve">6.93143129348755</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16781759262085</t>
+    <t xml:space="preserve">7.16781806945801</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">7.15637874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169563293457</t>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169610977173</t>
   </si>
   <si>
     <t xml:space="preserve">7.3203239440918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39657735824585</t>
+    <t xml:space="preserve">7.39657688140869</t>
   </si>
   <si>
     <t xml:space="preserve">7.51095771789551</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">7.45758008956909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43470430374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159196853638</t>
+    <t xml:space="preserve">7.41564083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4347038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523250579834</t>
+    <t xml:space="preserve">8.07523155212402</t>
   </si>
   <si>
     <t xml:space="preserve">8.11335945129395</t>
@@ -494,40 +494,40 @@
     <t xml:space="preserve">8.08285808563232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18961334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212017059326</t>
+    <t xml:space="preserve">8.18961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34212112426758</t>
   </si>
   <si>
     <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38787174224854</t>
+    <t xml:space="preserve">8.38787269592285</t>
   </si>
   <si>
     <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686901092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34974479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37261962890625</t>
+    <t xml:space="preserve">8.32686805725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34974575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262058258057</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.68525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288444519043</t>
+    <t xml:space="preserve">8.69288539886475</t>
   </si>
   <si>
     <t xml:space="preserve">8.80726528167725</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">8.91402053833008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164611816406</t>
+    <t xml:space="preserve">8.88351821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164516448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.15040493011475</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2876615524292</t>
+    <t xml:space="preserve">9.28766250610352</t>
   </si>
   <si>
     <t xml:space="preserve">9.42491817474365</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">9.56217384338379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
+    <t xml:space="preserve">9.72230625152588</t>
   </si>
   <si>
     <t xml:space="preserve">9.64605331420898</t>
@@ -569,10 +569,10 @@
     <t xml:space="preserve">9.27241134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37916564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668422698975</t>
+    <t xml:space="preserve">9.37916660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.76043224334717</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">9.67655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81381034851074</t>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
   </si>
   <si>
     <t xml:space="preserve">9.90531444549561</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">10.2179527282715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.561092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560777664185</t>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560796737671</t>
   </si>
   <si>
     <t xml:space="preserve">10.5229663848877</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
+    <t xml:space="preserve">10.3933343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0044431686401</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">10.1950769424438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0730714797974</t>
+    <t xml:space="preserve">10.073070526123</t>
   </si>
   <si>
     <t xml:space="preserve">10.0959463119507</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">10.1264476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304512023926</t>
   </si>
   <si>
     <t xml:space="preserve">9.44779300689697</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792636871338</t>
+    <t xml:space="preserve">9.34104061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792541503906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95865249633789</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">9.5077543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46888542175293</t>
+    <t xml:space="preserve">9.46888446807861</t>
   </si>
   <si>
     <t xml:space="preserve">9.48443222045898</t>
@@ -686,40 +686,37 @@
     <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56217288970947</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830402374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5728101730347</t>
+    <t xml:space="preserve">10.0830392837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
     <t xml:space="preserve">10.4484233856201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4251012802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4173278808594</t>
+    <t xml:space="preserve">10.4251003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561967849731</t>
+    <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950685501099</t>
+    <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
     <t xml:space="preserve">10.5028419494629</t>
@@ -731,7 +728,7 @@
     <t xml:space="preserve">10.7282915115356</t>
   </si>
   <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -740,7 +737,7 @@
     <t xml:space="preserve">10.5106163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4639711380005</t>
+    <t xml:space="preserve">10.4639701843262</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406490325928</t>
@@ -752,10 +749,10 @@
     <t xml:space="preserve">10.3318109512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.401780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.222972869873</t>
+    <t xml:space="preserve">10.4017791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -773,10 +770,10 @@
     <t xml:space="preserve">10.3240365982056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3084878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3784561157227</t>
+    <t xml:space="preserve">10.3084888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3784551620483</t>
   </si>
   <si>
     <t xml:space="preserve">10.3395853042603</t>
@@ -791,25 +788,25 @@
     <t xml:space="preserve">10.2696180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2851657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3473596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350011825562</t>
+    <t xml:space="preserve">10.2851667404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3473587036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350021362305</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894207000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6816473007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5572605133057</t>
+    <t xml:space="preserve">10.6894197463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6816463470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55726146698</t>
   </si>
   <si>
     <t xml:space="preserve">10.6116790771484</t>
@@ -827,22 +824,22 @@
     <t xml:space="preserve">10.8837738037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.899320602417</t>
+    <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982578277588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7671632766724</t>
+    <t xml:space="preserve">10.7049703598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.362907409668</t>
+    <t xml:space="preserve">10.3629083633423</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
@@ -851,22 +848,22 @@
     <t xml:space="preserve">10.1219100952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96642684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94310474395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87313652038574</t>
+    <t xml:space="preserve">9.96642780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94310569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
     <t xml:space="preserve">10.04416847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1374578475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191876411438</t>
+    <t xml:space="preserve">10.1374588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551340103149</t>
@@ -878,10 +875,10 @@
     <t xml:space="preserve">10.1141357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1530075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607799530029</t>
+    <t xml:space="preserve">10.1530055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607789993286</t>
   </si>
   <si>
     <t xml:space="preserve">9.99752426147461</t>
@@ -890,7 +887,7 @@
     <t xml:space="preserve">9.98974990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0674915313721</t>
+    <t xml:space="preserve">10.0674905776978</t>
   </si>
   <si>
     <t xml:space="preserve">10.1452331542969</t>
@@ -905,7 +902,7 @@
     <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2151985168457</t>
+    <t xml:space="preserve">10.21519947052</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -929,10 +926,10 @@
     <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901443481445</t>
+    <t xml:space="preserve">9.22011184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.29785251617432</t>
@@ -953,13 +950,13 @@
     <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40669059753418</t>
+    <t xml:space="preserve">9.40668964385986</t>
   </si>
   <si>
     <t xml:space="preserve">9.3755931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09572601318359</t>
+    <t xml:space="preserve">9.09572505950928</t>
   </si>
   <si>
     <t xml:space="preserve">9.0024356842041</t>
@@ -971,7 +968,7 @@
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482498168945</t>
+    <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
     <t xml:space="preserve">8.61373043060303</t>
@@ -980,19 +977,19 @@
     <t xml:space="preserve">8.72256851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86250114440918</t>
+    <t xml:space="preserve">8.8625020980835</t>
   </si>
   <si>
     <t xml:space="preserve">8.47379493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55153656005859</t>
+    <t xml:space="preserve">8.55153751373291</t>
   </si>
   <si>
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708526611328</t>
+    <t xml:space="preserve">8.56708431243896</t>
   </si>
   <si>
     <t xml:space="preserve">8.6914701461792</t>
@@ -1001,7 +998,7 @@
     <t xml:space="preserve">8.67592239379883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58263301849365</t>
+    <t xml:space="preserve">8.58263397216797</t>
   </si>
   <si>
     <t xml:space="preserve">8.52044010162354</t>
@@ -1016,22 +1013,22 @@
     <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7070198059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59818077087402</t>
+    <t xml:space="preserve">8.70701885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59818172454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9246940612793</t>
+    <t xml:space="preserve">8.78476047515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92469501495361</t>
   </si>
   <si>
     <t xml:space="preserve">8.97133922576904</t>
@@ -1043,7 +1040,7 @@
     <t xml:space="preserve">9.01798439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03353309631348</t>
+    <t xml:space="preserve">9.03353404998779</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
@@ -1055,10 +1052,10 @@
     <t xml:space="preserve">9.50713539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34788608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751121520996</t>
+    <t xml:space="preserve">9.34788703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751216888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1067,25 +1064,25 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5230598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53898620605469</t>
+    <t xml:space="preserve">9.52306079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53898525238037</t>
   </si>
   <si>
     <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39566135406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.39566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823360443115</t>
+    <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
     <t xml:space="preserve">9.66638374328613</t>
@@ -1094,34 +1091,34 @@
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61861038208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7141580581665</t>
+    <t xml:space="preserve">9.61860942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71415901184082</t>
   </si>
   <si>
     <t xml:space="preserve">9.73008346557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74600887298584</t>
+    <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01346588134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236766815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75866794586182</t>
+    <t xml:space="preserve">9.01346492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.59941864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71089363098145</t>
+    <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.61534404754639</t>
@@ -1133,19 +1130,19 @@
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496822357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63126850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44017124176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56757068634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47201919555664</t>
+    <t xml:space="preserve">8.69496726989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63126754760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44017028808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56756973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47202014923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1154,13 +1151,13 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2649974822998</t>
+    <t xml:space="preserve">8.26499652862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4083194732666</t>
+    <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
     <t xml:space="preserve">8.7268180847168</t>
@@ -1172,205 +1169,208 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
+    <t xml:space="preserve">8.34462261199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12167453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96242618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05797481536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08982276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95446300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88280057907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50387096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48794555664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07716464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95303153991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98161602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644226074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.535719871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90199089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88606739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77459239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04531574249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99754047393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87014198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58349418640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42424583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64719390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55960750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36054515838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40035820007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16148567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20129776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28092193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24111080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073402404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08186149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13808155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24472904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32676696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40880393981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20371150970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28574752807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49084091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44982242584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36778545379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9904146194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03963661193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94119167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10526657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95759916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80993270874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97400760650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00682163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87556266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69508075714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
     <t xml:space="preserve">8.12167358398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96242570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05797386169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08982372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95446252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88280057907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204845428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50387096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48794555664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07716464996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95303153991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9179162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98161602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53571891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90199089050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88606739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77459239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04531574249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94976615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9975414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87014198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58349418640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42424583435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64719486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55960750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36054611206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40035820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16148567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20129776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28092193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24110984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08186149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13808155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24472904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32676696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40880393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20371150970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28574752807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49084091186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44982242584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36778545379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9904146194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03963661193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94119167327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10526657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95759916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80993270874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97400760650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00682163238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82634115219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711772918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69508075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66226673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148872375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
     <t xml:space="preserve">8.17089557647705</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -59384,13 +59384,13 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6495138889</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>37433</v>
       </c>
       <c r="C2176" t="n">
-        <v>7.1399998664856</v>
+        <v>7.15999984741211</v>
       </c>
       <c r="D2176" t="n">
         <v>7.1399998664856</v>
@@ -59405,6 +59405,32 @@
         <v>826</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6496064815</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>808</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>824</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029663085938</t>
+    <t xml:space="preserve">6.71029615402222</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217016220093</t>
+    <t xml:space="preserve">6.67216968536377</t>
   </si>
   <si>
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829116821289</t>
+    <t xml:space="preserve">6.58829164505005</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728843688965</t>
+    <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
     <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48153686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053365707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44341039657593</t>
+    <t xml:space="preserve">6.48153734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44341087341309</t>
   </si>
   <si>
     <t xml:space="preserve">6.36715650558472</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334419250488</t>
+    <t xml:space="preserve">6.36334466934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30615377426147</t>
+    <t xml:space="preserve">6.29090356826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30615425109863</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99351453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03926658630371</t>
+    <t xml:space="preserve">5.99351501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03926753997803</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545522689819</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">5.87151002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74950456619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92870092391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732780456543</t>
+    <t xml:space="preserve">5.74950408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92870044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732828140259</t>
   </si>
   <si>
     <t xml:space="preserve">6.10026931762695</t>
@@ -134,34 +134,34 @@
     <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17652320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.17652368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19939851760864</t>
+    <t xml:space="preserve">6.1993989944458</t>
   </si>
   <si>
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990131378174</t>
+    <t xml:space="preserve">6.22990036010742</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3976583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27946472167969</t>
+    <t xml:space="preserve">6.51966333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39765882492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27946519851685</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38240718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27565288543701</t>
+    <t xml:space="preserve">6.38240766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27565240859985</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37096977233887</t>
+    <t xml:space="preserve">6.35953092575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37096929550171</t>
   </si>
   <si>
     <t xml:space="preserve">6.37859487533569</t>
@@ -191,22 +191,22 @@
     <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09264469146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08120727539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15364742279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933374404907</t>
+    <t xml:space="preserve">6.09264421463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08120679855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15364694595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.13077163696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12314605712891</t>
+    <t xml:space="preserve">6.12314653396606</t>
   </si>
   <si>
     <t xml:space="preserve">5.90963649749756</t>
@@ -215,55 +215,55 @@
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08501958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401685714722</t>
+    <t xml:space="preserve">6.08502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10789585113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920181274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645700454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207807540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401638031006</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02782964706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26421451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558668136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184057235718</t>
+    <t xml:space="preserve">6.02782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26421499252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47772455215454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24515199661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.24515151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18033695220947</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996656417847</t>
+    <t xml:space="preserve">6.30996704101562</t>
   </si>
   <si>
     <t xml:space="preserve">6.31377935409546</t>
@@ -278,31 +278,31 @@
     <t xml:space="preserve">6.25658941268921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16127252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24896430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37478256225586</t>
+    <t xml:space="preserve">6.16127300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24896383285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
     <t xml:space="preserve">6.55779027938843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53491449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635238647461</t>
+    <t xml:space="preserve">6.53491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635286331177</t>
   </si>
   <si>
     <t xml:space="preserve">6.47391176223755</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63404369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4967885017395</t>
+    <t xml:space="preserve">6.63404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49678802490234</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066654205322</t>
@@ -311,40 +311,40 @@
     <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.512038230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45103597640991</t>
+    <t xml:space="preserve">6.51203870773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45103549957275</t>
   </si>
   <si>
     <t xml:space="preserve">6.43959760665894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4357852935791</t>
+    <t xml:space="preserve">6.3938455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43578577041626</t>
   </si>
   <si>
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866012573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44722318649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47009897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50060033798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48534917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50441312789917</t>
+    <t xml:space="preserve">6.45866060256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44722270965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4700984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50060081481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48534965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
     <t xml:space="preserve">6.55016565322876</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">6.58447933197021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66835737228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57304096221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53872728347778</t>
+    <t xml:space="preserve">6.66835689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5730414390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53872680664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46247339248657</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63023042678833</t>
+    <t xml:space="preserve">6.63023090362549</t>
   </si>
   <si>
     <t xml:space="preserve">6.64166927337646</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">6.69885969161987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598295211792</t>
+    <t xml:space="preserve">6.67598342895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.74842405319214</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96955823898315</t>
+    <t xml:space="preserve">6.96955871582031</t>
   </si>
   <si>
     <t xml:space="preserve">6.96193408966064</t>
@@ -410,37 +410,37 @@
     <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11443996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09156322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581165313721</t>
+    <t xml:space="preserve">7.10300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11443948745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09156370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581212997437</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387239456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9352445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143224716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02293586730957</t>
+    <t xml:space="preserve">7.00768613815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387287139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93524408340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143177032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02293491363525</t>
   </si>
   <si>
     <t xml:space="preserve">7.16781759262085</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219699859619</t>
+    <t xml:space="preserve">7.15637969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219747543335</t>
   </si>
   <si>
     <t xml:space="preserve">7.25169610977173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3203239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657735824585</t>
+    <t xml:space="preserve">7.32032442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657688140869</t>
   </si>
   <si>
     <t xml:space="preserve">7.51095771789551</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43470430374146</t>
+    <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
@@ -482,16 +482,16 @@
     <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85409784317017</t>
+    <t xml:space="preserve">7.85409736633301</t>
   </si>
   <si>
     <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11335849761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285808563232</t>
+    <t xml:space="preserve">8.11335754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285713195801</t>
   </si>
   <si>
     <t xml:space="preserve">8.18961238861084</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">8.34212112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23536491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38787078857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32686805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34974479675293</t>
+    <t xml:space="preserve">8.23536586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38787174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011375427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32686901092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34974575042725</t>
   </si>
   <si>
     <t xml:space="preserve">8.37262058258057</t>
@@ -521,73 +521,73 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.68525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80726528167725</t>
+    <t xml:space="preserve">8.69288539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80726432800293</t>
   </si>
   <si>
     <t xml:space="preserve">8.91401958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351821899414</t>
+    <t xml:space="preserve">8.88351726531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.92164516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040588378906</t>
+    <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28766250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491817474365</t>
+    <t xml:space="preserve">9.2876615524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491722106934</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217384338379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230434417725</t>
+    <t xml:space="preserve">9.72230529785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.64605331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77568244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241230010986</t>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241134643555</t>
   </si>
   <si>
     <t xml:space="preserve">9.37916564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83668613433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043224334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655372619629</t>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655277252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.79093456268311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81380844116211</t>
+    <t xml:space="preserve">9.81380939483643</t>
   </si>
   <si>
     <t xml:space="preserve">9.90531349182129</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">10.2179527282715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5610942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560777664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.522967338562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3933353424072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
+    <t xml:space="preserve">10.0806970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0044431686401</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">9.98919296264648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2027025222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
+    <t xml:space="preserve">10.2027015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
   </si>
   <si>
     <t xml:space="preserve">10.1950769424438</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.095947265625</t>
+    <t xml:space="preserve">10.0959463119507</t>
   </si>
   <si>
     <t xml:space="preserve">10.1264476776123</t>
@@ -644,46 +644,46 @@
     <t xml:space="preserve">9.93581485748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46304321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779396057129</t>
   </si>
   <si>
     <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34103965759277</t>
+    <t xml:space="preserve">9.34104061126709</t>
   </si>
   <si>
     <t xml:space="preserve">9.60792446136475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597162246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286207199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200733184814</t>
+    <t xml:space="preserve">9.95865154266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200828552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.49997901916504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5077543258667</t>
+    <t xml:space="preserve">9.50775337219238</t>
   </si>
   <si>
     <t xml:space="preserve">9.46888446807861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
+    <t xml:space="preserve">9.48443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439949035645</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4251003265381</t>
+    <t xml:space="preserve">10.4484224319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4251012802124</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
@@ -713,25 +713,25 @@
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561967849731</t>
+    <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028429031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4328756332397</t>
+    <t xml:space="preserve">10.4950685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028419494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
     <t xml:space="preserve">10.72829246521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.565034866333</t>
+    <t xml:space="preserve">10.5650358200073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">10.5106163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4406490325928</t>
+    <t xml:space="preserve">10.4639711380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4406499862671</t>
   </si>
   <si>
     <t xml:space="preserve">10.4095525741577</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3318109512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017791748047</t>
+    <t xml:space="preserve">10.3318119049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017782211304</t>
   </si>
   <si>
     <t xml:space="preserve">10.222972869873</t>
@@ -767,13 +767,13 @@
     <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1996507644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240365982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084888458252</t>
+    <t xml:space="preserve">10.1996517181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240356445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084878921509</t>
   </si>
   <si>
     <t xml:space="preserve">10.3784561157227</t>
@@ -788,40 +788,40 @@
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851657867432</t>
+    <t xml:space="preserve">10.2696189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6350021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505498886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.55726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8604507446289</t>
+    <t xml:space="preserve">10.5572605133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194543838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449029922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8604516983032</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837747573853</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7671632766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795198440552</t>
+    <t xml:space="preserve">10.7049684524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795188903809</t>
   </si>
   <si>
     <t xml:space="preserve">10.3629083633423</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">10.1219100952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96642684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94310569763184</t>
+    <t xml:space="preserve">9.96642780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9431037902832</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1296834945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1141366958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530075073242</t>
+    <t xml:space="preserve">10.1296844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1141357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530065536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98974990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674915313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">9.98975086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -914,22 +914,22 @@
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436580657959</t>
+    <t xml:space="preserve">9.62436676025391</t>
   </si>
   <si>
     <t xml:space="preserve">9.59326839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43778705596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17346668243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2201099395752</t>
+    <t xml:space="preserve">9.43778514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1734676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011184692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40669059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3755931854248</t>
+    <t xml:space="preserve">9.40668964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37559413909912</t>
   </si>
   <si>
     <t xml:space="preserve">9.09572601318359</t>
@@ -971,31 +971,31 @@
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482593536377</t>
+    <t xml:space="preserve">8.64482498168945</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256755828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86250114440918</t>
+    <t xml:space="preserve">8.72256851196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8625020980835</t>
   </si>
   <si>
     <t xml:space="preserve">8.47379493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55153560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62927913665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56708431243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6914701461792</t>
+    <t xml:space="preserve">8.55153656005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62927722930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56708526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69146919250488</t>
   </si>
   <si>
     <t xml:space="preserve">8.67592239379883</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">8.58263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044010162354</t>
+    <t xml:space="preserve">8.52044105529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42715072631836</t>
+    <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
@@ -1022,40 +1022,40 @@
     <t xml:space="preserve">8.59818077087402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75366497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78476142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9246940612793</t>
+    <t xml:space="preserve">8.75366401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78475952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92469501495361</t>
   </si>
   <si>
     <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98688793182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01798439025879</t>
+    <t xml:space="preserve">8.98688697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01798534393311</t>
   </si>
   <si>
     <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31603717803955</t>
+    <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
     <t xml:space="preserve">9.36381149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50713539123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788703918457</t>
+    <t xml:space="preserve">9.50713634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788799285889</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751216888428</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">9.41158676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47528553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5230598449707</t>
+    <t xml:space="preserve">9.47528648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.443434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39566135406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49120998382568</t>
+    <t xml:space="preserve">9.44343662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4912109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66638374328613</t>
+    <t xml:space="preserve">9.66638278961182</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71415901184082</t>
+    <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">9.73008251190186</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268402099609</t>
+    <t xml:space="preserve">9.60268497467041</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82236766815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7586669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941864013672</t>
+    <t xml:space="preserve">8.82236671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75866794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941959381104</t>
   </si>
   <si>
     <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61534404754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979446411133</t>
+    <t xml:space="preserve">8.6153450012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979541778564</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">8.69496822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63126850128174</t>
+    <t xml:space="preserve">8.63126754760742</t>
   </si>
   <si>
     <t xml:space="preserve">8.44017028808594</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2649974822998</t>
+    <t xml:space="preserve">8.26499652862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7268180847168</t>
+    <t xml:space="preserve">8.72681903839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3446216583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12167453765869</t>
+    <t xml:space="preserve">8.34462261199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95446252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88279962539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204845428467</t>
+    <t xml:space="preserve">7.9544620513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88280057907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204940795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9179162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829307556152</t>
+    <t xml:space="preserve">8.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829116821289</t>
   </si>
   <si>
     <t xml:space="preserve">8.98161602020264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80644226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.535719871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90199089050293</t>
+    <t xml:space="preserve">8.80644130706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53571891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90198993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.88606643676758</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">8.77459239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04531574249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94976615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9975414276123</t>
+    <t xml:space="preserve">9.04531478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99753952026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.66311931610107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79051780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421657562256</t>
+    <t xml:space="preserve">8.79051685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">8.74274253845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47998237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923168182373</t>
+    <t xml:space="preserve">8.47998142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">8.28092193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24110984802246</t>
+    <t xml:space="preserve">8.24111080169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.32073402404785</t>
@@ -59439,7 +59439,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6493055556</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>19973</v>
@@ -59460,6 +59460,32 @@
         <v>827</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493981481</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>5337</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>827</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029615402222</t>
+    <t xml:space="preserve">6.71029663085938</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -50,25 +50,25 @@
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829164505005</t>
+    <t xml:space="preserve">6.58829212188721</t>
   </si>
   <si>
     <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52728891372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50822496414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48153734207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003324508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053413391113</t>
+    <t xml:space="preserve">6.52728843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.508225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48153638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003372192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053365707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.44341087341309</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">6.36715650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190582275391</t>
+    <t xml:space="preserve">6.35190534591675</t>
   </si>
   <si>
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334466934204</t>
+    <t xml:space="preserve">6.36334371566772</t>
   </si>
   <si>
     <t xml:space="preserve">6.32903051376343</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">6.29090356826782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30615425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15745973587036</t>
+    <t xml:space="preserve">6.30615377426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414926528931</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">6.16508531570435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11552047729492</t>
+    <t xml:space="preserve">6.11552000045776</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351501464844</t>
@@ -119,16 +119,16 @@
     <t xml:space="preserve">5.87151002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92870044708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10026931762695</t>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92869997024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10026979446411</t>
   </si>
   <si>
     <t xml:space="preserve">6.13839721679688</t>
@@ -137,31 +137,31 @@
     <t xml:space="preserve">6.17652368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.283278465271</t>
+    <t xml:space="preserve">6.28327894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1993989944458</t>
+    <t xml:space="preserve">6.19939947128296</t>
   </si>
   <si>
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990036010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40528297424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51966333389282</t>
+    <t xml:space="preserve">6.22990083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40528392791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51966381072998</t>
   </si>
   <si>
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27946519851685</t>
+    <t xml:space="preserve">6.279465675354</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
@@ -176,28 +176,28 @@
     <t xml:space="preserve">6.27565240859985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33665561676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35953092575073</t>
+    <t xml:space="preserve">6.33665609359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35953187942505</t>
   </si>
   <si>
     <t xml:space="preserve">6.37096929550171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859487533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214332580566</t>
+    <t xml:space="preserve">6.37859439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214284896851</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264421463013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08120679855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15364694595337</t>
+    <t xml:space="preserve">6.08120727539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15364789962769</t>
   </si>
   <si>
     <t xml:space="preserve">6.11933326721191</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">6.13077163696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12314653396606</t>
+    <t xml:space="preserve">6.12314605712891</t>
   </si>
   <si>
     <t xml:space="preserve">5.90963649749756</t>
@@ -215,34 +215,34 @@
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10789585113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645700454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207807540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401638031006</t>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1078953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401685714722</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26421499252319</t>
+    <t xml:space="preserve">6.02782964706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26421451568604</t>
   </si>
   <si>
     <t xml:space="preserve">6.19558620452881</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47772455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24515151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18033695220947</t>
+    <t xml:space="preserve">6.47772407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24515199661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18033647537231</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996704101562</t>
+    <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
     <t xml:space="preserve">6.31377935409546</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25658941268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16127300262451</t>
+    <t xml:space="preserve">6.25658988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
     <t xml:space="preserve">6.24896383285522</t>
@@ -287,43 +287,43 @@
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55779027938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491497039795</t>
+    <t xml:space="preserve">6.55778980255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491449356079</t>
   </si>
   <si>
     <t xml:space="preserve">6.54635286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47391176223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58066654205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54253959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51203870773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45103549957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959760665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3938455581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578577041626</t>
+    <t xml:space="preserve">6.47391128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4967885017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58066606521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54254007339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.512038230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45103597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43578481674194</t>
   </si>
   <si>
     <t xml:space="preserve">6.42815971374512</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44722270965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4700984954834</t>
+    <t xml:space="preserve">6.44722318649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
     <t xml:space="preserve">6.50060081481934</t>
@@ -353,67 +353,67 @@
     <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58447933197021</t>
+    <t xml:space="preserve">6.58447885513306</t>
   </si>
   <si>
     <t xml:space="preserve">6.66835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5730414390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354328155518</t>
+    <t xml:space="preserve">6.57304096221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354280471802</t>
   </si>
   <si>
     <t xml:space="preserve">6.53872680664062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247339248657</t>
+    <t xml:space="preserve">6.46247386932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591722488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63023090362549</t>
+    <t xml:space="preserve">6.59591674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63023042678833</t>
   </si>
   <si>
     <t xml:space="preserve">6.64166927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6836085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69885969161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67598342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74842405319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76367378234863</t>
+    <t xml:space="preserve">6.68360805511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69885921478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67598295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7484245300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76367425918579</t>
   </si>
   <si>
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96955871582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96193408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05343770980835</t>
+    <t xml:space="preserve">6.969557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96193361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05343723297119</t>
   </si>
   <si>
     <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11443948745728</t>
+    <t xml:space="preserve">7.11444044113159</t>
   </si>
   <si>
     <t xml:space="preserve">7.09156370162964</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768613815308</t>
+    <t xml:space="preserve">7.00768566131592</t>
   </si>
   <si>
     <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93524408340454</t>
+    <t xml:space="preserve">6.9352445602417</t>
   </si>
   <si>
     <t xml:space="preserve">6.98099613189697</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">6.93143177032471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02293491363525</t>
+    <t xml:space="preserve">7.02293539047241</t>
   </si>
   <si>
     <t xml:space="preserve">7.16781759262085</t>
@@ -449,67 +449,67 @@
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169610977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032442092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657688140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095771789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45758056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41564083099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4347038269043</t>
+    <t xml:space="preserve">7.15637874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32032489776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45757961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41564130783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43470430374146</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70159101486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85409736633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07523250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11335754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212112426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23536586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38787174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22011375427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32686901092529</t>
+    <t xml:space="preserve">7.70159149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85409784317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07523155212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11335945129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34212017059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23536396026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38787078857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22011470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974575042725</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525981903076</t>
+    <t xml:space="preserve">8.68525886535645</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69288539886475</t>
+    <t xml:space="preserve">8.69288349151611</t>
   </si>
   <si>
     <t xml:space="preserve">8.80726432800293</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">8.91401958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351726531982</t>
+    <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.92164516448975</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29528713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2876615524292</t>
+    <t xml:space="preserve">9.29528617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28766059875488</t>
   </si>
   <si>
     <t xml:space="preserve">9.42491722106934</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">9.72230529785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916564941406</t>
+    <t xml:space="preserve">9.64605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916469573975</t>
   </si>
   <si>
     <t xml:space="preserve">9.83668518066406</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">9.76043128967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56979942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093456268311</t>
+    <t xml:space="preserve">9.56980037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093265533447</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380939483643</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">10.5610933303833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4848384857178</t>
+    <t xml:space="preserve">10.4848394393921</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.522967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933343887329</t>
   </si>
   <si>
     <t xml:space="preserve">10.0806970596313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0654449462891</t>
+    <t xml:space="preserve">10.0654458999634</t>
   </si>
   <si>
     <t xml:space="preserve">10.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98919296264648</t>
+    <t xml:space="preserve">9.98919200897217</t>
   </si>
   <si>
     <t xml:space="preserve">10.2027015686035</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1188220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950769424438</t>
+    <t xml:space="preserve">10.1188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730714797974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0959463119507</t>
+    <t xml:space="preserve">10.095947265625</t>
   </si>
   <si>
     <t xml:space="preserve">10.1264476776123</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">9.46304416656494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44779396057129</t>
+    <t xml:space="preserve">9.44779300689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.50117111206055</t>
@@ -659,37 +659,37 @@
     <t xml:space="preserve">9.60792446136475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95865154266357</t>
+    <t xml:space="preserve">9.95865249633789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0597171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0286197662354</t>
+    <t xml:space="preserve">10.0286207199097</t>
   </si>
   <si>
     <t xml:space="preserve">9.91200828552246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49997901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50775337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439949035645</t>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5077543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85758876800537</t>
+    <t xml:space="preserve">9.85758972167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">10.4484224319458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4251012802124</t>
+    <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">10.3007144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561977386475</t>
+    <t xml:space="preserve">10.4561967849731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950685501099</t>
+    <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
     <t xml:space="preserve">10.5028419494629</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">10.4639711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406499862671</t>
+    <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
     <t xml:space="preserve">10.4095525741577</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3318119049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.222972869873</t>
+    <t xml:space="preserve">10.3318099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1996517181396</t>
+    <t xml:space="preserve">10.1996507644653</t>
   </si>
   <si>
     <t xml:space="preserve">10.3240356445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3084878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3784561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3395853042603</t>
+    <t xml:space="preserve">10.3084888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3784551620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3395843505859</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540702819824</t>
@@ -788,37 +788,37 @@
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3473596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894197463989</t>
+    <t xml:space="preserve">10.2696180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851657867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3473587036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894207000732</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5572605133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6116800308228</t>
+    <t xml:space="preserve">10.55726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6116790771484</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8449029922485</t>
+    <t xml:space="preserve">10.8449039459229</t>
   </si>
   <si>
     <t xml:space="preserve">10.8604516983032</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049684524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767162322998</t>
+    <t xml:space="preserve">10.7049694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7671632766724</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795188903809</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9431037902832</t>
+    <t xml:space="preserve">9.94310569763184</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0441694259644</t>
+    <t xml:space="preserve">10.04416847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">10.1296844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1141357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1530065536499</t>
+    <t xml:space="preserve">10.1141366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1530075073242</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
@@ -890,61 +890,61 @@
     <t xml:space="preserve">9.98975086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0674905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">10.0674915313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2462949752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2307472229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2151985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90423488616943</t>
+    <t xml:space="preserve">10.2462959289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307481765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.21519947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59326839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43778514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1734676361084</t>
+    <t xml:space="preserve">9.62436580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5932674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43778705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17346572875977</t>
   </si>
   <si>
     <t xml:space="preserve">9.26675605773926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29785251617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31340217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2356595993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32894992828369</t>
+    <t xml:space="preserve">9.22011089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.313401222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23566055297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32894897460938</t>
   </si>
   <si>
     <t xml:space="preserve">9.20456409454346</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">9.06462860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40668964385986</t>
+    <t xml:space="preserve">9.4066915512085</t>
   </si>
   <si>
     <t xml:space="preserve">9.37559413909912</t>
@@ -962,43 +962,43 @@
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0024356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95579051971436</t>
+    <t xml:space="preserve">9.00243473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95579147338867</t>
   </si>
   <si>
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61372947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72256851196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8625020980835</t>
+    <t xml:space="preserve">8.64482593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61373043060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72256755828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
     <t xml:space="preserve">8.47379493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55153656005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62927722930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56708526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69146919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67592239379883</t>
+    <t xml:space="preserve">8.55153560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62927913665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56708431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69147109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67592334747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.58263301849365</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">8.52044105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66037464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53598785400391</t>
+    <t xml:space="preserve">8.66037559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53598880767822</t>
   </si>
   <si>
     <t xml:space="preserve">8.42714977264404</t>
@@ -1025,31 +1025,31 @@
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78475952148438</t>
+    <t xml:space="preserve">8.78476142883301</t>
   </si>
   <si>
     <t xml:space="preserve">8.9402437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92469501495361</t>
+    <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98688697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01798534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03353309631348</t>
+    <t xml:space="preserve">8.98688793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01798343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03353214263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36381149291992</t>
+    <t xml:space="preserve">9.36381244659424</t>
   </si>
   <si>
     <t xml:space="preserve">9.50713634490967</t>
@@ -1067,16 +1067,16 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52306079864502</t>
+    <t xml:space="preserve">9.5230598449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44343662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39566230773926</t>
+    <t xml:space="preserve">9.44343566894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39566135406494</t>
   </si>
   <si>
     <t xml:space="preserve">9.4912109375</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823455810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66638278961182</t>
+    <t xml:space="preserve">9.69823360443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66638374328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">8.82236671447754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75866794586182</t>
+    <t xml:space="preserve">8.7586669921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.59941959381104</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6153450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979541778564</t>
+    <t xml:space="preserve">8.61534404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979446411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">8.69496822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63126754760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44017028808594</t>
+    <t xml:space="preserve">8.63126850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44017124176025</t>
   </si>
   <si>
     <t xml:space="preserve">8.56757068634033</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26499652862549</t>
+    <t xml:space="preserve">8.2649974822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34462261199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12167358398438</t>
+    <t xml:space="preserve">8.3446216583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12167453765869</t>
   </si>
   <si>
     <t xml:space="preserve">7.96242570877075</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">8.08982276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9544620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88280057907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204940795898</t>
+    <t xml:space="preserve">7.95446300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88279962539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04204845428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">8.48794555664062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07716464996338</t>
+    <t xml:space="preserve">9.07716369628906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95303153991699</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">8.91791534423828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83829116821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98161602020264</t>
+    <t xml:space="preserve">8.83829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98161506652832</t>
   </si>
   <si>
     <t xml:space="preserve">8.80644130706787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53571891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90198993682861</t>
+    <t xml:space="preserve">8.535719871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90199089050293</t>
   </si>
   <si>
     <t xml:space="preserve">8.88606643676758</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">8.77459239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04531478881836</t>
+    <t xml:space="preserve">9.04531574249268</t>
   </si>
   <si>
     <t xml:space="preserve">8.9497652053833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99753952026367</t>
+    <t xml:space="preserve">8.99754047393799</t>
   </si>
   <si>
     <t xml:space="preserve">8.66311931610107</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">8.87014198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58349418640137</t>
+    <t xml:space="preserve">8.58349514007568</t>
   </si>
   <si>
     <t xml:space="preserve">8.42424583435059</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">8.64719390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74274253845215</t>
+    <t xml:space="preserve">8.74274349212646</t>
   </si>
   <si>
     <t xml:space="preserve">8.47998142242432</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">8.20129776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28092193603516</t>
+    <t xml:space="preserve">8.28092288970947</t>
   </si>
   <si>
     <t xml:space="preserve">8.24111080169678</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">8.32073402404785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08186149597168</t>
+    <t xml:space="preserve">8.081862449646</t>
   </si>
   <si>
     <t xml:space="preserve">8.13808155059814</t>
@@ -59465,13 +59465,13 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493981481</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>5337</v>
       </c>
       <c r="C2179" t="n">
-        <v>7.1399998664856</v>
+        <v>7.15999984741211</v>
       </c>
       <c r="D2179" t="n">
         <v>7.1399998664856</v>
@@ -59486,6 +59486,32 @@
         <v>827</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6378587963</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>13672</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029663085938</t>
+    <t xml:space="preserve">6.71029615402222</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67216968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58829164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397844314575</t>
+    <t xml:space="preserve">6.67217063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61116743087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58829116821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
     <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.508225440979</t>
+    <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003324508667</t>
+    <t xml:space="preserve">6.39003372192383</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053365707397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44341087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715602874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35190534591675</t>
+    <t xml:space="preserve">6.44340991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35190582275391</t>
   </si>
   <si>
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334419250488</t>
+    <t xml:space="preserve">6.36334466934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.32903051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29090356826782</t>
+    <t xml:space="preserve">6.29090404510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.30615377426147</t>
@@ -98,31 +98,31 @@
     <t xml:space="preserve">6.15746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1650857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11552000045776</t>
+    <t xml:space="preserve">6.18414926528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11552095413208</t>
   </si>
   <si>
     <t xml:space="preserve">5.99351453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926753997803</t>
+    <t xml:space="preserve">6.03926706314087</t>
   </si>
   <si>
     <t xml:space="preserve">6.03545570373535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87151002883911</t>
+    <t xml:space="preserve">5.87151050567627</t>
   </si>
   <si>
     <t xml:space="preserve">5.74950408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92869997024536</t>
+    <t xml:space="preserve">5.92870044708252</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732780456543</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">6.10026931762695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13839721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17652416229248</t>
+    <t xml:space="preserve">6.13839769363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17652320861816</t>
   </si>
   <si>
     <t xml:space="preserve">6.28327894210815</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">6.23752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22990036010742</t>
+    <t xml:space="preserve">6.22990131378174</t>
   </si>
   <si>
     <t xml:space="preserve">6.40528345108032</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.279465675354</t>
+    <t xml:space="preserve">6.27946472167969</t>
   </si>
   <si>
     <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32140445709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38240766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27565240859985</t>
+    <t xml:space="preserve">6.32140493392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38240718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665609359741</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">6.35953140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37096929550171</t>
+    <t xml:space="preserve">6.37096977233887</t>
   </si>
   <si>
     <t xml:space="preserve">6.37859487533569</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364742279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933326721191</t>
+    <t xml:space="preserve">6.15364694595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933374404907</t>
   </si>
   <si>
     <t xml:space="preserve">6.13077163696289</t>
@@ -209,31 +209,31 @@
     <t xml:space="preserve">6.12314605712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90963697433472</t>
+    <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883285522461</t>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95920133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645748138428</t>
+    <t xml:space="preserve">5.95920085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645700454712</t>
   </si>
   <si>
     <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02401638031006</t>
+    <t xml:space="preserve">6.02401685714722</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739448547363</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421499252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19558572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772407531738</t>
+    <t xml:space="preserve">6.26421451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19558668136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772455215454</t>
   </si>
   <si>
     <t xml:space="preserve">6.24515199661255</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996656417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31377983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465015411377</t>
+    <t xml:space="preserve">6.30996608734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31377935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21464967727661</t>
   </si>
   <si>
     <t xml:space="preserve">6.14602184295654</t>
@@ -278,16 +278,16 @@
     <t xml:space="preserve">6.25658941268921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16127300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24896383285522</t>
+    <t xml:space="preserve">6.16127252578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24896430969238</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55778980255127</t>
+    <t xml:space="preserve">6.55779027938843</t>
   </si>
   <si>
     <t xml:space="preserve">6.53491449356079</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">6.54635238647461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47391176223755</t>
+    <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49678802490234</t>
+    <t xml:space="preserve">6.4967885017395</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066654205322</t>
@@ -311,28 +311,28 @@
     <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.512038230896</t>
+    <t xml:space="preserve">6.51203775405884</t>
   </si>
   <si>
     <t xml:space="preserve">6.45103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384651184082</t>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384603500366</t>
   </si>
   <si>
     <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42816019058228</t>
+    <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44722270965576</t>
+    <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
@@ -341,40 +341,40 @@
     <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48535013198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50441265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5501651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46628618240356</t>
+    <t xml:space="preserve">6.48534917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50441312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46628665924072</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447933197021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57304096221924</t>
+    <t xml:space="preserve">6.66835737228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57304048538208</t>
   </si>
   <si>
     <t xml:space="preserve">6.60354280471802</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53872632980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46247386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53110218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591674804688</t>
+    <t xml:space="preserve">6.53872728347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46247339248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5311017036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591722488403</t>
   </si>
   <si>
     <t xml:space="preserve">6.63023090362549</t>
@@ -386,115 +386,115 @@
     <t xml:space="preserve">6.6836085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69885921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67598295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7484245300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76367378234863</t>
+    <t xml:space="preserve">6.69885969161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67598247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74842405319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76367425918579</t>
   </si>
   <si>
     <t xml:space="preserve">6.92761898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96955823898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96193361282349</t>
+    <t xml:space="preserve">6.96955871582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
     <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300254821777</t>
+    <t xml:space="preserve">7.10300207138062</t>
   </si>
   <si>
     <t xml:space="preserve">7.11443996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09156370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93905687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00768613815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387334823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93524408340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143177032471</t>
+    <t xml:space="preserve">7.09156322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581165313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93905735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00768566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387287139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9352445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099660873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143224716187</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16781711578369</t>
+    <t xml:space="preserve">7.16781759262085</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219652175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25169610977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032442092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095819473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45758056640625</t>
+    <t xml:space="preserve">7.15637922286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28219747543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25169563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3203239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657735824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095771789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45757961273193</t>
   </si>
   <si>
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4347038269043</t>
+    <t xml:space="preserve">7.43470430374146</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533807754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70159149169922</t>
+    <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07523250579834</t>
+    <t xml:space="preserve">8.07523345947266</t>
   </si>
   <si>
     <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08285808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961143493652</t>
+    <t xml:space="preserve">8.08285903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961238861084</t>
   </si>
   <si>
     <t xml:space="preserve">8.34212017059326</t>
@@ -506,19 +506,19 @@
     <t xml:space="preserve">8.38787174224854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22011375427246</t>
+    <t xml:space="preserve">8.22011280059814</t>
   </si>
   <si>
     <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34974479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37261962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31161689758301</t>
+    <t xml:space="preserve">8.34974575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
     <t xml:space="preserve">8.68525886535645</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">8.69288444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726432800293</t>
+    <t xml:space="preserve">8.80726528167725</t>
   </si>
   <si>
     <t xml:space="preserve">8.91401958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88351821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92164516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15040493011475</t>
+    <t xml:space="preserve">8.88351917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92164611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15040588378906</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528713226318</t>
@@ -554,151 +554,154 @@
     <t xml:space="preserve">9.42491722106934</t>
   </si>
   <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531253814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5229654312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98919296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950769424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.095947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200828552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5077543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4688835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5229663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044422149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9891939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.095947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.126446723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.013072013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0830402374268</t>
+    <t xml:space="preserve">10.0130710601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484224319458</t>
+    <t xml:space="preserve">10.4484233856201</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
@@ -707,25 +710,25 @@
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007135391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561967849731</t>
+    <t xml:space="preserve">10.3007144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
     <t xml:space="preserve">10.5183906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4950685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.4950675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.72829246521</t>
+    <t xml:space="preserve">10.7282915115356</t>
   </si>
   <si>
     <t xml:space="preserve">10.565034866333</t>
@@ -737,37 +740,37 @@
     <t xml:space="preserve">10.5106163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4639711380005</t>
+    <t xml:space="preserve">10.4639720916748</t>
   </si>
   <si>
     <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4095525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3318109512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2229738235474</t>
+    <t xml:space="preserve">10.409553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3318119049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2229719161987</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4717435836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1841039657593</t>
+    <t xml:space="preserve">10.4717445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.184103012085</t>
   </si>
   <si>
     <t xml:space="preserve">10.1996507644653</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3240356445312</t>
+    <t xml:space="preserve">10.3240365982056</t>
   </si>
   <si>
     <t xml:space="preserve">10.3084878921509</t>
@@ -776,7 +779,7 @@
     <t xml:space="preserve">10.3784561157227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3395853042603</t>
+    <t xml:space="preserve">10.3395862579346</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540702819824</t>
@@ -785,22 +788,22 @@
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851667404175</t>
+    <t xml:space="preserve">10.2696189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851657867432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3473587036133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6505498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6350011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6505508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
@@ -809,10 +812,10 @@
     <t xml:space="preserve">10.5572605133057</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194543838501</t>
+    <t xml:space="preserve">10.6116800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449039459229</t>
@@ -824,10 +827,10 @@
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982597351074</t>
+    <t xml:space="preserve">10.8993215560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7049694061279</t>
@@ -836,19 +839,19 @@
     <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795188903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3629083633423</t>
+    <t xml:space="preserve">10.4795207977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.362907409668</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1219100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642780303955</t>
+    <t xml:space="preserve">10.1219110488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642684936523</t>
   </si>
   <si>
     <t xml:space="preserve">9.94310474395752</t>
@@ -857,7 +860,7 @@
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.04416847229</t>
+    <t xml:space="preserve">10.0441694259644</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
@@ -881,16 +884,16 @@
     <t xml:space="preserve">10.1607799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99752426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98975086212158</t>
+    <t xml:space="preserve">9.99752521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98974990844727</t>
   </si>
   <si>
     <t xml:space="preserve">10.0674915313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -899,10 +902,10 @@
     <t xml:space="preserve">10.2462959289551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2307481765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.21519947052</t>
+    <t xml:space="preserve">10.2307472229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -914,49 +917,49 @@
     <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5932674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43778610229492</t>
+    <t xml:space="preserve">9.59326839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.17346668243408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26675605773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901443481445</t>
+    <t xml:space="preserve">9.26675510406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.313401222229</t>
+    <t xml:space="preserve">9.31340217590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.2356595993042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20456409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06462860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40669059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37559413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572601318359</t>
+    <t xml:space="preserve">9.32894992828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20456314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0646276473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40668964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3755931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572696685791</t>
   </si>
   <si>
     <t xml:space="preserve">9.00243473052979</t>
@@ -971,10 +974,10 @@
     <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61373043060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72256851196289</t>
+    <t xml:space="preserve">8.61372947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86250114440918</t>
@@ -989,7 +992,7 @@
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708526611328</t>
+    <t xml:space="preserve">8.56708431243896</t>
   </si>
   <si>
     <t xml:space="preserve">8.6914701461792</t>
@@ -1001,16 +1004,16 @@
     <t xml:space="preserve">8.58263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52044105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66037559509277</t>
+    <t xml:space="preserve">8.52044010162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66037464141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42714881896973</t>
+    <t xml:space="preserve">8.42715072631836</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
@@ -1022,25 +1025,25 @@
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78476047515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9402437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92469501495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97133922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98688697814941</t>
+    <t xml:space="preserve">8.78476142883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94024276733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9246940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97134017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03353214263916</t>
+    <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
@@ -1049,13 +1052,13 @@
     <t xml:space="preserve">9.36381149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751216888428</t>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1064,67 +1067,67 @@
     <t xml:space="preserve">9.47528648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52306079864502</t>
+    <t xml:space="preserve">9.5230598449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44343662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39566230773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4912109375</t>
+    <t xml:space="preserve">9.44343566894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39566135406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69823455810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66638278961182</t>
+    <t xml:space="preserve">9.69823360443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66638374328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61860942840576</t>
+    <t xml:space="preserve">9.61861038208008</t>
   </si>
   <si>
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008251190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60268497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01346492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82236671447754</t>
+    <t xml:space="preserve">9.73008346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60268402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01346588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82236766815186</t>
   </si>
   <si>
     <t xml:space="preserve">8.75866794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59941959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089458465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6153450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979541778564</t>
+    <t xml:space="preserve">8.59941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61534404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979446411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
@@ -1133,10 +1136,10 @@
     <t xml:space="preserve">8.69496822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63126754760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44017028808594</t>
+    <t xml:space="preserve">8.63126850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44017124176025</t>
   </si>
   <si>
     <t xml:space="preserve">8.56757068634033</t>
@@ -1151,16 +1154,16 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26499652862549</t>
+    <t xml:space="preserve">8.2649974822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40832042694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.4083194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1169,7 +1172,7 @@
     <t xml:space="preserve">8.39239597320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34462261199951</t>
+    <t xml:space="preserve">8.3446216583252</t>
   </si>
   <si>
     <t xml:space="preserve">8.12167358398438</t>
@@ -1181,16 +1184,16 @@
     <t xml:space="preserve">8.05797386169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08982276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9544620513916</t>
+    <t xml:space="preserve">8.08982372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95446252822876</t>
   </si>
   <si>
     <t xml:space="preserve">7.88280057907104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04204940795898</t>
+    <t xml:space="preserve">8.04204845428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.50387096405029</t>
@@ -1205,46 +1208,46 @@
     <t xml:space="preserve">9.95303153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91791534423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829116821289</t>
+    <t xml:space="preserve">8.9179162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829212188721</t>
   </si>
   <si>
     <t xml:space="preserve">8.98161602020264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80644130706787</t>
+    <t xml:space="preserve">8.80644226074219</t>
   </si>
   <si>
     <t xml:space="preserve">8.53571891784668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90198993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88606643676758</t>
+    <t xml:space="preserve">8.90199089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88606739044189</t>
   </si>
   <si>
     <t xml:space="preserve">8.77459239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04531478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9497652053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99753952026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421562194824</t>
+    <t xml:space="preserve">9.04531574249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94976615905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9975414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421657562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.87014198303223</t>
@@ -1256,16 +1259,16 @@
     <t xml:space="preserve">8.42424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64719390869141</t>
+    <t xml:space="preserve">8.64719486236572</t>
   </si>
   <si>
     <t xml:space="preserve">8.74274253845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47998142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923072814941</t>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
   </si>
   <si>
     <t xml:space="preserve">8.55960750579834</t>
@@ -1286,10 +1289,10 @@
     <t xml:space="preserve">8.28092193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24111080169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073402404785</t>
+    <t xml:space="preserve">8.24110984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073307037354</t>
   </si>
   <si>
     <t xml:space="preserve">8.08186149597168</t>
@@ -1319,7 +1322,7 @@
     <t xml:space="preserve">8.44982242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3677864074707</t>
+    <t xml:space="preserve">8.36778545379639</t>
   </si>
   <si>
     <t xml:space="preserve">7.9904146194458</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">8.03963661193848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94119119644165</t>
+    <t xml:space="preserve">7.94119167327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.10526657104492</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">7.95759916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80993223190308</t>
+    <t xml:space="preserve">7.80993270874023</t>
   </si>
   <si>
     <t xml:space="preserve">7.97400760650635</t>
@@ -1349,40 +1352,37 @@
     <t xml:space="preserve">7.87556266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90837717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.826340675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711725234985</t>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
   </si>
   <si>
     <t xml:space="preserve">7.69508075714111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66226720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148824691772</t>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.1544885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12167263031006</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604457855225</t>
+    <t xml:space="preserve">8.05604362487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478513717651</t>
+    <t xml:space="preserve">7.92478466033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352521896362</t>
+    <t xml:space="preserve">8.02322864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59663677215576</t>
+    <t xml:space="preserve">7.5966362953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84274768829346</t>
+    <t xml:space="preserve">7.8427472114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819135665894</t>
+    <t xml:space="preserve">7.49819183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38333988189697</t>
+    <t xml:space="preserve">7.38334035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441398620605</t>
+    <t xml:space="preserve">7.10441446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363645553589</t>
+    <t xml:space="preserve">7.15363597869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196968078613</t>
+    <t xml:space="preserve">7.89196920394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31770992279053</t>
+    <t xml:space="preserve">7.31771039962769</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111661911011</t>
+    <t xml:space="preserve">6.89111709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8583025932312</t>
+    <t xml:space="preserve">6.85830211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996841430664</t>
+    <t xml:space="preserve">6.38248777389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996793746948</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756076812744</t>
+    <t xml:space="preserve">5.21756029129028</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833686828613</t>
+    <t xml:space="preserve">4.95504140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318929672241</t>
+    <t xml:space="preserve">5.28318881988525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037479400635</t>
+    <t xml:space="preserve">5.25037431716919</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426340103149</t>
+    <t xml:space="preserve">5.00426292419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
+    <t xml:space="preserve">4.85659646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281862258911</t>
+    <t xml:space="preserve">4.46281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718866348267</t>
+    <t xml:space="preserve">4.39718818664551</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496563911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83113360404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78190994262695</t>
+    <t xml:space="preserve">3.90496587753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8311333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78191018104553</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137384414673</t>
+    <t xml:space="preserve">3.92137360572815</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1346697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826276779175</t>
+    <t xml:space="preserve">4.13467025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826229095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748428344727</t>
+    <t xml:space="preserve">4.16748476028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20029973983765</t>
+    <t xml:space="preserve">4.18389225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2003002166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155870437622</t>
+    <t xml:space="preserve">4.23311471939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155822753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083583831787</t>
+    <t xml:space="preserve">4.06083631515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802228927612</t>
+    <t xml:space="preserve">4.02802181243896</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97059559822083</t>
+    <t xml:space="preserve">3.9705958366394</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394762992859</t>
+    <t xml:space="preserve">3.73268818855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
+    <t xml:space="preserve">3.74909591674805</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4455578327179</t>
+    <t xml:space="preserve">3.44555807113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28968739509583</t>
+    <t xml:space="preserve">3.2896876335144</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220699310303</t>
+    <t xml:space="preserve">3.55220723152161</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885496139526</t>
+    <t xml:space="preserve">3.65885519981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952220916748</t>
+    <t xml:space="preserve">4.24952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767009735107</t>
+    <t xml:space="preserve">4.57767057418823</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515216827393</t>
+    <t xml:space="preserve">4.31515169143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796619415283</t>
+    <t xml:space="preserve">4.34796667098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630037307739</t>
+    <t xml:space="preserve">5.23396730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630084991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989336013794</t>
+    <t xml:space="preserve">5.06989288330078</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
+    <t xml:space="preserve">4.64330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676213264465</t>
+    <t xml:space="preserve">3.89676189422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9623920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418810844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72729468345642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844608306885</t>
+    <t xml:space="preserve">3.96239185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418858528137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598412513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.727294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844584465027</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598793983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549654960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99352979660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303888320923</t>
+    <t xml:space="preserve">3.94598841667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549607276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99353003501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18369817733765</t>
+    <t xml:space="preserve">4.1836986541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2977991104126</t>
+    <t xml:space="preserve">4.29779863357544</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255981445312</t>
+    <t xml:space="preserve">4.59255933761597</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2217321395874</t>
+    <t xml:space="preserve">4.06008863449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22173166275024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23123979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468191146851</t>
+    <t xml:space="preserve">4.23124027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468143463135</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68926119804382</t>
+    <t xml:space="preserve">3.6892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942934036255</t>
+    <t xml:space="preserve">3.87942910194397</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -13200,7 +13200,7 @@
         <v>10.6122579574585</v>
       </c>
       <c r="G399" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13226,7 +13226,7 @@
         <v>10.9401159286499</v>
       </c>
       <c r="G400" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G402" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13304,7 +13304,7 @@
         <v>11.1903238296509</v>
       </c>
       <c r="G403" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G404" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G405" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13382,7 +13382,7 @@
         <v>11.5699491500854</v>
       </c>
       <c r="G406" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13408,7 +13408,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G407" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13434,7 +13434,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G408" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13460,7 +13460,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G409" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13486,7 +13486,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G410" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13512,7 +13512,7 @@
         <v>11.6734838485718</v>
       </c>
       <c r="G411" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G412" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13564,7 +13564,7 @@
         <v>11.6562280654907</v>
       </c>
       <c r="G413" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G414" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13616,7 +13616,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G415" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G416" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13668,7 +13668,7 @@
         <v>11.7252511978149</v>
       </c>
       <c r="G417" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13694,7 +13694,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G418" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13720,7 +13720,7 @@
         <v>11.6648559570312</v>
       </c>
       <c r="G419" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13746,7 +13746,7 @@
         <v>11.6130886077881</v>
       </c>
       <c r="G420" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13772,7 +13772,7 @@
         <v>11.5872049331665</v>
       </c>
       <c r="G421" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13798,7 +13798,7 @@
         <v>11.5526943206787</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13824,7 +13824,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G423" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13850,7 +13850,7 @@
         <v>11.5440664291382</v>
       </c>
       <c r="G424" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13876,7 +13876,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G425" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13902,7 +13902,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G426" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13928,7 +13928,7 @@
         <v>11.4232759475708</v>
       </c>
       <c r="G427" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
         <v>11.6217155456543</v>
       </c>
       <c r="G428" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G429" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G430" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14032,7 +14032,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G431" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14058,7 +14058,7 @@
         <v>11.4405317306519</v>
       </c>
       <c r="G432" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14084,7 +14084,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14110,7 +14110,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G434" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G435" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14162,7 +14162,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G436" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14188,7 +14188,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G437" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14214,7 +14214,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G438" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14240,7 +14240,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G439" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14266,7 +14266,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G440" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14292,7 +14292,7 @@
         <v>11.3973922729492</v>
       </c>
       <c r="G441" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14318,7 +14318,7 @@
         <v>11.4146480560303</v>
       </c>
       <c r="G442" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14344,7 +14344,7 @@
         <v>11.4836711883545</v>
       </c>
       <c r="G443" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14370,7 +14370,7 @@
         <v>11.6476001739502</v>
       </c>
       <c r="G444" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14396,7 +14396,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14422,7 +14422,7 @@
         <v>11.8029012680054</v>
       </c>
       <c r="G446" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14448,7 +14448,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G447" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14474,7 +14474,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14500,7 +14500,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G449" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14526,7 +14526,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G450" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14552,7 +14552,7 @@
         <v>11.8546686172485</v>
       </c>
       <c r="G451" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14578,7 +14578,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G452" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>11.7770175933838</v>
       </c>
       <c r="G453" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14630,7 +14630,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G454" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14656,7 +14656,7 @@
         <v>11.9064359664917</v>
       </c>
       <c r="G455" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14682,7 +14682,7 @@
         <v>12.0358533859253</v>
       </c>
       <c r="G456" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14708,7 +14708,7 @@
         <v>12.0531091690063</v>
       </c>
       <c r="G457" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14734,7 +14734,7 @@
         <v>12.0789928436279</v>
       </c>
       <c r="G458" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14760,7 +14760,7 @@
         <v>12.0962476730347</v>
       </c>
       <c r="G459" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14786,7 +14786,7 @@
         <v>11.9840860366821</v>
       </c>
       <c r="G460" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14812,7 +14812,7 @@
         <v>11.8805522918701</v>
       </c>
       <c r="G461" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14838,7 +14838,7 @@
         <v>11.8201570510864</v>
       </c>
       <c r="G462" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14864,7 +14864,7 @@
         <v>11.8632955551147</v>
       </c>
       <c r="G463" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14890,7 +14890,7 @@
         <v>11.9495754241943</v>
       </c>
       <c r="G464" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14916,7 +14916,7 @@
         <v>11.7856464385986</v>
       </c>
       <c r="G465" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14942,7 +14942,7 @@
         <v>11.6044607162476</v>
       </c>
       <c r="G466" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14968,7 +14968,7 @@
         <v>11.7166233062744</v>
       </c>
       <c r="G467" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14994,7 +14994,7 @@
         <v>11.5613222122192</v>
       </c>
       <c r="G468" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15020,7 +15020,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G469" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15046,7 +15046,7 @@
         <v>11.7338790893555</v>
       </c>
       <c r="G470" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15072,7 +15072,7 @@
         <v>11.682110786438</v>
       </c>
       <c r="G471" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15098,7 +15098,7 @@
         <v>11.6303443908691</v>
       </c>
       <c r="G472" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15124,7 +15124,7 @@
         <v>11.578577041626</v>
       </c>
       <c r="G473" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15150,7 +15150,7 @@
         <v>11.5181818008423</v>
       </c>
       <c r="G474" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15176,7 +15176,7 @@
         <v>11.5009269714355</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15202,7 +15202,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G476" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15254,7 +15254,7 @@
         <v>11.2334632873535</v>
       </c>
       <c r="G478" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15280,7 +15280,7 @@
         <v>11.0609064102173</v>
       </c>
       <c r="G479" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15306,7 +15306,7 @@
         <v>11.0350227355957</v>
       </c>
       <c r="G480" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15332,7 +15332,7 @@
         <v>10.957371711731</v>
       </c>
       <c r="G481" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15384,7 +15384,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G483" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15410,7 +15410,7 @@
         <v>11.1126728057861</v>
       </c>
       <c r="G484" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15436,7 +15436,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G485" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15462,7 +15462,7 @@
         <v>11.2507190704346</v>
       </c>
       <c r="G486" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15488,7 +15488,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G487" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>11.3456249237061</v>
       </c>
       <c r="G488" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15540,7 +15540,7 @@
         <v>11.4319038391113</v>
       </c>
       <c r="G489" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15566,7 +15566,7 @@
         <v>11.3111143112183</v>
       </c>
       <c r="G490" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15592,7 +15592,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G491" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15618,7 +15618,7 @@
         <v>11.492299079895</v>
       </c>
       <c r="G492" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15644,7 +15644,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G493" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15670,7 +15670,7 @@
         <v>11.4664154052734</v>
       </c>
       <c r="G494" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15696,7 +15696,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G495" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15722,7 +15722,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G496" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15748,7 +15748,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G497" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15774,7 +15774,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G498" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15800,7 +15800,7 @@
         <v>11.224835395813</v>
       </c>
       <c r="G499" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15826,7 +15826,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G500" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15852,7 +15852,7 @@
         <v>11.2766017913818</v>
       </c>
       <c r="G501" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15878,7 +15878,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G502" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15904,7 +15904,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G503" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15956,7 +15956,7 @@
         <v>11.0954179763794</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15982,7 +15982,7 @@
         <v>11.0867900848389</v>
       </c>
       <c r="G506" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16008,7 +16008,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G507" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16034,7 +16034,7 @@
         <v>11.1730680465698</v>
       </c>
       <c r="G508" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16060,7 +16060,7 @@
         <v>11.242091178894</v>
       </c>
       <c r="G509" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16086,7 +16086,7 @@
         <v>11.2593469619751</v>
       </c>
       <c r="G510" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16112,7 +16112,7 @@
         <v>11.2852296829224</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16138,7 +16138,7 @@
         <v>11.3801374435425</v>
       </c>
       <c r="G512" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16164,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G513" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16190,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G514" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16216,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G515" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G516" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16268,7 +16268,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G517" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16294,7 +16294,7 @@
         <v>11.4577865600586</v>
       </c>
       <c r="G518" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16320,7 +16320,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G519" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16346,7 +16346,7 @@
         <v>11.3542528152466</v>
       </c>
       <c r="G520" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16372,7 +16372,7 @@
         <v>11.475043296814</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
         <v>11.3369970321655</v>
       </c>
       <c r="G522" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16424,7 +16424,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G523" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16450,7 +16450,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G524" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16476,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G525" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16502,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G526" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G527" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16554,7 +16554,7 @@
         <v>11.3197422027588</v>
       </c>
       <c r="G528" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16580,7 +16580,7 @@
         <v>11.3024864196777</v>
       </c>
       <c r="G529" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16606,7 +16606,7 @@
         <v>11.595832824707</v>
       </c>
       <c r="G530" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16632,7 +16632,7 @@
         <v>11.2162065505981</v>
       </c>
       <c r="G531" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16658,7 +16658,7 @@
         <v>11.1471853256226</v>
       </c>
       <c r="G532" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16684,7 +16684,7 @@
         <v>11.3887643814087</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16710,7 +16710,7 @@
         <v>11.3715085983276</v>
       </c>
       <c r="G534" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16736,7 +16736,7 @@
         <v>11.2679748535156</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16762,7 +16762,7 @@
         <v>10.9918832778931</v>
       </c>
       <c r="G536" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16788,7 +16788,7 @@
         <v>10.7503032684326</v>
       </c>
       <c r="G537" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16814,7 +16814,7 @@
         <v>10.6812810897827</v>
       </c>
       <c r="G538" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16840,7 +16840,7 @@
         <v>10.6467685699463</v>
       </c>
       <c r="G539" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G541" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G542" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16944,7 +16944,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G543" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16970,7 +16970,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G544" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16996,7 +16996,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G545" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17022,7 +17022,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G546" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17048,7 +17048,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G547" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17074,7 +17074,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17100,7 +17100,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G549" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17126,7 +17126,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G550" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17152,7 +17152,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G551" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17178,7 +17178,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G552" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G553" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17230,7 +17230,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G554" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17256,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G555" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17282,7 +17282,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G556" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G557" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17334,7 +17334,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G558" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
         <v>10.4397010803223</v>
       </c>
       <c r="G559" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17386,7 +17386,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G560" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17412,7 +17412,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G561" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17438,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G562" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17464,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G563" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>10.249888420105</v>
       </c>
       <c r="G564" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17516,7 +17516,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G565" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17542,7 +17542,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G566" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17568,7 +17568,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G567" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17594,7 +17594,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G568" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17620,7 +17620,7 @@
         <v>9.88751792907715</v>
       </c>
       <c r="G569" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17646,7 +17646,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G570" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17672,7 +17672,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G571" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17698,7 +17698,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G572" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17724,7 +17724,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G573" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G574" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G575" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G576" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17828,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G577" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17854,7 +17854,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17880,7 +17880,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G579" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17906,7 +17906,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G580" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17932,7 +17932,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G581" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17958,7 +17958,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G582" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17984,7 +17984,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G584" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18036,7 +18036,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G585" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18062,7 +18062,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G586" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18088,7 +18088,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G587" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18114,7 +18114,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G588" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18140,7 +18140,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G589" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18166,7 +18166,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G590" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18192,7 +18192,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G591" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18218,7 +18218,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G592" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18244,7 +18244,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G593" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18270,7 +18270,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G594" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18296,7 +18296,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G595" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18322,7 +18322,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G596" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18348,7 +18348,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G597" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18374,7 +18374,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G598" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18400,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G599" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18426,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G600" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18452,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G601" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18478,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G602" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18504,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G603" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18530,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G604" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18556,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G605" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18582,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G606" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18608,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G607" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18634,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G608" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18660,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G609" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18686,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G610" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18712,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G611" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18738,7 +18738,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G612" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G613" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18790,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G614" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18816,7 +18816,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G615" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18842,7 +18842,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G616" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18894,7 @@
         <v>9.71496105194092</v>
       </c>
       <c r="G618" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18920,7 +18920,7 @@
         <v>9.68045043945312</v>
       </c>
       <c r="G619" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18972,7 +18972,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G621" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18998,7 +18998,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G622" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19024,7 +19024,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G623" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19050,7 +19050,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19076,7 +19076,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19102,7 @@
         <v>9.9047737121582</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19128,7 @@
         <v>9.95654106140137</v>
       </c>
       <c r="G627" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19154,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G628" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19180,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G629" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19206,7 +19206,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G630" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G631" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19258,7 +19258,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19284,7 +19284,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G633" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19310,7 +19310,7 @@
         <v>9.97379684448242</v>
       </c>
       <c r="G634" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19336,7 +19336,7 @@
         <v>9.92203044891357</v>
       </c>
       <c r="G635" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19362,7 +19362,7 @@
         <v>9.93928527832031</v>
       </c>
       <c r="G636" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19388,7 +19388,7 @@
         <v>9.99105167388916</v>
       </c>
       <c r="G637" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19414,7 +19414,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G638" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19440,7 +19440,7 @@
         <v>10.0083084106445</v>
       </c>
       <c r="G639" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>10.0600748062134</v>
       </c>
       <c r="G640" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19492,7 +19492,7 @@
         <v>10.0255641937256</v>
       </c>
       <c r="G641" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19518,7 +19518,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G642" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19544,7 +19544,7 @@
         <v>10.0945873260498</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19570,7 +19570,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G644" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19596,7 +19596,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G645" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19622,7 +19622,7 @@
         <v>10.1290979385376</v>
       </c>
       <c r="G646" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19648,7 +19648,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G647" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19674,7 +19674,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G648" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19700,7 +19700,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G649" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19726,7 +19726,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G650" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19752,7 +19752,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G651" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19778,7 +19778,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G652" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19804,7 +19804,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G653" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G654" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19856,7 +19856,7 @@
         <v>10.2153768539429</v>
       </c>
       <c r="G655" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19882,7 +19882,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G656" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19908,7 +19908,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G657" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19934,7 +19934,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G658" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19960,7 +19960,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G659" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G660" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20012,7 +20012,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G661" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20038,7 +20038,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G662" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20064,7 +20064,7 @@
         <v>10.1463537216187</v>
       </c>
       <c r="G663" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20090,7 +20090,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G664" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20116,7 +20116,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G665" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20142,7 +20142,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G666" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20168,7 +20168,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G667" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20194,7 +20194,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G668" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20220,7 +20220,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G669" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20246,7 +20246,7 @@
         <v>10.2326316833496</v>
       </c>
       <c r="G670" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G671" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20298,7 +20298,7 @@
         <v>10.1981210708618</v>
       </c>
       <c r="G672" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20324,7 +20324,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20350,7 +20350,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G674" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20376,7 +20376,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G675" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20402,7 +20402,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G676" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20428,7 +20428,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G677" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20454,7 +20454,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G678" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20480,7 +20480,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G679" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20506,7 +20506,7 @@
         <v>10.3361673355103</v>
       </c>
       <c r="G680" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20532,7 +20532,7 @@
         <v>10.267144203186</v>
       </c>
       <c r="G681" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20558,7 +20558,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G682" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20584,7 +20584,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G683" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20610,7 +20610,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G684" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20636,7 +20636,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G685" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20662,7 +20662,7 @@
         <v>10.5087242126465</v>
       </c>
       <c r="G686" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20688,7 +20688,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G687" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G688" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20740,7 +20740,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G689" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20766,7 +20766,7 @@
         <v>10.4224452972412</v>
       </c>
       <c r="G690" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20792,7 +20792,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G691" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20818,7 +20818,7 @@
         <v>10.4742116928101</v>
       </c>
       <c r="G692" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         <v>10.5432348251343</v>
       </c>
       <c r="G693" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20870,7 +20870,7 @@
         <v>10.5604906082153</v>
       </c>
       <c r="G694" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20896,7 +20896,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G695" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20922,7 +20922,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G696" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>10.353422164917</v>
       </c>
       <c r="G697" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G698" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21000,7 +21000,7 @@
         <v>10.370677947998</v>
       </c>
       <c r="G699" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21026,7 +21026,7 @@
         <v>10.5259790420532</v>
       </c>
       <c r="G700" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21052,7 +21052,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G701" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21078,7 +21078,7 @@
         <v>10.4051885604858</v>
       </c>
       <c r="G702" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21104,7 +21104,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G703" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21130,7 +21130,7 @@
         <v>10.3189105987549</v>
       </c>
       <c r="G704" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21156,7 +21156,7 @@
         <v>10.2843990325928</v>
       </c>
       <c r="G705" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21182,7 +21182,7 @@
         <v>10.3016548156738</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21208,7 +21208,7 @@
         <v>10.1808652877808</v>
       </c>
       <c r="G707" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21234,7 +21234,7 @@
         <v>9.76672840118408</v>
       </c>
       <c r="G708" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21260,7 +21260,7 @@
         <v>9.55965995788574</v>
       </c>
       <c r="G709" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21286,7 +21286,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G710" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21312,7 +21312,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G711" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21338,7 +21338,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G712" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21364,7 +21364,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G713" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21390,7 +21390,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G714" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21416,7 +21416,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G715" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21442,7 +21442,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G716" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21468,7 +21468,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G717" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21494,7 +21494,7 @@
         <v>9.35259056091309</v>
       </c>
       <c r="G718" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G719" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21546,7 +21546,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G720" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21572,7 +21572,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G721" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21598,7 +21598,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G722" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21624,7 +21624,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21650,7 +21650,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G724" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G725" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21702,7 +21702,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G726" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21728,7 +21728,7 @@
         <v>9.02473258972168</v>
       </c>
       <c r="G727" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21754,7 +21754,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G728" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21780,7 +21780,7 @@
         <v>8.92119884490967</v>
       </c>
       <c r="G729" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21806,7 +21806,7 @@
         <v>8.95571041107178</v>
       </c>
       <c r="G730" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21832,7 +21832,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G731" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21858,7 +21858,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G732" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21884,7 +21884,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G733" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21910,7 +21910,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G734" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21936,7 +21936,7 @@
         <v>9.45612621307373</v>
       </c>
       <c r="G735" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21962,7 +21962,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G736" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21988,7 +21988,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22014,7 +22014,7 @@
         <v>9.04198932647705</v>
       </c>
       <c r="G738" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22040,7 +22040,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G739" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22066,7 +22066,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G740" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22092,7 +22092,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22118,7 +22118,7 @@
         <v>8.73138618469238</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>8.76589679718018</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22170,7 +22170,7 @@
         <v>8.61922359466553</v>
       </c>
       <c r="G744" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22196,7 +22196,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G745" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22222,7 +22222,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G746" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22248,7 +22248,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G747" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G748" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22300,7 +22300,7 @@
         <v>9.16277885437012</v>
       </c>
       <c r="G749" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22326,7 +22326,7 @@
         <v>9.19729042053223</v>
       </c>
       <c r="G750" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22352,7 +22352,7 @@
         <v>9.83575057983398</v>
       </c>
       <c r="G751" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22378,7 +22378,7 @@
         <v>10.7848148345947</v>
       </c>
       <c r="G752" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22404,7 +22404,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G753" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22430,7 +22430,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G754" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22456,7 +22456,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G755" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22482,7 +22482,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G756" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22508,7 +22508,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G757" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22534,7 +22534,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G758" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22560,7 +22560,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G759" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22586,7 +22586,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22612,7 +22612,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G761" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22638,7 +22638,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G762" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22664,7 +22664,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G763" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22690,7 +22690,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G764" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22716,7 +22716,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G765" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G766" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22768,7 +22768,7 @@
         <v>9.62868309020996</v>
       </c>
       <c r="G767" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22794,7 +22794,7 @@
         <v>9.66319370269775</v>
       </c>
       <c r="G768" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22820,7 +22820,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G769" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22846,7 +22846,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G770" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22872,7 +22872,7 @@
         <v>9.5769157409668</v>
       </c>
       <c r="G771" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22898,7 +22898,7 @@
         <v>9.80123996734619</v>
       </c>
       <c r="G772" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22924,7 +22924,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G773" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22950,7 +22950,7 @@
         <v>9.69770526885986</v>
       </c>
       <c r="G774" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22976,7 +22976,7 @@
         <v>9.74947261810303</v>
       </c>
       <c r="G775" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23002,7 +23002,7 @@
         <v>9.73221683502197</v>
       </c>
       <c r="G776" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23028,7 +23028,7 @@
         <v>9.38710308074951</v>
       </c>
       <c r="G777" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23054,7 +23054,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G778" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23080,7 +23080,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G779" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23106,7 +23106,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G780" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23132,7 +23132,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G781" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23158,7 +23158,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G782" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23184,7 +23184,7 @@
         <v>9.54240417480469</v>
       </c>
       <c r="G783" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23210,7 +23210,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G784" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23236,7 +23236,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G785" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23262,7 +23262,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G786" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23288,7 +23288,7 @@
         <v>9.59417057037354</v>
       </c>
       <c r="G787" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23314,7 +23314,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G788" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G789" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23366,7 +23366,7 @@
         <v>9.49063682556152</v>
       </c>
       <c r="G790" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23392,7 +23392,7 @@
         <v>9.6459379196167</v>
       </c>
       <c r="G791" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23418,7 +23418,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G792" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23444,7 +23444,7 @@
         <v>9.52514839172363</v>
       </c>
       <c r="G793" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23470,7 +23470,7 @@
         <v>9.61142730712891</v>
       </c>
       <c r="G794" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23496,7 +23496,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G795" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23522,7 +23522,7 @@
         <v>9.50789260864258</v>
       </c>
       <c r="G796" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23548,7 +23548,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G797" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23574,7 +23574,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G798" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23600,7 +23600,7 @@
         <v>9.26631259918213</v>
       </c>
       <c r="G799" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23626,7 +23626,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G800" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23652,7 +23652,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G801" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23678,7 +23678,7 @@
         <v>9.12826728820801</v>
       </c>
       <c r="G802" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23704,7 +23704,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G803" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G804" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23756,7 +23756,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23782,7 +23782,7 @@
         <v>9.43887042999268</v>
       </c>
       <c r="G806" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23808,7 +23808,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G807" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23834,7 +23834,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G808" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23860,7 +23860,7 @@
         <v>9.47338104248047</v>
       </c>
       <c r="G809" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23886,7 +23886,7 @@
         <v>9.33533573150635</v>
       </c>
       <c r="G810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23912,7 +23912,7 @@
         <v>9.4216136932373</v>
       </c>
       <c r="G811" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23938,7 +23938,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G812" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23964,7 +23964,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G813" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23990,7 +23990,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G814" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24016,7 +24016,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G815" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24042,7 +24042,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24068,7 +24068,7 @@
         <v>9.30082416534424</v>
       </c>
       <c r="G817" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24094,7 +24094,7 @@
         <v>9.36984729766846</v>
       </c>
       <c r="G818" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G819" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24146,7 +24146,7 @@
         <v>9.0937557220459</v>
       </c>
       <c r="G820" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24172,7 +24172,7 @@
         <v>9.18003368377686</v>
       </c>
       <c r="G821" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24198,7 +24198,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G822" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24224,7 +24224,7 @@
         <v>9.2835693359375</v>
       </c>
       <c r="G823" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24250,7 +24250,7 @@
         <v>9.21454620361328</v>
       </c>
       <c r="G824" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24276,7 +24276,7 @@
         <v>9.11101055145264</v>
       </c>
       <c r="G825" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24302,7 +24302,7 @@
         <v>9.24905681610107</v>
       </c>
       <c r="G826" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24328,7 +24328,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G827" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24354,7 +24354,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G828" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24380,7 +24380,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G829" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24406,7 +24406,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G830" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24432,7 +24432,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G831" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24458,7 +24458,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G832" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24484,7 +24484,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24510,7 +24510,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G834" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24536,7 +24536,7 @@
         <v>9.36121940612793</v>
       </c>
       <c r="G835" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24562,7 +24562,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G836" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24588,7 +24588,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G837" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24614,7 +24614,7 @@
         <v>9.40435791015625</v>
       </c>
       <c r="G838" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24640,7 +24640,7 @@
         <v>9.31807994842529</v>
       </c>
       <c r="G839" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24666,7 +24666,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G840" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24692,7 +24692,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G841" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24718,7 +24718,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G842" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24744,7 +24744,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G843" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24770,7 +24770,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G844" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24796,7 +24796,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G845" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24822,7 +24822,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G846" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24848,7 +24848,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G847" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24874,7 +24874,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G848" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24900,7 +24900,7 @@
         <v>9.27494144439697</v>
       </c>
       <c r="G849" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24926,7 +24926,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G850" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G851" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24978,7 +24978,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G852" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25004,7 +25004,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G853" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G854" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G855" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25082,7 +25082,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G856" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25108,7 +25108,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G857" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25134,7 +25134,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G858" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25160,7 +25160,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G859" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25186,7 +25186,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G860" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25212,7 +25212,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G861" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25238,7 +25238,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G862" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25264,7 +25264,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G863" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25290,7 +25290,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G864" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25316,7 +25316,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G865" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25342,7 +25342,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G866" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25368,7 +25368,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G867" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25394,7 +25394,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G868" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25420,7 +25420,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G869" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25446,7 +25446,7 @@
         <v>9.23180103302002</v>
       </c>
       <c r="G870" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25472,7 +25472,7 @@
         <v>9.18866157531738</v>
       </c>
       <c r="G871" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25498,7 +25498,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G872" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25524,7 +25524,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G873" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25550,7 +25550,7 @@
         <v>9.10238361358643</v>
       </c>
       <c r="G874" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>9.05924415588379</v>
       </c>
       <c r="G875" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25602,7 +25602,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G876" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25628,7 +25628,7 @@
         <v>9.14552307128906</v>
       </c>
       <c r="G877" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G878" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25680,7 +25680,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G879" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25706,7 +25706,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G880" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25732,7 +25732,7 @@
         <v>9.01610469818115</v>
       </c>
       <c r="G881" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25758,7 +25758,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G882" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25784,7 +25784,7 @@
         <v>8.97296619415283</v>
       </c>
       <c r="G883" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25810,7 +25810,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G884" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25836,7 +25836,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G885" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25862,7 +25862,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G886" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25888,7 +25888,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G887" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G888" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G889" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G890" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G891" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G892" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G893" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G894" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G895" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G896" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>8.84354782104492</v>
       </c>
       <c r="G897" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G898" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>8.67099094390869</v>
       </c>
       <c r="G899" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G900" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G901" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G902" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26304,7 +26304,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G903" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G904" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G905" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G906" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G907" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G908" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>8.8004093170166</v>
       </c>
       <c r="G909" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G910" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G911" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G912" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G913" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G914" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G915" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G916" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G917" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G918" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G919" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G920" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G921" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G922" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26824,7 +26824,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G923" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26850,7 +26850,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G924" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G925" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26902,7 +26902,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G926" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G927" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G928" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G929" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27006,7 +27006,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G930" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G931" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>8.23097133636475</v>
       </c>
       <c r="G932" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G933" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>8.09292507171631</v>
       </c>
       <c r="G934" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27136,7 +27136,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G935" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27162,7 +27162,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G936" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27188,7 +27188,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G937" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27214,7 +27214,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G938" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27240,7 +27240,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G939" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G940" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G942" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27344,7 +27344,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G943" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27370,7 +27370,7 @@
         <v>8.75726985931396</v>
       </c>
       <c r="G944" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>8.88668727874756</v>
       </c>
       <c r="G945" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>8.9298267364502</v>
       </c>
       <c r="G946" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27448,7 +27448,7 @@
         <v>8.71413040161133</v>
       </c>
       <c r="G947" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27474,7 +27474,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27500,7 +27500,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G949" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27526,7 +27526,7 @@
         <v>8.52431774139404</v>
       </c>
       <c r="G950" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27552,7 +27552,7 @@
         <v>8.57608509063721</v>
       </c>
       <c r="G951" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27604,7 +27604,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G953" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27760,7 +27760,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G959" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27812,7 +27812,7 @@
         <v>8.21371459960938</v>
       </c>
       <c r="G961" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G962" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G964" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G965" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G966" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G967" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G968" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G969" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G970" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G971" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G972" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G975" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G976" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G977" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G981" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>8.54157257080078</v>
       </c>
       <c r="G982" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28384,7 +28384,7 @@
         <v>8.55882930755615</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28410,7 +28410,7 @@
         <v>8.62785243988037</v>
       </c>
       <c r="G984" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>8.45529460906982</v>
       </c>
       <c r="G987" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G988" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>8.05841445922852</v>
       </c>
       <c r="G991" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G994" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>8.11018085479736</v>
       </c>
       <c r="G998" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1016" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1017" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>8.17920303344727</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1021" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1022" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>8.36901569366455</v>
       </c>
       <c r="G1024" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1025" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>8.3517599105835</v>
       </c>
       <c r="G1026" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>8.40352821350098</v>
       </c>
       <c r="G1027" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1028" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1029" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1030" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>8.42078304290771</v>
       </c>
       <c r="G1031" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29684,7 +29684,7 @@
         <v>8.38627243041992</v>
       </c>
       <c r="G1033" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29710,7 +29710,7 @@
         <v>8.3172492980957</v>
       </c>
       <c r="G1034" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29736,7 +29736,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1035" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29762,7 +29762,7 @@
         <v>8.28273773193359</v>
       </c>
       <c r="G1036" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -59566,7 +59566,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6496296296</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>79784</v>
@@ -59587,6 +59587,32 @@
         <v>824</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6493518519</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>6022</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>824</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -50,16 +50,16 @@
     <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58829164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55397844314575</t>
+    <t xml:space="preserve">6.58829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55397796630859</t>
   </si>
   <si>
     <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.508225440979</t>
+    <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">6.36715650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34428119659424</t>
+    <t xml:space="preserve">6.35190534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34428071975708</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334371566772</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">6.30615425109863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15745973587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18414926528931</t>
+    <t xml:space="preserve">6.1574592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18414878845215</t>
   </si>
   <si>
     <t xml:space="preserve">6.16508531570435</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">5.99351453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03926753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03545522689819</t>
+    <t xml:space="preserve">6.03926706314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03545570373535</t>
   </si>
   <si>
     <t xml:space="preserve">5.87151050567627</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">5.74950456619263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92870044708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732828140259</t>
+    <t xml:space="preserve">5.92869997024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732780456543</t>
   </si>
   <si>
     <t xml:space="preserve">6.10026979446411</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25277614593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19939851760864</t>
+    <t xml:space="preserve">6.25277662277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1993989944458</t>
   </si>
   <si>
     <t xml:space="preserve">6.23752641677856</t>
@@ -161,34 +161,34 @@
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.279465675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19177389144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140493392944</t>
+    <t xml:space="preserve">6.27946519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19177436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140445709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240814208984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565240859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3366551399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35953092575073</t>
+    <t xml:space="preserve">6.2756519317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33665609359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35953140258789</t>
   </si>
   <si>
     <t xml:space="preserve">6.37096929550171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214332580566</t>
+    <t xml:space="preserve">6.37859487533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214284896851</t>
   </si>
   <si>
     <t xml:space="preserve">6.09264421463013</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">6.15364742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11933326721191</t>
+    <t xml:space="preserve">6.11933374404907</t>
   </si>
   <si>
     <t xml:space="preserve">6.13077163696289</t>
@@ -224,22 +224,22 @@
     <t xml:space="preserve">6.1078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95920085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98207759857178</t>
+    <t xml:space="preserve">5.95920133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645700454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98207807540894</t>
   </si>
   <si>
     <t xml:space="preserve">6.02401685714722</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07739400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02782964706421</t>
+    <t xml:space="preserve">6.07739448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02782917022705</t>
   </si>
   <si>
     <t xml:space="preserve">6.26421499252319</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">6.27184009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47772455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24515199661255</t>
+    <t xml:space="preserve">6.4777250289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24515247344971</t>
   </si>
   <si>
     <t xml:space="preserve">6.18033647537231</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">6.31759166717529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30996704101562</t>
+    <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
     <t xml:space="preserve">6.31377983093262</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14602184295654</t>
+    <t xml:space="preserve">6.14602136611938</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55778980255127</t>
+    <t xml:space="preserve">6.55778932571411</t>
   </si>
   <si>
     <t xml:space="preserve">6.53491401672363</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">6.54635286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47391128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404369354248</t>
+    <t xml:space="preserve">6.47391176223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404321670532</t>
   </si>
   <si>
     <t xml:space="preserve">6.49678802490234</t>
@@ -308,28 +308,28 @@
     <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54253959655762</t>
+    <t xml:space="preserve">6.54254007339478</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103549957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578577041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42816019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45866012573242</t>
+    <t xml:space="preserve">6.45103597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384603500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4357852935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42815971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722318649292</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060033798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48535013198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50441265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55016565322876</t>
+    <t xml:space="preserve">6.50060081481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48534965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50441217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5501651763916</t>
   </si>
   <si>
     <t xml:space="preserve">6.46628618240356</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">6.58447885513306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66835737228394</t>
+    <t xml:space="preserve">6.66835689544678</t>
   </si>
   <si>
     <t xml:space="preserve">6.5730414390564</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">6.63023090362549</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64166927337646</t>
+    <t xml:space="preserve">6.64166975021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.68360900878906</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598342895508</t>
+    <t xml:space="preserve">6.67598295211792</t>
   </si>
   <si>
     <t xml:space="preserve">6.7484245300293</t>
@@ -398,28 +398,28 @@
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96955823898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96193361282349</t>
+    <t xml:space="preserve">6.92761850357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96955871582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96193408966064</t>
   </si>
   <si>
     <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10300207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11443996429443</t>
+    <t xml:space="preserve">7.10300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11443948745728</t>
   </si>
   <si>
     <t xml:space="preserve">7.09156370162964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04581212997437</t>
+    <t xml:space="preserve">7.04581165313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">7.15637922286987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28219747543335</t>
+    <t xml:space="preserve">7.28219699859619</t>
   </si>
   <si>
     <t xml:space="preserve">7.25169563293457</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">7.32032442092896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39657688140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095724105835</t>
+    <t xml:space="preserve">7.39657640457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095676422119</t>
   </si>
   <si>
     <t xml:space="preserve">7.45758056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564083099365</t>
+    <t xml:space="preserve">7.41564035415649</t>
   </si>
   <si>
     <t xml:space="preserve">7.4347038269043</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">7.62533903121948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70159149169922</t>
+    <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409736633301</t>
@@ -488,16 +488,16 @@
     <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11335849761963</t>
+    <t xml:space="preserve">8.11335754394531</t>
   </si>
   <si>
     <t xml:space="preserve">8.08285713195801</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212112426758</t>
+    <t xml:space="preserve">8.18961334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
     <t xml:space="preserve">8.23536491394043</t>
@@ -509,16 +509,16 @@
     <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34974479675293</t>
+    <t xml:space="preserve">8.32686901092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34974384307861</t>
   </si>
   <si>
     <t xml:space="preserve">8.37261962890625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31161689758301</t>
+    <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
     <t xml:space="preserve">8.68525981903076</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">8.69288539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726528167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91402053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88351726531982</t>
+    <t xml:space="preserve">8.80726432800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91401958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.92164516448975</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">9.15040493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29528617858887</t>
+    <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
     <t xml:space="preserve">9.28766250610352</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">9.42491817474365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56217479705811</t>
+    <t xml:space="preserve">9.56217384338379</t>
   </si>
   <si>
     <t xml:space="preserve">9.72230625152588</t>
@@ -563,28 +563,28 @@
     <t xml:space="preserve">9.64605331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77568244934082</t>
+    <t xml:space="preserve">9.77568340301514</t>
   </si>
   <si>
     <t xml:space="preserve">9.27241134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37916469573975</t>
+    <t xml:space="preserve">9.37916564941406</t>
   </si>
   <si>
     <t xml:space="preserve">9.83668518066406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979942321777</t>
+    <t xml:space="preserve">9.76043033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
   </si>
   <si>
     <t xml:space="preserve">9.67655277252197</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79093456268311</t>
+    <t xml:space="preserve">9.79093360900879</t>
   </si>
   <si>
     <t xml:space="preserve">9.81380939483643</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">9.90531444549561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2179536819458</t>
+    <t xml:space="preserve">10.2179527282715</t>
   </si>
   <si>
     <t xml:space="preserve">10.5610933303833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4848384857178</t>
+    <t xml:space="preserve">10.4848394393921</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560787200928</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">10.3933343887329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044441223145</t>
   </si>
   <si>
     <t xml:space="preserve">9.9891939163208</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">10.1188220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950769424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730724334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0959463119507</t>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.095947265625</t>
   </si>
   <si>
     <t xml:space="preserve">10.1264476776123</t>
@@ -644,10 +644,10 @@
     <t xml:space="preserve">9.93581485748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
+    <t xml:space="preserve">9.46304321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779396057129</t>
   </si>
   <si>
     <t xml:space="preserve">9.50117015838623</t>
@@ -59621,13 +59621,13 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6496296296</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>30227</v>
       </c>
       <c r="C2185" t="n">
-        <v>7.1399998664856</v>
+        <v>7.15999984741211</v>
       </c>
       <c r="D2185" t="n">
         <v>7.1399998664856</v>
@@ -59642,6 +59642,32 @@
         <v>827</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6495486111</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>6231</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67217016220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61116790771484</t>
+    <t xml:space="preserve">6.67216968536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
     <t xml:space="preserve">6.58829164505005</t>
@@ -65,28 +65,28 @@
     <t xml:space="preserve">6.48153734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42053413391113</t>
+    <t xml:space="preserve">6.39003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42053365707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.44341087341309</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36715650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35190582275391</t>
+    <t xml:space="preserve">6.36715698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35190534591675</t>
   </si>
   <si>
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334419250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32903051376343</t>
+    <t xml:space="preserve">6.36334371566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32903003692627</t>
   </si>
   <si>
     <t xml:space="preserve">6.29090356826782</t>
@@ -119,25 +119,25 @@
     <t xml:space="preserve">5.87151002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92869997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99732780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10026979446411</t>
+    <t xml:space="preserve">5.74950456619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92870044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99732828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10026931762695</t>
   </si>
   <si>
     <t xml:space="preserve">6.13839673995972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17652368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.283278465271</t>
+    <t xml:space="preserve">6.17652416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28327798843384</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">6.51966333389282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39765930175781</t>
+    <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.27946519851685</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">6.32140493392944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38240718841553</t>
+    <t xml:space="preserve">6.38240766525269</t>
   </si>
   <si>
     <t xml:space="preserve">6.27565240859985</t>
@@ -179,67 +179,67 @@
     <t xml:space="preserve">6.33665561676025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953092575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37096881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37859487533569</t>
+    <t xml:space="preserve">6.35953140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37096929550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37859439849854</t>
   </si>
   <si>
     <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09264421463013</t>
+    <t xml:space="preserve">6.09264469146729</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120679855347</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364694595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933326721191</t>
+    <t xml:space="preserve">6.15364742279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933374404907</t>
   </si>
   <si>
     <t xml:space="preserve">6.13077163696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12314653396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90963697433472</t>
+    <t xml:space="preserve">6.12314605712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10789585113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09645748138428</t>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1078953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09645700454712</t>
   </si>
   <si>
     <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02401638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07739448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02782964706421</t>
+    <t xml:space="preserve">6.02401685714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07739400863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02782917022705</t>
   </si>
   <si>
     <t xml:space="preserve">6.26421499252319</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">6.19558620452881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184009552002</t>
+    <t xml:space="preserve">6.27184057235718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4777250289917</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">6.24515199661255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18033647537231</t>
+    <t xml:space="preserve">6.18033695220947</t>
   </si>
   <si>
     <t xml:space="preserve">6.31759166717529</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3137788772583</t>
+    <t xml:space="preserve">6.31377935409546</t>
   </si>
   <si>
     <t xml:space="preserve">6.21465015411377</t>
@@ -281,22 +281,22 @@
     <t xml:space="preserve">6.16127252578735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24896383285522</t>
+    <t xml:space="preserve">6.24896430969238</t>
   </si>
   <si>
     <t xml:space="preserve">6.3747820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55779027938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635334014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391176223755</t>
+    <t xml:space="preserve">6.55778932571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">6.63404321670532</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">6.58066606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54254007339478</t>
+    <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
     <t xml:space="preserve">6.512038230896</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">6.45103549957275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43959760665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39384603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578481674194</t>
+    <t xml:space="preserve">6.43959808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
     <t xml:space="preserve">6.42815971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45866012573242</t>
+    <t xml:space="preserve">6.45866060256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.44722270965576</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">6.48534965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50441217422485</t>
+    <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
     <t xml:space="preserve">6.55016565322876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46628665924072</t>
+    <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447885513306</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">6.66835737228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57304096221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60354328155518</t>
+    <t xml:space="preserve">6.5730414390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60354280471802</t>
   </si>
   <si>
     <t xml:space="preserve">6.53872728347778</t>
@@ -383,22 +383,22 @@
     <t xml:space="preserve">6.64166927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6836085319519</t>
+    <t xml:space="preserve">6.68360900878906</t>
   </si>
   <si>
     <t xml:space="preserve">6.69885921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67598342895508</t>
+    <t xml:space="preserve">6.67598295211792</t>
   </si>
   <si>
     <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76367378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92761898040771</t>
+    <t xml:space="preserve">6.76367425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92761850357056</t>
   </si>
   <si>
     <t xml:space="preserve">6.96955871582031</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11443996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0915641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581212997437</t>
+    <t xml:space="preserve">7.11443948745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09156370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581165313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387287139893</t>
+    <t xml:space="preserve">7.00768613815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387334823608</t>
   </si>
   <si>
     <t xml:space="preserve">6.9352445602417</t>
@@ -440,25 +440,25 @@
     <t xml:space="preserve">6.93143177032471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02293539047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16781806945801</t>
+    <t xml:space="preserve">7.02293491363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16781759262085</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15637922286987</t>
+    <t xml:space="preserve">7.15637874603271</t>
   </si>
   <si>
     <t xml:space="preserve">7.28219747543335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25169610977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32032442092896</t>
+    <t xml:space="preserve">7.25169563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3203239440918</t>
   </si>
   <si>
     <t xml:space="preserve">7.39657640457153</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43470430374146</t>
+    <t xml:space="preserve">7.4347038269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.62533903121948</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85409832000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07523345947266</t>
+    <t xml:space="preserve">7.85409736633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
     <t xml:space="preserve">8.11335849761963</t>
@@ -509,28 +509,28 @@
     <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686901092529</t>
+    <t xml:space="preserve">8.32686996459961</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974479675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37262058258057</t>
+    <t xml:space="preserve">8.37261962890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68525886535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74626350402832</t>
+    <t xml:space="preserve">8.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.69288539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726432800293</t>
+    <t xml:space="preserve">8.80726528167725</t>
   </si>
   <si>
     <t xml:space="preserve">8.91401958465576</t>
@@ -542,153 +542,153 @@
     <t xml:space="preserve">8.92164516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15040397644043</t>
+    <t xml:space="preserve">9.15040588378906</t>
   </si>
   <si>
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2876615524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42491722106934</t>
+    <t xml:space="preserve">9.28766345977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668613433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81380939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848394393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560796737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.522967338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0806970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9891939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959463119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264486312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5077543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439949035645</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217384338379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531444549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560796737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.522967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9891939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.073070526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0959463119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264486312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865154266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50775337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439949035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56217288970947</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.85758876800537</t>
   </si>
   <si>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484224319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4251012802124</t>
+    <t xml:space="preserve">10.4484233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
     <t xml:space="preserve">10.4173269271851</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5183906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4950685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.5183897018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4950675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">10.72829246521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5650358200073</t>
+    <t xml:space="preserve">10.565034866333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5261640548706</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">10.4639711380005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4406499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4095525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3318119049072</t>
+    <t xml:space="preserve">10.4406490325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.409553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3318109512329</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017782211304</t>
@@ -758,46 +758,46 @@
     <t xml:space="preserve">10.222972869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2929401397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4717445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.184103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1996517181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3240356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084878921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3784561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3395853042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2540702819824</t>
+    <t xml:space="preserve">10.2929391860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4717435836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1841039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1996507644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3240365982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3784551620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3395862579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2540712356567</t>
   </si>
   <si>
     <t xml:space="preserve">10.2618436813354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2696189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851676940918</t>
+    <t xml:space="preserve">10.2696180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851667404175</t>
   </si>
   <si>
     <t xml:space="preserve">10.3473596572876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6350021362305</t>
+    <t xml:space="preserve">10.6350030899048</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6816473007202</t>
+    <t xml:space="preserve">10.6816463470459</t>
   </si>
   <si>
     <t xml:space="preserve">10.5572605133057</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">10.6116800308228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194543838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449029922485</t>
+    <t xml:space="preserve">10.6194553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449039459229</t>
   </si>
   <si>
     <t xml:space="preserve">10.8604516983032</t>
@@ -833,16 +833,16 @@
     <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049684524536</t>
+    <t xml:space="preserve">10.7049703598022</t>
   </si>
   <si>
     <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795188903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3629083633423</t>
+    <t xml:space="preserve">10.4795198440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3629093170166</t>
   </si>
   <si>
     <t xml:space="preserve">10.1063613891602</t>
@@ -854,31 +854,31 @@
     <t xml:space="preserve">9.96642780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9431037902832</t>
+    <t xml:space="preserve">9.94310474395752</t>
   </si>
   <si>
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0441694259644</t>
+    <t xml:space="preserve">10.04416847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918773651123</t>
+    <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551340103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1296844482422</t>
+    <t xml:space="preserve">10.1296834945679</t>
   </si>
   <si>
     <t xml:space="preserve">10.1141357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1530065536499</t>
+    <t xml:space="preserve">10.1530055999756</t>
   </si>
   <si>
     <t xml:space="preserve">10.1607799530029</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98975086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">9.98974990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -902,31 +902,31 @@
     <t xml:space="preserve">10.2462949752808</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2307472229004</t>
+    <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
     <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90423488616943</t>
+    <t xml:space="preserve">9.90423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">9.68655872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62436676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59326839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43778514862061</t>
+    <t xml:space="preserve">9.62436580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59326934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.1734676361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26675605773926</t>
+    <t xml:space="preserve">9.26675510406494</t>
   </si>
   <si>
     <t xml:space="preserve">9.22011184692383</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">9.29785251617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31340217590332</t>
+    <t xml:space="preserve">9.313401222229</t>
   </si>
   <si>
     <t xml:space="preserve">9.2356595993042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32894992828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20456409454346</t>
+    <t xml:space="preserve">9.32894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20456314086914</t>
   </si>
   <si>
     <t xml:space="preserve">9.06462860107422</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">9.40668964385986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37559413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09572601318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0024356842041</t>
+    <t xml:space="preserve">9.3755931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09572505950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00243473052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.95579051971436</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">8.90914630889893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64482498168945</t>
+    <t xml:space="preserve">8.64482688903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">8.55153656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62927722930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56708526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69146919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67592239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58263301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52044105529785</t>
+    <t xml:space="preserve">8.6292781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56708431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6914701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67592334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58263397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52044010162354</t>
   </si>
   <si>
     <t xml:space="preserve">8.66037464141846</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42714977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70701885223389</t>
+    <t xml:space="preserve">8.42714881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70701789855957</t>
   </si>
   <si>
     <t xml:space="preserve">8.59818077087402</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">8.75366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78475952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9402437210083</t>
+    <t xml:space="preserve">8.78476047515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94024467468262</t>
   </si>
   <si>
     <t xml:space="preserve">8.92469501495361</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98688697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01798534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03353309631348</t>
+    <t xml:space="preserve">8.98688793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01798439025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03353404998779</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">9.36381149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788703918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.42751216888428</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">9.52306079864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53898620605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44343662261963</t>
+    <t xml:space="preserve">9.53898525238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
     <t xml:space="preserve">9.39566230773926</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66638278961182</t>
+    <t xml:space="preserve">9.66638374328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">9.61860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73008251190186</t>
+    <t xml:space="preserve">9.71415901184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73008346557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268497467041</t>
+    <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">8.82236671447754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75866794586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941959381104</t>
+    <t xml:space="preserve">8.7586669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941864013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.71089458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6153450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979541778564</t>
+    <t xml:space="preserve">8.61534404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979446411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496822357178</t>
+    <t xml:space="preserve">8.69496726989746</t>
   </si>
   <si>
     <t xml:space="preserve">8.63126754760742</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">8.44017028808594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56757068634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47201919555664</t>
+    <t xml:space="preserve">8.56756973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47202014923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1175,217 +1175,217 @@
     <t xml:space="preserve">8.34462261199951</t>
   </si>
   <si>
+    <t xml:space="preserve">8.12167453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96242618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05797481536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08982276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95446300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88280057907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0420503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50387096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48794555664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07716464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95303153991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83829212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98161602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80644226074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.535719871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90199089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88606739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77459239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04531574249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99754047393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66311836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79051780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85421562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87014198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58349418640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42424583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64719390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47998237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63923168182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55960750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36054515838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40035820007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16148567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20129776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28092193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24111080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32073402404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08186149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13808155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24472904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32676696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40880393981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20371150970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28574752807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49084091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44982242584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36778545379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9904146194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03963661193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94119167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10526657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95759916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80993270874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97400760650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00682163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87556266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82634115219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77711772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69508075714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66226673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71148872375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1544885635376</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.12167358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96242570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05797386169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08982276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9544620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88280057907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04204940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50387096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48794555664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07716464996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95303153991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91791534423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83829116821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98161602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80644130706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53571891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90198993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88606643676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77459239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04531478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9497652053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99753952026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79051685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85421562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87014198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58349418640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42424583435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64719390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47998142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63923072814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55960750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36054611206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40035820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16148567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20129776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28092193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24111080169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32073402404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08186149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13808155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24472904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32676696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40880393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20371150970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28574752807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49084091186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44982242584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3677864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9904146194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03963661193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94119119644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10526657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95759916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80993223190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97400760650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00682163238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87556266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90837717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.826340675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77711725234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69508075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66226720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71148824691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1544885635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12167263031006</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.17089557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05604457855225</t>
+    <t xml:space="preserve">8.05604362487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.08885860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92478513717651</t>
+    <t xml:space="preserve">7.92478466033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.18730354309082</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">7.67867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02322959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79352521896362</t>
+    <t xml:space="preserve">8.02322864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79352474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.74430370330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59663677215576</t>
+    <t xml:space="preserve">7.5966362953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.46537685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84274768829346</t>
+    <t xml:space="preserve">7.8427472114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.56382083892822</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">7.51459884643555</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49819135665894</t>
+    <t xml:space="preserve">7.49819183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.58022880554199</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">7.4161548614502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38333988189697</t>
+    <t xml:space="preserve">7.38334035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.26848840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10441398620605</t>
+    <t xml:space="preserve">7.10441446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.90752410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15363645553589</t>
+    <t xml:space="preserve">7.15363597869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.13722848892212</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">7.85915470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89196968078613</t>
+    <t xml:space="preserve">7.89196920394897</t>
   </si>
   <si>
     <t xml:space="preserve">7.54741430282593</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">7.61304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31770992279053</t>
+    <t xml:space="preserve">7.31771039962769</t>
   </si>
   <si>
     <t xml:space="preserve">7.35052490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89111661911011</t>
+    <t xml:space="preserve">6.89111709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.87471008300781</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">6.84189462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8583025932312</t>
+    <t xml:space="preserve">6.85830211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.82548761367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38248729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11996841430664</t>
+    <t xml:space="preserve">6.38248777389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11996793746948</t>
   </si>
   <si>
     <t xml:space="preserve">6.05433797836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21756076812744</t>
+    <t xml:space="preserve">5.21756029129028</t>
   </si>
   <si>
     <t xml:space="preserve">5.54570865631104</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">4.88941097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16833686828613</t>
+    <t xml:space="preserve">4.95504140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.20115280151367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28318929672241</t>
+    <t xml:space="preserve">5.28318881988525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29959726333618</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">5.5785231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25037479400635</t>
+    <t xml:space="preserve">5.25037431716919</t>
   </si>
   <si>
     <t xml:space="preserve">5.18474531173706</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00426340103149</t>
+    <t xml:space="preserve">5.00426292419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.80737447738647</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">4.93863391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85659694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
+    <t xml:space="preserve">4.85659646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.9878568649292</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">4.52844858169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46281862258911</t>
+    <t xml:space="preserve">4.46281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.38078212738037</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.41359663009644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39718866348267</t>
+    <t xml:space="preserve">4.39718818664551</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233623504639</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">3.93778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90496563911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83113360404968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78190994262695</t>
+    <t xml:space="preserve">3.90496587753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8311333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78191018104553</t>
   </si>
   <si>
     <t xml:space="preserve">3.92957735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92137384414673</t>
+    <t xml:space="preserve">3.92137360572815</t>
   </si>
   <si>
     <t xml:space="preserve">4.01981782913208</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">4.21670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1346697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826276779175</t>
+    <t xml:space="preserve">4.13467025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826229095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.06904029846191</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">3.97879958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16748428344727</t>
+    <t xml:space="preserve">4.16748476028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.10185575485229</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">4.08544778823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20029973983765</t>
+    <t xml:space="preserve">4.18389225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2003002166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.09365177154541</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">4.43000364303589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23311424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33155870437622</t>
+    <t xml:space="preserve">4.23311471939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33155822753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04442930221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06083583831787</t>
+    <t xml:space="preserve">4.06083631515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.03622579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02802228927612</t>
+    <t xml:space="preserve">4.02802181243896</t>
   </si>
   <si>
     <t xml:space="preserve">4.00341033935547</t>
@@ -1733,16 +1733,16 @@
     <t xml:space="preserve">3.87215185165405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97059559822083</t>
+    <t xml:space="preserve">3.9705958366394</t>
   </si>
   <si>
     <t xml:space="preserve">3.79011392593384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73268795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86394762992859</t>
+    <t xml:space="preserve">3.73268818855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86394739151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.88035535812378</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">3.77370715141296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
+    <t xml:space="preserve">3.74909591674805</t>
   </si>
   <si>
     <t xml:space="preserve">3.7080774307251</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">3.5604100227356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4455578327179</t>
+    <t xml:space="preserve">3.44555807113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.49478125572205</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.35531735420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28968739509583</t>
+    <t xml:space="preserve">3.2896876335144</t>
   </si>
   <si>
     <t xml:space="preserve">3.26507711410522</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">3.5686137676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55220699310303</t>
+    <t xml:space="preserve">3.55220723152161</t>
   </si>
   <si>
     <t xml:space="preserve">3.68346571922302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65885496139526</t>
+    <t xml:space="preserve">3.65885519981384</t>
   </si>
   <si>
     <t xml:space="preserve">3.9952073097229</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">4.07724380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24952220916748</t>
+    <t xml:space="preserve">4.24952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.56126260757446</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">4.72533702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57767009735107</t>
+    <t xml:space="preserve">4.57767057418823</t>
   </si>
   <si>
     <t xml:space="preserve">4.51204061508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31515216827393</t>
+    <t xml:space="preserve">4.31515169143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.47922611236572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34796619415283</t>
+    <t xml:space="preserve">4.34796667098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.05348539352417</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">5.43085670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23396682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08630037307739</t>
+    <t xml:space="preserve">5.23396730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08630084991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707838058472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06989336013794</t>
+    <t xml:space="preserve">5.06989288330078</t>
   </si>
   <si>
     <t xml:space="preserve">5.10270833969116</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">4.97144842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64330005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
+    <t xml:space="preserve">4.64330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
     <t xml:space="preserve">3.81472539901733</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">3.80652165412903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89676213264465</t>
+    <t xml:space="preserve">3.89676189422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.01161432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9623920917511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95418810844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94598436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72729468345642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89844608306885</t>
+    <t xml:space="preserve">3.96239185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95418858528137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94598412513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.727294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89844584465027</t>
   </si>
   <si>
     <t xml:space="preserve">3.8509042263031</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">3.93647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94598793983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95549654960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99352979660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00303888320923</t>
+    <t xml:space="preserve">3.94598841667175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95549607276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99353003501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.15517282485962</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">4.3358325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18369817733765</t>
+    <t xml:space="preserve">4.1836986541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.21222305297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2977991104126</t>
+    <t xml:space="preserve">4.29779863357544</t>
   </si>
   <si>
     <t xml:space="preserve">4.35484933853149</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">4.37386608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59255981445312</t>
+    <t xml:space="preserve">4.59255933761597</t>
   </si>
   <si>
     <t xml:space="preserve">4.69715213775635</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">4.17418956756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2217321395874</t>
+    <t xml:space="preserve">4.06008863449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22173166275024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38337516784668</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">4.36435794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23123979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16468191146851</t>
+    <t xml:space="preserve">4.23124027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16468143463135</t>
   </si>
   <si>
     <t xml:space="preserve">3.92697143554688</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">3.8889377117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68926119804382</t>
+    <t xml:space="preserve">3.6892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680329322815</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">3.96500492095947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87942934036255</t>
+    <t xml:space="preserve">3.87942910194397</t>
   </si>
   <si>
     <t xml:space="preserve">3.8033618927002</t>
@@ -59699,10 +59699,10 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.5173842593</v>
+        <v>45509.6494097222</v>
       </c>
       <c r="B2188" t="n">
-        <v>37187</v>
+        <v>39785</v>
       </c>
       <c r="C2188" t="n">
         <v>7.15999984741211</v>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71029663085938</t>
+    <t xml:space="preserve">6.71029615402222</t>
   </si>
   <si>
     <t xml:space="preserve">IVS.MI</t>
@@ -59,28 +59,28 @@
     <t xml:space="preserve">6.52728891372681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50822591781616</t>
+    <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
     <t xml:space="preserve">6.48153686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39003324508667</t>
+    <t xml:space="preserve">6.39003372192383</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053365707397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44341087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36715650558472</t>
+    <t xml:space="preserve">6.44341039657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
     <t xml:space="preserve">6.35190582275391</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34428071975708</t>
+    <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.36334419250488</t>
@@ -95,31 +95,31 @@
     <t xml:space="preserve">6.30615425109863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15746021270752</t>
+    <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
     <t xml:space="preserve">6.18414878845215</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1650857925415</t>
+    <t xml:space="preserve">6.16508483886719</t>
   </si>
   <si>
     <t xml:space="preserve">6.11552047729492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99351453781128</t>
+    <t xml:space="preserve">5.99351501464844</t>
   </si>
   <si>
     <t xml:space="preserve">6.03926753997803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03545522689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87151050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74950408935547</t>
+    <t xml:space="preserve">6.03545570373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87151002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74950456619263</t>
   </si>
   <si>
     <t xml:space="preserve">5.92870044708252</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">6.13839673995972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28327894210815</t>
+    <t xml:space="preserve">6.17652368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.25277662277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1993989944458</t>
+    <t xml:space="preserve">6.19939851760864</t>
   </si>
   <si>
     <t xml:space="preserve">6.23752641677856</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">6.40528297424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51966381072998</t>
+    <t xml:space="preserve">6.51966333389282</t>
   </si>
   <si>
     <t xml:space="preserve">6.39765882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27946519851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19177389144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32140445709229</t>
+    <t xml:space="preserve">6.279465675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19177436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32140493392944</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240766525269</t>
@@ -179,34 +179,34 @@
     <t xml:space="preserve">6.33665609359741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35953187942505</t>
+    <t xml:space="preserve">6.35953140258789</t>
   </si>
   <si>
     <t xml:space="preserve">6.37096977233887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859487533569</t>
+    <t xml:space="preserve">6.37859535217285</t>
   </si>
   <si>
     <t xml:space="preserve">6.06214332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09264421463013</t>
+    <t xml:space="preserve">6.09264469146729</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364742279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933326721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13077163696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12314605712891</t>
+    <t xml:space="preserve">6.15364646911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933279037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13077116012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12314558029175</t>
   </si>
   <si>
     <t xml:space="preserve">5.90963649749756</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">6.1040825843811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08502006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08883285522461</t>
+    <t xml:space="preserve">6.08501958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.1078953742981</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">5.98207759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02401638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07739448547363</t>
+    <t xml:space="preserve">6.02401733398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07739400863647</t>
   </si>
   <si>
     <t xml:space="preserve">6.02782964706421</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">6.26421499252319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19558572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27183961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772455215454</t>
+    <t xml:space="preserve">6.19558620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772407531738</t>
   </si>
   <si>
     <t xml:space="preserve">6.24515199661255</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">6.21465015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14602184295654</t>
+    <t xml:space="preserve">6.14602136611938</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3747820854187</t>
+    <t xml:space="preserve">6.37478256225586</t>
   </si>
   <si>
     <t xml:space="preserve">6.55778980255127</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">6.53491449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47391176223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63404369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4967885017395</t>
+    <t xml:space="preserve">6.54635286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47391128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63404417037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49678754806519</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066654205322</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">6.512038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43959808349609</t>
+    <t xml:space="preserve">6.45103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43959760665894</t>
   </si>
   <si>
     <t xml:space="preserve">6.39384603500366</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42816019058228</t>
+    <t xml:space="preserve">6.42815923690796</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866012573242</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">6.44722270965576</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4700984954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50060081481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48535013198853</t>
+    <t xml:space="preserve">6.47009897232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50060033798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48534965515137</t>
   </si>
   <si>
     <t xml:space="preserve">6.50441265106201</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">6.5501651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46628618240356</t>
+    <t xml:space="preserve">6.46628570556641</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447885513306</t>
@@ -365,22 +365,22 @@
     <t xml:space="preserve">6.60354328155518</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53872680664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46247386932373</t>
+    <t xml:space="preserve">6.53872728347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46247291564941</t>
   </si>
   <si>
     <t xml:space="preserve">6.5311017036438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63023042678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64166927337646</t>
+    <t xml:space="preserve">6.59591722488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63023090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64166975021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.6836085319519</t>
@@ -407,28 +407,28 @@
     <t xml:space="preserve">6.96193361282349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05343723297119</t>
+    <t xml:space="preserve">7.05343770980835</t>
   </si>
   <si>
     <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11443996429443</t>
+    <t xml:space="preserve">7.11444044113159</t>
   </si>
   <si>
     <t xml:space="preserve">7.0915641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04581212997437</t>
+    <t xml:space="preserve">7.04581260681152</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905687332153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768613815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00387334823608</t>
+    <t xml:space="preserve">7.00768566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
     <t xml:space="preserve">6.93524408340454</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">6.98099613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93143224716187</t>
+    <t xml:space="preserve">6.93143129348755</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
@@ -455,31 +455,31 @@
     <t xml:space="preserve">7.28219699859619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25169610977173</t>
+    <t xml:space="preserve">7.25169563293457</t>
   </si>
   <si>
     <t xml:space="preserve">7.3203239440918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39657640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51095771789551</t>
+    <t xml:space="preserve">7.39657688140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51095724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.45758056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41564035415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4347038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159101486206</t>
+    <t xml:space="preserve">7.41564083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43470430374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533855438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159149169922</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">8.07523250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11335754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08285808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34212112426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23536491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38787078857422</t>
+    <t xml:space="preserve">8.11335849761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08285713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34212017059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23536586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38787174224854</t>
   </si>
   <si>
     <t xml:space="preserve">8.22011375427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32686805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34974479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37261962890625</t>
+    <t xml:space="preserve">8.32686901092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34974575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37262153625488</t>
   </si>
   <si>
     <t xml:space="preserve">8.31161785125732</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">8.68525886535645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74626350402832</t>
+    <t xml:space="preserve">8.746262550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.69288444519043</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">8.88351821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92164516448975</t>
+    <t xml:space="preserve">8.92164611816406</t>
   </si>
   <si>
     <t xml:space="preserve">9.15040493011475</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">9.29528713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2876615524292</t>
+    <t xml:space="preserve">9.28766250610352</t>
   </si>
   <si>
     <t xml:space="preserve">9.42491722106934</t>
@@ -557,10 +557,10 @@
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605331420898</t>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605236053467</t>
   </si>
   <si>
     <t xml:space="preserve">9.77568340301514</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">9.56979846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67655277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81380939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531349182129</t>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81381034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531444549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2179527282715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.561092376709</t>
+    <t xml:space="preserve">10.5610933303833</t>
   </si>
   <si>
     <t xml:space="preserve">10.4848394393921</t>
@@ -605,22 +605,22 @@
     <t xml:space="preserve">10.2560796737671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5229663848877</t>
+    <t xml:space="preserve">10.522967338562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3933353424072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0806970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044422149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98919296264648</t>
+    <t xml:space="preserve">10.080696105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9891939163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.2027015686035</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">10.1188220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730714797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.095947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1264476776123</t>
+    <t xml:space="preserve">10.1950750350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073070526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.126446723938</t>
   </si>
   <si>
     <t xml:space="preserve">9.93581581115723</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">9.46304416656494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44779396057129</t>
+    <t xml:space="preserve">9.44779300689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.50117111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34104061126709</t>
+    <t xml:space="preserve">9.34103965759277</t>
   </si>
   <si>
     <t xml:space="preserve">9.60792446136475</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">10.0286197662354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91200828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997997283936</t>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997901916504</t>
   </si>
   <si>
     <t xml:space="preserve">9.5077543258667</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830402374268</t>
+    <t xml:space="preserve">10.0830392837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">10.4173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007135391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561967849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5183906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4950685501099</t>
+    <t xml:space="preserve">10.3007144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561977386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5183897018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4950675964355</t>
   </si>
   <si>
     <t xml:space="preserve">10.5028419494629</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">10.4406490325928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4095525741577</t>
+    <t xml:space="preserve">10.409553527832</t>
   </si>
   <si>
     <t xml:space="preserve">10.3318109512329</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">10.4017782211304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2229738235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929401397705</t>
+    <t xml:space="preserve">10.222972869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929391860962</t>
   </si>
   <si>
     <t xml:space="preserve">10.4717435836792</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">10.1841039657593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1996507644653</t>
+    <t xml:space="preserve">10.1996517181396</t>
   </si>
   <si>
     <t xml:space="preserve">10.3240356445312</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">10.3084878921509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3784561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3395853042603</t>
+    <t xml:space="preserve">10.3784551620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3395862579346</t>
   </si>
   <si>
     <t xml:space="preserve">10.2540702819824</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">10.2851667404175</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3473587036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350021362305</t>
+    <t xml:space="preserve">10.3473596572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350030899048</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
@@ -809,16 +809,16 @@
     <t xml:space="preserve">10.5572605133057</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6116790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194543838501</t>
+    <t xml:space="preserve">10.6116800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194553375244</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449039459229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8604516983032</t>
+    <t xml:space="preserve">10.8604526519775</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837747573853</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">10.8993225097656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7982597351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7049694061279</t>
+    <t xml:space="preserve">10.7982587814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7049703598022</t>
   </si>
   <si>
     <t xml:space="preserve">10.767162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795188903809</t>
+    <t xml:space="preserve">10.4795198440552</t>
   </si>
   <si>
     <t xml:space="preserve">10.3629083633423</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">10.1374588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1918773651123</t>
+    <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3551340103149</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">10.1530065536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1607799530029</t>
+    <t xml:space="preserve">10.1607809066772</t>
   </si>
   <si>
     <t xml:space="preserve">9.99752426147461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98975086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0674915313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1452322006226</t>
+    <t xml:space="preserve">9.98974990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0674905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1452331542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5932674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43778610229492</t>
+    <t xml:space="preserve">9.59326839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.17346668243408</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">9.26675605773926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18901443481445</t>
+    <t xml:space="preserve">9.22011089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18901538848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.29785251617432</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">9.313401222229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2356595993042</t>
+    <t xml:space="preserve">9.23566055297852</t>
   </si>
   <si>
     <t xml:space="preserve">9.32894897460938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20456409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06462860107422</t>
+    <t xml:space="preserve">9.20456314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0646276473999</t>
   </si>
   <si>
     <t xml:space="preserve">9.40669059753418</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">8.95579051971436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90914630889893</t>
+    <t xml:space="preserve">8.90914535522461</t>
   </si>
   <si>
     <t xml:space="preserve">8.64482593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61373043060303</t>
+    <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
     <t xml:space="preserve">8.72256851196289</t>
@@ -992,25 +992,25 @@
     <t xml:space="preserve">8.56708526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6914701461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67592334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58263301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52044105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66037559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53598785400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42714881896973</t>
+    <t xml:space="preserve">8.69147109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67592430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58263397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52044010162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66037464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53598880767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
     <t xml:space="preserve">8.70701885223389</t>
@@ -1028,19 +1028,19 @@
     <t xml:space="preserve">8.9402437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92469501495361</t>
+    <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.97133922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98688697814941</t>
+    <t xml:space="preserve">8.98688793182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.01798439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03353214263916</t>
+    <t xml:space="preserve">9.03353309631348</t>
   </si>
   <si>
     <t xml:space="preserve">9.31603813171387</t>
@@ -59751,7 +59751,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6495138889</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>14552</v>
@@ -59772,6 +59772,32 @@
         <v>824</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6495486111</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>3545</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>7.1399998664856</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>7.15999984741211</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IVS.MI.xlsx
+++ b/data/IVS.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">IVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67216968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61116790771484</t>
+    <t xml:space="preserve">6.67217016220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61116743087769</t>
   </si>
   <si>
     <t xml:space="preserve">6.58829164505005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55397796630859</t>
+    <t xml:space="preserve">6.55397844314575</t>
   </si>
   <si>
     <t xml:space="preserve">6.52728891372681</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">6.50822496414185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48153686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39003372192383</t>
+    <t xml:space="preserve">6.48153638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39003276824951</t>
   </si>
   <si>
     <t xml:space="preserve">6.42053365707397</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">6.36715698242188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35190582275391</t>
+    <t xml:space="preserve">6.35190534591675</t>
   </si>
   <si>
     <t xml:space="preserve">6.34428119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36334419250488</t>
+    <t xml:space="preserve">6.36334466934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.32903051376343</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">6.15745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18414878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16508483886719</t>
+    <t xml:space="preserve">6.18414926528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16508531570435</t>
   </si>
   <si>
     <t xml:space="preserve">6.11552047729492</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">5.74950456619263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92870044708252</t>
+    <t xml:space="preserve">5.92870092391968</t>
   </si>
   <si>
     <t xml:space="preserve">5.99732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10026931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13839673995972</t>
+    <t xml:space="preserve">6.10026979446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13839721679688</t>
   </si>
   <si>
     <t xml:space="preserve">6.17652368545532</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">6.22990083694458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40528297424316</t>
+    <t xml:space="preserve">6.40528345108032</t>
   </si>
   <si>
     <t xml:space="preserve">6.51966333389282</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">6.19177436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32140493392944</t>
+    <t xml:space="preserve">6.3214054107666</t>
   </si>
   <si>
     <t xml:space="preserve">6.38240766525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27565240859985</t>
+    <t xml:space="preserve">6.27565288543701</t>
   </si>
   <si>
     <t xml:space="preserve">6.33665609359741</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">6.37096977233887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37859535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06214332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09264469146729</t>
+    <t xml:space="preserve">6.37859487533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06214380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09264421463013</t>
   </si>
   <si>
     <t xml:space="preserve">6.08120727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15364646911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11933279037476</t>
+    <t xml:space="preserve">6.15364694595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11933326721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.13077116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12314558029175</t>
+    <t xml:space="preserve">6.12314605712891</t>
   </si>
   <si>
     <t xml:space="preserve">5.90963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1040825843811</t>
+    <t xml:space="preserve">6.10408306121826</t>
   </si>
   <si>
     <t xml:space="preserve">6.08501958847046</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">6.08883237838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95920133590698</t>
+    <t xml:space="preserve">6.10789489746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95920085906982</t>
   </si>
   <si>
     <t xml:space="preserve">6.09645700454712</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98207759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02401733398438</t>
+    <t xml:space="preserve">5.98207712173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02401685714722</t>
   </si>
   <si>
     <t xml:space="preserve">6.07739400863647</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">6.02782964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26421499252319</t>
+    <t xml:space="preserve">6.26421451568604</t>
   </si>
   <si>
     <t xml:space="preserve">6.19558620452881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47772407531738</t>
+    <t xml:space="preserve">6.27184057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47772359848022</t>
   </si>
   <si>
     <t xml:space="preserve">6.24515199661255</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">6.18033647537231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31759166717529</t>
+    <t xml:space="preserve">6.31759214401245</t>
   </si>
   <si>
     <t xml:space="preserve">6.30996656417847</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31377983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21465015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14602136611938</t>
+    <t xml:space="preserve">6.31377935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21464967727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14602184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.25658941268921</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">6.24896383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37478256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55778980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53491449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54635286331177</t>
+    <t xml:space="preserve">6.3747820854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55779027938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54635238647461</t>
   </si>
   <si>
     <t xml:space="preserve">6.47391128540039</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63404417037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49678754806519</t>
+    <t xml:space="preserve">6.63404369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49678802490234</t>
   </si>
   <si>
     <t xml:space="preserve">6.58066654205322</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">6.54253959655762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.512038230896</t>
+    <t xml:space="preserve">6.51203775405884</t>
   </si>
   <si>
     <t xml:space="preserve">6.45103549957275</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">6.4357852935791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42815923690796</t>
+    <t xml:space="preserve">6.42816019058228</t>
   </si>
   <si>
     <t xml:space="preserve">6.45866012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44722270965576</t>
+    <t xml:space="preserve">6.44722318649292</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009897232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50060033798218</t>
+    <t xml:space="preserve">6.50060081481934</t>
   </si>
   <si>
     <t xml:space="preserve">6.48534965515137</t>
@@ -347,10 +347,10 @@
     <t xml:space="preserve">6.50441265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5501651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46628570556641</t>
+    <t xml:space="preserve">6.55016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46628618240356</t>
   </si>
   <si>
     <t xml:space="preserve">6.58447885513306</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">6.66835737228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5730414390564</t>
+    <t xml:space="preserve">6.57304096221924</t>
   </si>
   <si>
     <t xml:space="preserve">6.60354328155518</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">6.53872728347778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46247291564941</t>
+    <t xml:space="preserve">6.46247339248657</t>
   </si>
   <si>
     <t xml:space="preserve">6.5311017036438</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">6.67598295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7484245300293</t>
+    <t xml:space="preserve">6.74842405319214</t>
   </si>
   <si>
     <t xml:space="preserve">6.76367378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92761898040771</t>
+    <t xml:space="preserve">6.92761945724487</t>
   </si>
   <si>
     <t xml:space="preserve">6.96955823898315</t>
@@ -413,37 +413,37 @@
     <t xml:space="preserve">7.10300254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11444044113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0915641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04581260681152</t>
+    <t xml:space="preserve">7.11443996429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09156370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04581165313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.93905687332153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00768566131592</t>
+    <t xml:space="preserve">7.00768518447876</t>
   </si>
   <si>
     <t xml:space="preserve">7.00387287139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93524408340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98099613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93143129348755</t>
+    <t xml:space="preserve">6.9352445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98099565505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93143177032471</t>
   </si>
   <si>
     <t xml:space="preserve">7.02293539047241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16781759262085</t>
+    <t xml:space="preserve">7.16781806945801</t>
   </si>
   <si>
     <t xml:space="preserve">7.14875364303589</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">7.15637922286987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28219699859619</t>
+    <t xml:space="preserve">7.28219747543335</t>
   </si>
   <si>
     <t xml:space="preserve">7.25169563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3203239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39657688140869</t>
+    <t xml:space="preserve">7.32032442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39657735824585</t>
   </si>
   <si>
     <t xml:space="preserve">7.51095724105835</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">7.41564083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43470430374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62533855438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159149169922</t>
+    <t xml:space="preserve">7.4347038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62533760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159101486206</t>
   </si>
   <si>
     <t xml:space="preserve">7.85409784317017</t>
@@ -491,37 +491,37 @@
     <t xml:space="preserve">8.11335849761963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18961143493652</t>
+    <t xml:space="preserve">8.08285808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18961238861084</t>
   </si>
   <si>
     <t xml:space="preserve">8.34212017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23536586761475</t>
+    <t xml:space="preserve">8.23536491394043</t>
   </si>
   <si>
     <t xml:space="preserve">8.38787174224854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22011375427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32686901092529</t>
+    <t xml:space="preserve">8.22011470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32686805725098</t>
   </si>
   <si>
     <t xml:space="preserve">8.34974575042725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37262153625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31161785125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68525886535645</t>
+    <t xml:space="preserve">8.37262058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31161689758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68525981903076</t>
   </si>
   <si>
     <t xml:space="preserve">8.746262550354</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">8.69288444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80726432800293</t>
+    <t xml:space="preserve">8.80726623535156</t>
   </si>
   <si>
     <t xml:space="preserve">8.91402053833008</t>
@@ -551,160 +551,163 @@
     <t xml:space="preserve">9.28766250610352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42491722106934</t>
+    <t xml:space="preserve">9.42491817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56217384338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72230625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64605236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77568340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27241134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76043128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56979846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79093456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81381034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90531349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2179517745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5610942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560796737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5229663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3933343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0806970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0654458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9891939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2027025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1188220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1950759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0959463119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1264476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93581581115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46304416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50117111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34103965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95865249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0597171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91200923919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49997997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50775337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48443222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55439853668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.56217288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72230625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64605236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77568340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27241134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37916564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76043128967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56979846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79093456268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81381034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90531444549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560796737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.522967338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3933353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0654449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0044441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9891939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2027015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1188220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1950750350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.073070526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0959453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.126446723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46304416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50117111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34103965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60792446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95865249633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0597171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91200923919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49997901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5077543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48443222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55439853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85758876800537</t>
+    <t xml:space="preserve">9.85758972167969</t>
   </si>
   <si>
     <t xml:space="preserve">10.013072013855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0830392837524</t>
+    <t xml:space="preserve">10.0830383300781</t>
   </si>
   <si>
     <t xml:space="preserve">10.5728092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4484224319458</t>
+    <t xml:space="preserve">10.4484233856201</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4173269271851</t>
+    <t xml:space="preserve">10.4173259735107</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007144927979</t>
@@ -713,19 +716,19 @@
     <t xml:space="preserve">10.4561977386475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5183897018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4950675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5028419494629</t>
+    <t xml:space="preserve">10.5183906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4950685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5028429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4328746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.72829246521</t>
+    <t xml:space="preserve">10.7282915115356</t>
   </si>
   <si>
     <t xml:space="preserve">10.565034866333</t>
@@ -749,16 +752,16 @@
     <t xml:space="preserve">10.3318109512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017782211304</t>
+    <t xml:space="preserve">10.4017791748047</t>
   </si>
   <si>
     <t xml:space="preserve">10.222972869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2929391860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4717435836792</t>
+    <t xml:space="preserve">10.2929401397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4717445373535</t>
   </si>
   <si>
     <t xml:space="preserve">10.1841039657593</t>
@@ -767,40 +770,40 @@
     <t xml:space="preserve">10.1996517181396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3240356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3084878921509</t>
+    <t xml:space="preserve">10.3240365982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3084888458252</t>
   </si>
   <si>
     <t xml:space="preserve">10.3784551620483</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3395862579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2540702819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2618436813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2851667404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3473596572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6350030899048</t>
+    <t xml:space="preserve">10.3395853042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2540712356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2618446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2851657867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3473587036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6350021362305</t>
   </si>
   <si>
     <t xml:space="preserve">10.6505498886108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6894207000732</t>
+    <t xml:space="preserve">10.6894197463989</t>
   </si>
   <si>
     <t xml:space="preserve">10.6816473007202</t>
@@ -812,28 +815,28 @@
     <t xml:space="preserve">10.6116800308228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194553375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8604526519775</t>
+    <t xml:space="preserve">10.6194543838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449029922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8604507446289</t>
   </si>
   <si>
     <t xml:space="preserve">10.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8993225097656</t>
+    <t xml:space="preserve">10.8993215560913</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982587814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7049703598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767162322998</t>
+    <t xml:space="preserve">10.7049694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7671632766724</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795198440552</t>
@@ -857,7 +860,7 @@
     <t xml:space="preserve">9.87313747406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.04416847229</t>
+    <t xml:space="preserve">10.0441694259644</t>
   </si>
   <si>
     <t xml:space="preserve">10.1374588012695</t>
@@ -866,7 +869,7 @@
     <t xml:space="preserve">10.1918783187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3551340103149</t>
+    <t xml:space="preserve">10.3551330566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1296844482422</t>
@@ -875,22 +878,22 @@
     <t xml:space="preserve">10.1141357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1530065536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1607809066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99752426147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98974990844727</t>
+    <t xml:space="preserve">10.1530055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1607789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99752521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98975086212158</t>
   </si>
   <si>
     <t xml:space="preserve">10.0674905776978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1452331542969</t>
+    <t xml:space="preserve">10.1452322006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.1685543060303</t>
@@ -902,7 +905,7 @@
     <t xml:space="preserve">10.2307481765747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.21519947052</t>
+    <t xml:space="preserve">10.2151985168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.90423393249512</t>
@@ -914,19 +917,19 @@
     <t xml:space="preserve">9.62436580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59326839447021</t>
+    <t xml:space="preserve">9.59326934814453</t>
   </si>
   <si>
     <t xml:space="preserve">9.43778705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17346668243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26675605773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22011089324951</t>
+    <t xml:space="preserve">9.1734676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26675510406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22011184692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.18901538848877</t>
@@ -953,34 +956,34 @@
     <t xml:space="preserve">9.40669059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37559413909912</t>
+    <t xml:space="preserve">9.3755931854248</t>
   </si>
   <si>
     <t xml:space="preserve">9.09572601318359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00243473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95579051971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90914535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64482593536377</t>
+    <t xml:space="preserve">9.00243377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95579147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90914726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64482688903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.61372947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72256851196289</t>
+    <t xml:space="preserve">8.72256755828857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86250114440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47379493713379</t>
+    <t xml:space="preserve">8.47379398345947</t>
   </si>
   <si>
     <t xml:space="preserve">8.55153656005859</t>
@@ -989,13 +992,13 @@
     <t xml:space="preserve">8.6292781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56708526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69147109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67592430114746</t>
+    <t xml:space="preserve">8.56708431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6914701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67592334747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.58263397216797</t>
@@ -1007,19 +1010,19 @@
     <t xml:space="preserve">8.66037464141846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53598880767822</t>
+    <t xml:space="preserve">8.53598785400391</t>
   </si>
   <si>
     <t xml:space="preserve">8.42714977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70701885223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59818077087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75366401672363</t>
+    <t xml:space="preserve">8.7070198059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59818172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75366306304932</t>
   </si>
   <si>
     <t xml:space="preserve">8.78476047515869</t>
@@ -1031,7 +1034,7 @@
     <t xml:space="preserve">8.9246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97133922576904</t>
+    <t xml:space="preserve">8.97134017944336</t>
   </si>
   <si>
     <t xml:space="preserve">8.98688793182373</t>
@@ -1049,13 +1052,13 @@
     <t xml:space="preserve">9.36381149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50713634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34788799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42751216888428</t>
+    <t xml:space="preserve">9.50713539123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34788608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42751121520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.41158676147461</t>
@@ -1070,13 +1073,13 @@
     <t xml:space="preserve">9.53898620605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44343662261963</t>
+    <t xml:space="preserve">9.44343566894531</t>
   </si>
   <si>
     <t xml:space="preserve">9.39566230773926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4912109375</t>
+    <t xml:space="preserve">9.49120998382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.55491065979004</t>
@@ -1085,7 +1088,7 @@
     <t xml:space="preserve">9.69823455810547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66638278961182</t>
+    <t xml:space="preserve">9.66638374328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.57083511352539</t>
@@ -1097,13 +1100,13 @@
     <t xml:space="preserve">9.7141580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73008251190186</t>
+    <t xml:space="preserve">9.73008346557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60268497467041</t>
+    <t xml:space="preserve">9.60268402099609</t>
   </si>
   <si>
     <t xml:space="preserve">9.01346492767334</t>
@@ -1112,37 +1115,37 @@
     <t xml:space="preserve">8.82236671447754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75866794586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59941959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71089458465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6153450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51979541778564</t>
+    <t xml:space="preserve">8.7586669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71089363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61534404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51979446411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.55164432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69496822357178</t>
+    <t xml:space="preserve">8.69496726989746</t>
   </si>
   <si>
     <t xml:space="preserve">8.63126754760742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44017028808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56757068634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47201919555664</t>
+    <t xml:space="preserve">8.44017124176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56756973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47202014923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.32869625091553</t>
@@ -1151,7 +1154,7 @@
     <t xml:space="preserve">8.23314762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26499652862549</t>
+    <t xml:space="preserve">8.2649974822998</t>
   </si>
   <si>
     <t xml:space="preserve">8.45609569549561</t>
@@ -1160,7 +1163,7 @@
     <t xml:space="preserve">8.40832042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72681903839111</t>
+    <t xml:space="preserve">8.7268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.67904281616211</t>
@@ -1175,16 +1178,16 @@
     <t xml:space="preserve">8.1216735